--- a/Unit 1 - Ranking (PCS).xlsx
+++ b/Unit 1 - Ranking (PCS).xlsx
@@ -3597,7 +3597,7 @@
           <cell r="F8"/>
           <cell r="G8"/>
           <cell r="H8">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I8"/>
           <cell r="J8"/>
@@ -3667,7 +3667,7 @@
           <cell r="AV8"/>
           <cell r="AW8"/>
           <cell r="AX8">
-            <v>0.33333333333333331</v>
+            <v>0.42857142857142855</v>
           </cell>
           <cell r="AY8"/>
           <cell r="AZ8"/>
@@ -4222,7 +4222,7 @@
           <cell r="NQ8"/>
           <cell r="NR8"/>
           <cell r="NS8">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="NT8"/>
           <cell r="NU8"/>
@@ -4317,7 +4317,7 @@
           <cell r="PV8"/>
           <cell r="PW8"/>
           <cell r="PX8">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="PY8"/>
           <cell r="PZ8"/>
@@ -4417,7 +4417,7 @@
           <cell r="SD8"/>
           <cell r="SE8"/>
           <cell r="SF8">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="SG8"/>
           <cell r="SH8"/>
@@ -4447,7 +4447,7 @@
           <cell r="SV8"/>
           <cell r="SW8"/>
           <cell r="SX8">
-            <v>0.56521739130434778</v>
+            <v>0.64516129032258063</v>
           </cell>
           <cell r="SY8"/>
           <cell r="SZ8"/>
@@ -5633,7 +5633,7 @@
             <v>0</v>
           </cell>
           <cell r="CZ10">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="DA10" t="str">
             <v/>
@@ -5822,13 +5822,13 @@
             <v>0</v>
           </cell>
           <cell r="FK10">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="FL10">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="FM10">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="FN10">
             <v>0</v>
@@ -6875,13 +6875,13 @@
             <v>0</v>
           </cell>
           <cell r="SX10">
-            <v>43</v>
+            <v>45</v>
           </cell>
           <cell r="SY10">
-            <v>0.82692307692307687</v>
+            <v>0.86538461538461542</v>
           </cell>
           <cell r="SZ10">
-            <v>9</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="11">
@@ -7904,7 +7904,7 @@
           <cell r="CI12"/>
           <cell r="CJ12"/>
           <cell r="CK12">
-            <v>0.2</v>
+            <v>0.25</v>
           </cell>
           <cell r="CL12"/>
           <cell r="CM12"/>
@@ -7928,8 +7928,8 @@
           </cell>
           <cell r="CX12"/>
           <cell r="CY12"/>
-          <cell r="CZ12" t="str">
-            <v/>
+          <cell r="CZ12">
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="DA12"/>
           <cell r="DB12"/>
@@ -7963,8 +7963,8 @@
           </cell>
           <cell r="DS12"/>
           <cell r="DT12"/>
-          <cell r="DU12">
-            <v>0.1111111111111111</v>
+          <cell r="DU12" t="str">
+            <v/>
           </cell>
           <cell r="DV12"/>
           <cell r="DW12"/>
@@ -8034,7 +8034,7 @@
           <cell r="FI12"/>
           <cell r="FJ12"/>
           <cell r="FK12">
-            <v>0</v>
+            <v>6.25E-2</v>
           </cell>
           <cell r="FL12"/>
           <cell r="FM12"/>
@@ -8144,7 +8144,7 @@
           <cell r="HW12"/>
           <cell r="HX12"/>
           <cell r="HY12">
-            <v>0.16666666666666666</v>
+            <v>0.15789473684210525</v>
           </cell>
           <cell r="HZ12"/>
           <cell r="IA12"/>
@@ -8489,7 +8489,7 @@
           <cell r="PV12"/>
           <cell r="PW12"/>
           <cell r="PX12">
-            <v>0.33333333333333331</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="PY12"/>
           <cell r="PZ12"/>
@@ -8509,7 +8509,7 @@
           <cell r="QH12"/>
           <cell r="QI12"/>
           <cell r="QJ12">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="QK12"/>
           <cell r="QL12"/>
@@ -8524,12 +8524,12 @@
           <cell r="QQ12"/>
           <cell r="QR12"/>
           <cell r="QS12">
-            <v>0.16666666666666666</v>
+            <v>0.25</v>
           </cell>
           <cell r="QT12"/>
           <cell r="QU12"/>
           <cell r="QV12">
-            <v>0.5</v>
+            <v>0.5714285714285714</v>
           </cell>
           <cell r="QW12"/>
           <cell r="QX12"/>
@@ -8619,7 +8619,7 @@
           <cell r="SV12"/>
           <cell r="SW12"/>
           <cell r="SX12">
-            <v>0.23497267759562845</v>
+            <v>0.26011560693641617</v>
           </cell>
           <cell r="SY12"/>
           <cell r="SZ12"/>
@@ -9669,7 +9669,7 @@
           <cell r="CX14"/>
           <cell r="CY14"/>
           <cell r="CZ14">
-            <v>45.666666666666664</v>
+            <v>51.75</v>
           </cell>
           <cell r="DA14"/>
           <cell r="DB14"/>
@@ -9773,8 +9773,8 @@
           </cell>
           <cell r="FI14"/>
           <cell r="FJ14"/>
-          <cell r="FK14" t="str">
-            <v/>
+          <cell r="FK14">
+            <v>59</v>
           </cell>
           <cell r="FL14"/>
           <cell r="FM14"/>
@@ -10349,7 +10349,7 @@
           <cell r="SP14"/>
           <cell r="SQ14"/>
           <cell r="SR14">
-            <v>142</v>
+            <v>141</v>
           </cell>
           <cell r="SS14"/>
           <cell r="ST14"/>
@@ -10359,7 +10359,7 @@
           <cell r="SV14"/>
           <cell r="SW14"/>
           <cell r="SX14">
-            <v>76.418604651162795</v>
+            <v>75.86666666666666</v>
           </cell>
           <cell r="SY14"/>
           <cell r="SZ14"/>
@@ -11383,7 +11383,7 @@
             <v>0</v>
           </cell>
           <cell r="AX16">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="AY16" t="str">
             <v/>
@@ -11545,7 +11545,7 @@
             <v>0</v>
           </cell>
           <cell r="CZ16">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="DA16" t="str">
             <v/>
@@ -11608,7 +11608,7 @@
             <v>0</v>
           </cell>
           <cell r="DU16">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="DV16" t="str">
             <v/>
@@ -11932,7 +11932,7 @@
             <v>0</v>
           </cell>
           <cell r="HY16">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="HZ16" t="str">
             <v/>
@@ -12769,7 +12769,7 @@
             <v>0</v>
           </cell>
           <cell r="SR16">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="SS16" t="str">
             <v/>
@@ -12787,13 +12787,13 @@
             <v>0</v>
           </cell>
           <cell r="SX16">
-            <v>50</v>
+            <v>53</v>
           </cell>
           <cell r="SY16">
-            <v>0.96153846153846156</v>
+            <v>1.0192307692307692</v>
           </cell>
           <cell r="SZ16">
-            <v>2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
@@ -13751,7 +13751,7 @@
           <cell r="AV18"/>
           <cell r="AW18"/>
           <cell r="AX18">
-            <v>0.33333333333333331</v>
+            <v>0.5</v>
           </cell>
           <cell r="AY18"/>
           <cell r="AZ18"/>
@@ -13816,7 +13816,7 @@
           <cell r="CI18"/>
           <cell r="CJ18"/>
           <cell r="CK18">
-            <v>0.4</v>
+            <v>0.5</v>
           </cell>
           <cell r="CL18"/>
           <cell r="CM18"/>
@@ -13841,7 +13841,7 @@
           <cell r="CX18"/>
           <cell r="CY18"/>
           <cell r="CZ18">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="DA18"/>
           <cell r="DB18"/>
@@ -13851,7 +13851,7 @@
           <cell r="DD18"/>
           <cell r="DE18"/>
           <cell r="DF18">
-            <v>0.2</v>
+            <v>0.25</v>
           </cell>
           <cell r="DG18"/>
           <cell r="DH18"/>
@@ -13876,7 +13876,7 @@
           <cell r="DS18"/>
           <cell r="DT18"/>
           <cell r="DU18">
-            <v>0.1111111111111111</v>
+            <v>0</v>
           </cell>
           <cell r="DV18"/>
           <cell r="DW18"/>
@@ -13910,8 +13910,8 @@
           </cell>
           <cell r="EN18"/>
           <cell r="EO18"/>
-          <cell r="EP18">
-            <v>0</v>
+          <cell r="EP18" t="str">
+            <v/>
           </cell>
           <cell r="EQ18"/>
           <cell r="ER18"/>
@@ -13946,7 +13946,7 @@
           <cell r="FI18"/>
           <cell r="FJ18"/>
           <cell r="FK18">
-            <v>0.35714285714285715</v>
+            <v>0.3125</v>
           </cell>
           <cell r="FL18"/>
           <cell r="FM18"/>
@@ -14056,7 +14056,7 @@
           <cell r="HW18"/>
           <cell r="HX18"/>
           <cell r="HY18">
-            <v>0.16666666666666666</v>
+            <v>0.21052631578947367</v>
           </cell>
           <cell r="HZ18"/>
           <cell r="IA18"/>
@@ -14401,7 +14401,7 @@
           <cell r="PV18"/>
           <cell r="PW18"/>
           <cell r="PX18">
-            <v>0.5</v>
+            <v>0.42857142857142855</v>
           </cell>
           <cell r="PY18"/>
           <cell r="PZ18"/>
@@ -14421,7 +14421,7 @@
           <cell r="QH18"/>
           <cell r="QI18"/>
           <cell r="QJ18">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="QK18"/>
           <cell r="QL18"/>
@@ -14436,12 +14436,12 @@
           <cell r="QQ18"/>
           <cell r="QR18"/>
           <cell r="QS18">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
           <cell r="QT18"/>
           <cell r="QU18"/>
           <cell r="QV18">
-            <v>0.25</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="QW18"/>
           <cell r="QX18"/>
@@ -14506,7 +14506,7 @@
           <cell r="SG18"/>
           <cell r="SH18"/>
           <cell r="SI18">
-            <v>-9.0909090909090912E-2</v>
+            <v>-0.125</v>
           </cell>
           <cell r="SJ18"/>
           <cell r="SK18"/>
@@ -14521,7 +14521,7 @@
           <cell r="SP18"/>
           <cell r="SQ18"/>
           <cell r="SR18">
-            <v>0.4</v>
+            <v>0.6</v>
           </cell>
           <cell r="SS18"/>
           <cell r="ST18"/>
@@ -14531,7 +14531,7 @@
           <cell r="SV18"/>
           <cell r="SW18"/>
           <cell r="SX18">
-            <v>0.27322404371584702</v>
+            <v>0.30635838150289019</v>
           </cell>
           <cell r="SY18"/>
           <cell r="SZ18"/>
@@ -15290,7 +15290,7 @@
             <v>0</v>
           </cell>
           <cell r="BY20">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="BZ20" t="str">
             <v/>
@@ -15326,7 +15326,7 @@
             <v>0</v>
           </cell>
           <cell r="CK20">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="CL20" t="str">
             <v/>
@@ -15353,7 +15353,7 @@
             <v>0</v>
           </cell>
           <cell r="CT20">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="CU20" t="str">
             <v/>
@@ -15389,7 +15389,7 @@
             <v>0</v>
           </cell>
           <cell r="DF20">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="DG20" t="str">
             <v/>
@@ -15434,7 +15434,7 @@
             <v>0</v>
           </cell>
           <cell r="DU20">
-            <v>9</v>
+            <v>7</v>
           </cell>
           <cell r="DV20" t="str">
             <v/>
@@ -15497,7 +15497,7 @@
             <v>0</v>
           </cell>
           <cell r="EP20">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="EQ20" t="str">
             <v/>
@@ -15560,7 +15560,7 @@
             <v>0</v>
           </cell>
           <cell r="FK20">
-            <v>14</v>
+            <v>16</v>
           </cell>
           <cell r="FL20" t="str">
             <v/>
@@ -15758,7 +15758,7 @@
             <v>0</v>
           </cell>
           <cell r="HY20">
-            <v>18</v>
+            <v>19</v>
           </cell>
           <cell r="HZ20" t="str">
             <v/>
@@ -16379,7 +16379,7 @@
             <v>0</v>
           </cell>
           <cell r="PX20">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="PY20" t="str">
             <v/>
@@ -16415,35 +16415,35 @@
             <v>0</v>
           </cell>
           <cell r="QJ20">
+            <v>2</v>
+          </cell>
+          <cell r="QK20" t="str">
+            <v/>
+          </cell>
+          <cell r="QL20">
+            <v>0</v>
+          </cell>
+          <cell r="QM20">
+            <v>0</v>
+          </cell>
+          <cell r="QN20" t="str">
+            <v/>
+          </cell>
+          <cell r="QO20">
+            <v>0</v>
+          </cell>
+          <cell r="QP20">
+            <v>0</v>
+          </cell>
+          <cell r="QQ20" t="str">
+            <v/>
+          </cell>
+          <cell r="QR20">
+            <v>0</v>
+          </cell>
+          <cell r="QS20">
             <v>4</v>
           </cell>
-          <cell r="QK20" t="str">
-            <v/>
-          </cell>
-          <cell r="QL20">
-            <v>0</v>
-          </cell>
-          <cell r="QM20">
-            <v>0</v>
-          </cell>
-          <cell r="QN20" t="str">
-            <v/>
-          </cell>
-          <cell r="QO20">
-            <v>0</v>
-          </cell>
-          <cell r="QP20">
-            <v>0</v>
-          </cell>
-          <cell r="QQ20" t="str">
-            <v/>
-          </cell>
-          <cell r="QR20">
-            <v>0</v>
-          </cell>
-          <cell r="QS20">
-            <v>6</v>
-          </cell>
           <cell r="QT20" t="str">
             <v/>
           </cell>
@@ -16451,7 +16451,7 @@
             <v>0</v>
           </cell>
           <cell r="QV20">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="QW20" t="str">
             <v/>
@@ -16568,7 +16568,7 @@
             <v>0</v>
           </cell>
           <cell r="SI20">
-            <v>11</v>
+            <v>8</v>
           </cell>
           <cell r="SJ20" t="str">
             <v/>
@@ -16613,7 +16613,7 @@
             <v>0</v>
           </cell>
           <cell r="SX20">
-            <v>183</v>
+            <v>173</v>
           </cell>
           <cell r="SY20" t="str">
             <v/>
@@ -19068,31 +19068,31 @@
             <v>0</v>
           </cell>
           <cell r="E23">
-            <v>15190</v>
+            <v>20470</v>
           </cell>
           <cell r="F23">
-            <v>0.20879725085910653</v>
+            <v>0.28137457044673542</v>
           </cell>
           <cell r="G23">
-            <v>57560</v>
+            <v>52280</v>
           </cell>
           <cell r="H23">
-            <v>0</v>
+            <v>7964</v>
           </cell>
           <cell r="I23">
-            <v>0</v>
+            <v>0.25857142857142856</v>
           </cell>
           <cell r="J23">
-            <v>30800</v>
+            <v>22836</v>
           </cell>
           <cell r="K23">
-            <v>2060</v>
+            <v>11020</v>
           </cell>
           <cell r="L23">
-            <v>5.9710144927536235E-2</v>
+            <v>0.31942028985507248</v>
           </cell>
           <cell r="M23">
-            <v>32440</v>
+            <v>23480</v>
           </cell>
           <cell r="N23">
             <v>0</v>
@@ -19104,13 +19104,13 @@
             <v>0</v>
           </cell>
           <cell r="Q23">
-            <v>2870</v>
+            <v>3570</v>
           </cell>
           <cell r="R23">
-            <v>0.1148</v>
+            <v>0.14280000000000001</v>
           </cell>
           <cell r="S23">
-            <v>22130</v>
+            <v>21430</v>
           </cell>
           <cell r="T23">
             <v>2260</v>
@@ -19194,13 +19194,13 @@
             <v>25000</v>
           </cell>
           <cell r="AU23">
-            <v>18862</v>
+            <v>19532</v>
           </cell>
           <cell r="AV23">
-            <v>0.57157575757575763</v>
+            <v>0.59187878787878789</v>
           </cell>
           <cell r="AW23">
-            <v>14138</v>
+            <v>13468</v>
           </cell>
           <cell r="AX23">
             <v>13000</v>
@@ -19239,13 +19239,13 @@
             <v>16210</v>
           </cell>
           <cell r="BJ23">
-            <v>0</v>
+            <v>-500</v>
           </cell>
           <cell r="BK23">
-            <v>0</v>
+            <v>-0.02</v>
           </cell>
           <cell r="BL23">
-            <v>25000</v>
+            <v>25500</v>
           </cell>
           <cell r="BM23">
             <v>0</v>
@@ -19284,22 +19284,22 @@
             <v>0</v>
           </cell>
           <cell r="BY23">
-            <v>0</v>
+            <v>800</v>
           </cell>
           <cell r="BZ23">
-            <v>0</v>
+            <v>3.2000000000000001E-2</v>
           </cell>
           <cell r="CA23">
-            <v>25000</v>
+            <v>24200</v>
           </cell>
           <cell r="CB23">
-            <v>1210</v>
+            <v>3850</v>
           </cell>
           <cell r="CC23">
-            <v>4.3840579710144927E-2</v>
+            <v>0.13949275362318841</v>
           </cell>
           <cell r="CD23">
-            <v>26390</v>
+            <v>23750</v>
           </cell>
           <cell r="CE23">
             <v>0</v>
@@ -19365,13 +19365,13 @@
             <v>0</v>
           </cell>
           <cell r="CZ23">
-            <v>9270</v>
+            <v>7030</v>
           </cell>
           <cell r="DA23">
-            <v>0.37080000000000002</v>
+            <v>0.28120000000000001</v>
           </cell>
           <cell r="DB23">
-            <v>15730</v>
+            <v>17970</v>
           </cell>
           <cell r="DC23">
             <v>0</v>
@@ -19383,13 +19383,13 @@
             <v>0</v>
           </cell>
           <cell r="DF23">
-            <v>1640</v>
+            <v>2500</v>
           </cell>
           <cell r="DG23">
-            <v>5.8571428571428573E-2</v>
+            <v>8.9285714285714288E-2</v>
           </cell>
           <cell r="DH23">
-            <v>26360</v>
+            <v>25500</v>
           </cell>
           <cell r="DI23">
             <v>0</v>
@@ -19473,13 +19473,13 @@
             <v>0</v>
           </cell>
           <cell r="EJ23">
-            <v>5540</v>
+            <v>6880</v>
           </cell>
           <cell r="EK23">
-            <v>0.19438596491228069</v>
+            <v>0.24140350877192981</v>
           </cell>
           <cell r="EL23">
-            <v>22960</v>
+            <v>21620</v>
           </cell>
           <cell r="EM23">
             <v>4780</v>
@@ -19491,13 +19491,13 @@
             <v>0</v>
           </cell>
           <cell r="EP23">
-            <v>2940</v>
+            <v>3500</v>
           </cell>
           <cell r="EQ23">
-            <v>8.1666666666666665E-2</v>
+            <v>9.7222222222222224E-2</v>
           </cell>
           <cell r="ER23">
-            <v>33060</v>
+            <v>32500</v>
           </cell>
           <cell r="ES23">
             <v>0</v>
@@ -19527,13 +19527,13 @@
             <v>0</v>
           </cell>
           <cell r="FB23">
-            <v>11960</v>
+            <v>15760</v>
           </cell>
           <cell r="FC23">
-            <v>0.35437037037037039</v>
+            <v>0.46696296296296297</v>
           </cell>
           <cell r="FD23">
-            <v>21790</v>
+            <v>17990</v>
           </cell>
           <cell r="FE23">
             <v>0</v>
@@ -19590,22 +19590,22 @@
             <v>28000</v>
           </cell>
           <cell r="FW23">
-            <v>5060</v>
+            <v>14390</v>
           </cell>
           <cell r="FX23">
-            <v>0.28914285714285715</v>
+            <v>0.82228571428571429</v>
           </cell>
           <cell r="FY23">
-            <v>12440</v>
+            <v>3110</v>
           </cell>
           <cell r="FZ23">
-            <v>10020</v>
+            <v>11360</v>
           </cell>
           <cell r="GA23">
-            <v>0.35785714285714287</v>
+            <v>0.40571428571428569</v>
           </cell>
           <cell r="GB23">
-            <v>17980</v>
+            <v>16640</v>
           </cell>
           <cell r="GC23">
             <v>0</v>
@@ -19815,10 +19815,10 @@
             <v>0</v>
           </cell>
           <cell r="IT23">
-            <v>25570</v>
+            <v>28560</v>
           </cell>
           <cell r="IU23">
-            <v>1.8264285714285715</v>
+            <v>2.04</v>
           </cell>
           <cell r="IV23">
             <v>0</v>
@@ -19842,13 +19842,13 @@
             <v>16770</v>
           </cell>
           <cell r="JC23">
-            <v>14180</v>
+            <v>18100</v>
           </cell>
           <cell r="JD23">
-            <v>0.66729411764705882</v>
+            <v>0.85176470588235298</v>
           </cell>
           <cell r="JE23">
-            <v>7070</v>
+            <v>3150</v>
           </cell>
           <cell r="JF23">
             <v>0</v>
@@ -20049,13 +20049,13 @@
             <v>2220</v>
           </cell>
           <cell r="LT23">
-            <v>2200</v>
+            <v>2660</v>
           </cell>
           <cell r="LU23">
-            <v>7.3333333333333334E-2</v>
+            <v>8.8666666666666671E-2</v>
           </cell>
           <cell r="LV23">
-            <v>27800</v>
+            <v>27340</v>
           </cell>
           <cell r="LW23">
             <v>0</v>
@@ -20076,31 +20076,31 @@
             <v>0</v>
           </cell>
           <cell r="MC23">
-            <v>0</v>
+            <v>5080</v>
           </cell>
           <cell r="MD23">
-            <v>0</v>
+            <v>0.15393939393939393</v>
           </cell>
           <cell r="ME23">
-            <v>33000</v>
+            <v>27920</v>
           </cell>
           <cell r="MF23">
-            <v>5300</v>
+            <v>6740</v>
           </cell>
           <cell r="MG23">
-            <v>0.11546840958605664</v>
+            <v>0.14684095860566448</v>
           </cell>
           <cell r="MH23">
-            <v>40600</v>
+            <v>39160</v>
           </cell>
           <cell r="MI23">
-            <v>860</v>
+            <v>1840</v>
           </cell>
           <cell r="MJ23">
-            <v>3.6134453781512609E-2</v>
+            <v>7.7310924369747902E-2</v>
           </cell>
           <cell r="MK23">
-            <v>22940</v>
+            <v>21960</v>
           </cell>
           <cell r="ML23">
             <v>0</v>
@@ -20130,13 +20130,13 @@
             <v>0</v>
           </cell>
           <cell r="MU23">
-            <v>1060</v>
+            <v>1420</v>
           </cell>
           <cell r="MV23">
-            <v>2.5238095238095237E-2</v>
+            <v>3.380952380952381E-2</v>
           </cell>
           <cell r="MW23">
-            <v>40940</v>
+            <v>40580</v>
           </cell>
           <cell r="MX23">
             <v>6330</v>
@@ -20166,22 +20166,22 @@
             <v>0</v>
           </cell>
           <cell r="NG23">
-            <v>12610</v>
+            <v>14280</v>
           </cell>
           <cell r="NH23">
-            <v>0.37362962962962964</v>
+            <v>0.4231111111111111</v>
           </cell>
           <cell r="NI23">
-            <v>21140</v>
+            <v>19470</v>
           </cell>
           <cell r="NJ23">
-            <v>2150</v>
+            <v>3990</v>
           </cell>
           <cell r="NK23">
-            <v>0.15357142857142858</v>
+            <v>0.28499999999999998</v>
           </cell>
           <cell r="NL23">
-            <v>11850</v>
+            <v>10010</v>
           </cell>
           <cell r="NM23">
             <v>0</v>
@@ -20256,22 +20256,22 @@
             <v>21414</v>
           </cell>
           <cell r="OK23">
-            <v>10030</v>
+            <v>10430</v>
           </cell>
           <cell r="OL23">
-            <v>0.3095679012345679</v>
+            <v>0.32191358024691358</v>
           </cell>
           <cell r="OM23">
-            <v>22370</v>
+            <v>21970</v>
           </cell>
           <cell r="ON23">
-            <v>12380</v>
+            <v>13100</v>
           </cell>
           <cell r="OO23">
-            <v>0.45851851851851849</v>
+            <v>0.48518518518518516</v>
           </cell>
           <cell r="OP23">
-            <v>14620</v>
+            <v>13900</v>
           </cell>
           <cell r="OQ23">
             <v>0</v>
@@ -20292,10 +20292,10 @@
             <v>12500</v>
           </cell>
           <cell r="OW23">
-            <v>21150</v>
+            <v>22998</v>
           </cell>
           <cell r="OX23">
-            <v>1.6919999999999999</v>
+            <v>1.8398399999999999</v>
           </cell>
           <cell r="OY23">
             <v>0</v>
@@ -20373,13 +20373,13 @@
             <v>16250</v>
           </cell>
           <cell r="PX23">
-            <v>1060</v>
+            <v>7960</v>
           </cell>
           <cell r="PY23">
-            <v>7.1380471380471378E-2</v>
+            <v>0.53602693602693607</v>
           </cell>
           <cell r="PZ23">
-            <v>13790</v>
+            <v>6890</v>
           </cell>
           <cell r="QA23">
             <v>0</v>
@@ -20409,13 +20409,13 @@
             <v>0</v>
           </cell>
           <cell r="QJ23">
-            <v>6620</v>
+            <v>9560</v>
           </cell>
           <cell r="QK23">
-            <v>0.23642857142857143</v>
+            <v>0.34142857142857141</v>
           </cell>
           <cell r="QL23">
-            <v>21380</v>
+            <v>18440</v>
           </cell>
           <cell r="QM23">
             <v>0</v>
@@ -20463,13 +20463,13 @@
             <v>0</v>
           </cell>
           <cell r="RB23">
-            <v>11220</v>
+            <v>14593</v>
           </cell>
           <cell r="RC23">
-            <v>0.26714285714285713</v>
+            <v>0.34745238095238096</v>
           </cell>
           <cell r="RD23">
-            <v>30780</v>
+            <v>27407</v>
           </cell>
           <cell r="RE23">
             <v>0</v>
@@ -20580,13 +20580,13 @@
             <v>0</v>
           </cell>
           <cell r="SO23">
-            <v>3900</v>
+            <v>3500</v>
           </cell>
           <cell r="SP23">
-            <v>0.11818181818181818</v>
+            <v>0.10606060606060606</v>
           </cell>
           <cell r="SQ23">
-            <v>29100</v>
+            <v>29500</v>
           </cell>
           <cell r="SR23">
             <v>6700</v>
@@ -20607,13 +20607,13 @@
             <v>25160</v>
           </cell>
           <cell r="SX23">
-            <v>359928</v>
+            <v>435953</v>
           </cell>
           <cell r="SY23">
-            <v>0.13360802699422031</v>
+            <v>0.16182908857385733</v>
           </cell>
           <cell r="SZ23">
-            <v>2333982</v>
+            <v>2257957</v>
           </cell>
         </row>
         <row r="24">
@@ -21496,17 +21496,17 @@
           <cell r="C25"/>
           <cell r="D25"/>
           <cell r="E25">
-            <v>15190</v>
+            <v>10235</v>
           </cell>
           <cell r="F25"/>
           <cell r="G25"/>
-          <cell r="H25" t="str">
-            <v/>
+          <cell r="H25">
+            <v>7964</v>
           </cell>
           <cell r="I25"/>
           <cell r="J25"/>
-          <cell r="K25" t="str">
-            <v/>
+          <cell r="K25">
+            <v>11020</v>
           </cell>
           <cell r="L25"/>
           <cell r="M25"/>
@@ -21786,7 +21786,7 @@
           <cell r="FU25"/>
           <cell r="FV25"/>
           <cell r="FW25">
-            <v>5060</v>
+            <v>4796.666666666667</v>
           </cell>
           <cell r="FX25"/>
           <cell r="FY25"/>
@@ -21911,7 +21911,7 @@
           <cell r="IR25"/>
           <cell r="IS25"/>
           <cell r="IT25">
-            <v>25570</v>
+            <v>28560</v>
           </cell>
           <cell r="IU25"/>
           <cell r="IV25"/>
@@ -21926,7 +21926,7 @@
           <cell r="JA25"/>
           <cell r="JB25"/>
           <cell r="JC25">
-            <v>14180</v>
+            <v>18100</v>
           </cell>
           <cell r="JD25"/>
           <cell r="JE25"/>
@@ -22055,8 +22055,8 @@
           </cell>
           <cell r="MA25"/>
           <cell r="MB25"/>
-          <cell r="MC25" t="str">
-            <v/>
+          <cell r="MC25">
+            <v>5080</v>
           </cell>
           <cell r="MD25"/>
           <cell r="ME25"/>
@@ -22106,7 +22106,7 @@
           <cell r="NE25"/>
           <cell r="NF25"/>
           <cell r="NG25">
-            <v>12610</v>
+            <v>14280</v>
           </cell>
           <cell r="NH25"/>
           <cell r="NI25"/>
@@ -22176,7 +22176,7 @@
           <cell r="OU25"/>
           <cell r="OV25"/>
           <cell r="OW25">
-            <v>21150</v>
+            <v>22998</v>
           </cell>
           <cell r="OX25"/>
           <cell r="OY25"/>
@@ -22220,8 +22220,8 @@
           </cell>
           <cell r="PV25"/>
           <cell r="PW25"/>
-          <cell r="PX25" t="str">
-            <v/>
+          <cell r="PX25">
+            <v>7960</v>
           </cell>
           <cell r="PY25"/>
           <cell r="PZ25"/>
@@ -22241,7 +22241,7 @@
           <cell r="QH25"/>
           <cell r="QI25"/>
           <cell r="QJ25">
-            <v>6620</v>
+            <v>9560</v>
           </cell>
           <cell r="QK25"/>
           <cell r="QL25"/>
@@ -22351,7 +22351,7 @@
           <cell r="SV25"/>
           <cell r="SW25"/>
           <cell r="SX25">
-            <v>27686.76923076923</v>
+            <v>21797.65</v>
           </cell>
           <cell r="SY25"/>
           <cell r="SZ25"/>
@@ -23240,31 +23240,31 @@
             <v>0</v>
           </cell>
           <cell r="E27">
+            <v>2</v>
+          </cell>
+          <cell r="F27">
+            <v>0.35087719298245612</v>
+          </cell>
+          <cell r="G27">
+            <v>3.7</v>
+          </cell>
+          <cell r="H27">
             <v>1</v>
           </cell>
-          <cell r="F27">
-            <v>0.17543859649122806</v>
-          </cell>
-          <cell r="G27">
-            <v>4.7</v>
-          </cell>
-          <cell r="H27">
-            <v>0</v>
-          </cell>
           <cell r="I27">
-            <v>0</v>
+            <v>0.45454545454545453</v>
           </cell>
           <cell r="J27">
-            <v>2.2000000000000002</v>
+            <v>1.2000000000000002</v>
           </cell>
           <cell r="K27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="L27">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="M27">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="N27">
             <v>0</v>
@@ -23762,13 +23762,13 @@
             <v>2</v>
           </cell>
           <cell r="FW27">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="FX27">
-            <v>0.7142857142857143</v>
+            <v>2.1428571428571428</v>
           </cell>
           <cell r="FY27">
-            <v>0.39999999999999991</v>
+            <v>0</v>
           </cell>
           <cell r="FZ27">
             <v>0</v>
@@ -24248,13 +24248,13 @@
             <v>0</v>
           </cell>
           <cell r="MC27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="MD27">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="ME27">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="MF27">
             <v>0</v>
@@ -24545,13 +24545,13 @@
             <v>1.3</v>
           </cell>
           <cell r="PX27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="PY27">
-            <v>0</v>
+            <v>0.90909090909090906</v>
           </cell>
           <cell r="PZ27">
-            <v>1.1000000000000001</v>
+            <v>0.10000000000000009</v>
           </cell>
           <cell r="QA27">
             <v>0</v>
@@ -24779,13 +24779,13 @@
             <v>2</v>
           </cell>
           <cell r="SX27">
-            <v>13</v>
+            <v>20</v>
           </cell>
           <cell r="SY27">
-            <v>6.1291843470061294E-2</v>
+            <v>9.4295143800094294E-2</v>
           </cell>
           <cell r="SZ27">
-            <v>199.1</v>
+            <v>192.1</v>
           </cell>
         </row>
         <row r="28">
@@ -25888,13 +25888,13 @@
             <v>0.4</v>
           </cell>
           <cell r="BY29">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="BZ29">
-            <v>0</v>
+            <v>0.41666666666666669</v>
           </cell>
           <cell r="CA29">
-            <v>2.4</v>
+            <v>1.4</v>
           </cell>
           <cell r="CB29">
             <v>0</v>
@@ -26158,13 +26158,13 @@
             <v>2.2000000000000002</v>
           </cell>
           <cell r="FK29">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="FL29">
-            <v>0</v>
+            <v>0.35714285714285715</v>
           </cell>
           <cell r="FM29">
-            <v>2.8</v>
+            <v>1.7999999999999998</v>
           </cell>
           <cell r="FN29">
             <v>0</v>
@@ -27211,13 +27211,13 @@
             <v>2.4</v>
           </cell>
           <cell r="SX29">
-            <v>43</v>
+            <v>45</v>
           </cell>
           <cell r="SY29">
-            <v>0.15613652868554831</v>
+            <v>0.16339869281045752</v>
           </cell>
           <cell r="SZ29">
-            <v>232.39999999999998</v>
+            <v>230.39999999999998</v>
           </cell>
         </row>
         <row r="30">
@@ -28185,7 +28185,7 @@
           <cell r="BB31"/>
           <cell r="BC31"/>
           <cell r="BD31">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="BE31"/>
           <cell r="BF31"/>
@@ -28220,7 +28220,7 @@
           <cell r="BW31"/>
           <cell r="BX31"/>
           <cell r="BY31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="BZ31"/>
           <cell r="CA31"/>
@@ -28370,7 +28370,7 @@
           <cell r="FI31"/>
           <cell r="FJ31"/>
           <cell r="FK31">
-            <v>0</v>
+            <v>0.2</v>
           </cell>
           <cell r="FL31"/>
           <cell r="FM31"/>
@@ -28695,7 +28695,7 @@
           <cell r="MV31"/>
           <cell r="MW31"/>
           <cell r="MX31">
-            <v>1</v>
+            <v>0.5</v>
           </cell>
           <cell r="MY31"/>
           <cell r="MZ31"/>
@@ -28819,8 +28819,8 @@
           </cell>
           <cell r="PS31"/>
           <cell r="PT31"/>
-          <cell r="PU31">
-            <v>1</v>
+          <cell r="PU31" t="str">
+            <v/>
           </cell>
           <cell r="PV31"/>
           <cell r="PW31"/>
@@ -28845,7 +28845,7 @@
           <cell r="QH31"/>
           <cell r="QI31"/>
           <cell r="QJ31">
-            <v>0.33333333333333331</v>
+            <v>0.5</v>
           </cell>
           <cell r="QK31"/>
           <cell r="QL31"/>
@@ -28860,12 +28860,12 @@
           <cell r="QQ31"/>
           <cell r="QR31"/>
           <cell r="QS31">
-            <v>0.2</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="QT31"/>
           <cell r="QU31"/>
           <cell r="QV31">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
           <cell r="QW31"/>
           <cell r="QX31"/>
@@ -28889,13 +28889,13 @@
           </cell>
           <cell r="RI31"/>
           <cell r="RJ31"/>
-          <cell r="RK31" t="str">
-            <v/>
+          <cell r="RK31">
+            <v>0</v>
           </cell>
           <cell r="RL31"/>
           <cell r="RM31"/>
-          <cell r="RN31">
-            <v>0</v>
+          <cell r="RN31" t="str">
+            <v/>
           </cell>
           <cell r="RO31"/>
           <cell r="RP31"/>
@@ -28955,7 +28955,7 @@
           <cell r="SV31"/>
           <cell r="SW31"/>
           <cell r="SX31">
-            <v>0.23497267759562843</v>
+            <v>0.26011560693641617</v>
           </cell>
           <cell r="SY31"/>
           <cell r="SZ31"/>
@@ -30888,13 +30888,13 @@
             <v>2</v>
           </cell>
           <cell r="MO33">
-            <v>-1</v>
+            <v>-2</v>
           </cell>
           <cell r="MP33">
-            <v>-0.33333333333333331</v>
+            <v>-0.66666666666666663</v>
           </cell>
           <cell r="MQ33">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="MR33">
             <v>0</v>
@@ -30942,13 +30942,13 @@
             <v>1.2</v>
           </cell>
           <cell r="NG33">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="NH33">
-            <v>0.3125</v>
+            <v>0.625</v>
           </cell>
           <cell r="NI33">
-            <v>2.2000000000000002</v>
+            <v>1.2000000000000002</v>
           </cell>
           <cell r="NJ33">
             <v>1</v>
@@ -31014,13 +31014,13 @@
             <v>0</v>
           </cell>
           <cell r="OE33">
+            <v>2</v>
+          </cell>
+          <cell r="OF33">
             <v>1</v>
           </cell>
-          <cell r="OF33">
-            <v>0.5</v>
-          </cell>
           <cell r="OG33">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="OH33">
             <v>1</v>
@@ -31185,13 +31185,13 @@
             <v>0</v>
           </cell>
           <cell r="QJ33">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="QK33">
-            <v>0</v>
+            <v>0.41666666666666669</v>
           </cell>
           <cell r="QL33">
-            <v>2.4</v>
+            <v>1.4</v>
           </cell>
           <cell r="QM33">
             <v>0</v>
@@ -31365,13 +31365,13 @@
             <v>3</v>
           </cell>
           <cell r="SR33">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="SS33">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="ST33">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="SU33">
             <v>0</v>
@@ -31383,13 +31383,13 @@
             <v>2.4</v>
           </cell>
           <cell r="SX33">
-            <v>50</v>
+            <v>53</v>
           </cell>
           <cell r="SY33">
-            <v>0.1815541031227306</v>
+            <v>0.19244734931009441</v>
           </cell>
           <cell r="SZ33">
-            <v>225.39999999999998</v>
+            <v>222.39999999999998</v>
           </cell>
         </row>
         <row r="34">
@@ -32397,7 +32397,7 @@
           <cell r="BZ35"/>
           <cell r="CA35"/>
           <cell r="CB35">
-            <v>0.16666666666666666</v>
+            <v>0.2</v>
           </cell>
           <cell r="CC35"/>
           <cell r="CD35"/>
@@ -32497,7 +32497,7 @@
           <cell r="EH35"/>
           <cell r="EI35"/>
           <cell r="EJ35">
-            <v>1</v>
+            <v>1.5</v>
           </cell>
           <cell r="EK35"/>
           <cell r="EL35"/>
@@ -32507,7 +32507,7 @@
           <cell r="EN35"/>
           <cell r="EO35"/>
           <cell r="EP35">
-            <v>0.33333333333333331</v>
+            <v>0.5</v>
           </cell>
           <cell r="EQ35"/>
           <cell r="ER35"/>
@@ -32542,7 +32542,7 @@
           <cell r="FI35"/>
           <cell r="FJ35"/>
           <cell r="FK35">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="FL35"/>
           <cell r="FM35"/>
@@ -32852,7 +32852,7 @@
           <cell r="MM35"/>
           <cell r="MN35"/>
           <cell r="MO35">
-            <v>-1</v>
+            <v>-2</v>
           </cell>
           <cell r="MP35"/>
           <cell r="MQ35"/>
@@ -32867,7 +32867,7 @@
           <cell r="MV35"/>
           <cell r="MW35"/>
           <cell r="MX35">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="MY35"/>
           <cell r="MZ35"/>
@@ -32882,7 +32882,7 @@
           <cell r="NE35"/>
           <cell r="NF35"/>
           <cell r="NG35">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="NH35"/>
           <cell r="NI35"/>
@@ -32922,7 +32922,7 @@
           <cell r="OC35"/>
           <cell r="OD35"/>
           <cell r="OE35">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="OF35"/>
           <cell r="OG35"/>
@@ -33017,7 +33017,7 @@
           <cell r="QH35"/>
           <cell r="QI35"/>
           <cell r="QJ35">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="QK35"/>
           <cell r="QL35"/>
@@ -33032,12 +33032,12 @@
           <cell r="QQ35"/>
           <cell r="QR35"/>
           <cell r="QS35">
-            <v>0.6</v>
+            <v>1</v>
           </cell>
           <cell r="QT35"/>
           <cell r="QU35"/>
           <cell r="QV35">
-            <v>0.33333333333333331</v>
+            <v>0.5</v>
           </cell>
           <cell r="QW35"/>
           <cell r="QX35"/>
@@ -33127,7 +33127,7 @@
           <cell r="SV35"/>
           <cell r="SW35"/>
           <cell r="SX35">
-            <v>0.27322404371584702</v>
+            <v>0.30635838150289019</v>
           </cell>
           <cell r="SY35"/>
           <cell r="SZ35"/>
@@ -34169,13 +34169,13 @@
             <v>3</v>
           </cell>
           <cell r="BD37">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="BE37">
-            <v>0.33333333333333331</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="BF37">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="BG37">
             <v>1</v>
@@ -34241,13 +34241,13 @@
             <v>5</v>
           </cell>
           <cell r="CB37">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="CC37">
-            <v>0.75</v>
+            <v>0.625</v>
           </cell>
           <cell r="CD37">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="CE37">
             <v>0</v>
@@ -34331,13 +34331,13 @@
             <v>0</v>
           </cell>
           <cell r="DF37">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="DG37">
-            <v>0.33333333333333331</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="DH37">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="DI37">
             <v>2</v>
@@ -34385,13 +34385,13 @@
             <v>0</v>
           </cell>
           <cell r="DX37">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="DY37">
-            <v>0.33333333333333331</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="DZ37">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="EA37">
             <v>0</v>
@@ -34421,13 +34421,13 @@
             <v>0</v>
           </cell>
           <cell r="EJ37">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="EK37">
-            <v>0.5</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="EL37">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="EM37">
             <v>1</v>
@@ -34439,13 +34439,13 @@
             <v>0</v>
           </cell>
           <cell r="EP37">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="EQ37">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="ER37">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="ES37">
             <v>0</v>
@@ -34502,13 +34502,13 @@
             <v>6</v>
           </cell>
           <cell r="FK37">
+            <v>5</v>
+          </cell>
+          <cell r="FL37">
+            <v>0.7142857142857143</v>
+          </cell>
+          <cell r="FM37">
             <v>2</v>
-          </cell>
-          <cell r="FL37">
-            <v>0.2857142857142857</v>
-          </cell>
-          <cell r="FM37">
-            <v>5</v>
           </cell>
           <cell r="FN37">
             <v>0</v>
@@ -34673,13 +34673,13 @@
             <v>6</v>
           </cell>
           <cell r="HP37">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="HQ37">
-            <v>0.5</v>
+            <v>0.375</v>
           </cell>
           <cell r="HR37">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="HS37">
             <v>0</v>
@@ -34853,13 +34853,13 @@
             <v>7</v>
           </cell>
           <cell r="JX37">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="JY37">
-            <v>0.8</v>
+            <v>0.6</v>
           </cell>
           <cell r="JZ37">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="KA37">
             <v>1</v>
@@ -35087,13 +35087,13 @@
             <v>1</v>
           </cell>
           <cell r="MX37">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="MY37">
-            <v>0.16666666666666666</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="MZ37">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="NA37">
             <v>0</v>
@@ -35267,13 +35267,13 @@
             <v>0</v>
           </cell>
           <cell r="PF37">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="PG37">
-            <v>0.33333333333333331</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="PH37">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="PI37">
             <v>1</v>
@@ -35312,13 +35312,13 @@
             <v>0</v>
           </cell>
           <cell r="PU37">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="PV37">
-            <v>0.25</v>
+            <v>0</v>
           </cell>
           <cell r="PW37">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="PX37">
             <v>2</v>
@@ -35357,49 +35357,49 @@
             <v>0</v>
           </cell>
           <cell r="QJ37">
+            <v>2</v>
+          </cell>
+          <cell r="QK37">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="QL37">
+            <v>4</v>
+          </cell>
+          <cell r="QM37">
+            <v>0</v>
+          </cell>
+          <cell r="QN37" t="str">
+            <v/>
+          </cell>
+          <cell r="QO37">
+            <v>0</v>
+          </cell>
+          <cell r="QP37">
+            <v>2</v>
+          </cell>
+          <cell r="QQ37">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="QR37">
+            <v>4</v>
+          </cell>
+          <cell r="QS37">
             <v>3</v>
           </cell>
-          <cell r="QK37">
+          <cell r="QT37">
             <v>0.5</v>
           </cell>
-          <cell r="QL37">
+          <cell r="QU37">
             <v>3</v>
           </cell>
-          <cell r="QM37">
-            <v>0</v>
-          </cell>
-          <cell r="QN37" t="str">
-            <v/>
-          </cell>
-          <cell r="QO37">
-            <v>0</v>
-          </cell>
-          <cell r="QP37">
+          <cell r="QV37">
+            <v>2</v>
+          </cell>
+          <cell r="QW37">
+            <v>0.66666666666666663</v>
+          </cell>
+          <cell r="QX37">
             <v>1</v>
-          </cell>
-          <cell r="QQ37">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="QR37">
-            <v>5</v>
-          </cell>
-          <cell r="QS37">
-            <v>5</v>
-          </cell>
-          <cell r="QT37">
-            <v>0.83333333333333337</v>
-          </cell>
-          <cell r="QU37">
-            <v>1</v>
-          </cell>
-          <cell r="QV37">
-            <v>3</v>
-          </cell>
-          <cell r="QW37">
-            <v>1</v>
-          </cell>
-          <cell r="QX37">
-            <v>0</v>
           </cell>
           <cell r="QY37">
             <v>0</v>
@@ -35438,22 +35438,22 @@
             <v>3</v>
           </cell>
           <cell r="RK37">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="RL37">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="RM37">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="RN37">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="RO37">
-            <v>0.16666666666666666</v>
+            <v>0</v>
           </cell>
           <cell r="RP37">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="RQ37">
             <v>1</v>
@@ -35555,13 +35555,13 @@
             <v>5</v>
           </cell>
           <cell r="SX37">
-            <v>183</v>
+            <v>173</v>
           </cell>
           <cell r="SY37">
-            <v>0.2679355783308931</v>
+            <v>0.25329428989751096</v>
           </cell>
           <cell r="SZ37">
-            <v>500</v>
+            <v>510</v>
           </cell>
         </row>
         <row r="38">
@@ -36601,7 +36601,7 @@
             <v>3</v>
           </cell>
           <cell r="BD39">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="BE39" t="str">
             <v/>
@@ -36673,13 +36673,13 @@
             <v>0</v>
           </cell>
           <cell r="CB39">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="CC39">
-            <v>0.75</v>
+            <v>0.625</v>
           </cell>
           <cell r="CD39">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="CE39">
             <v>0</v>
@@ -36763,7 +36763,7 @@
             <v>0</v>
           </cell>
           <cell r="DF39">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="DG39" t="str">
             <v/>
@@ -36817,13 +36817,13 @@
             <v>0</v>
           </cell>
           <cell r="DX39">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="DY39">
-            <v>0.33333333333333331</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="DZ39">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="EA39">
             <v>0</v>
@@ -36853,7 +36853,7 @@
             <v>0</v>
           </cell>
           <cell r="EJ39">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="EK39" t="str">
             <v/>
@@ -36871,13 +36871,13 @@
             <v>0</v>
           </cell>
           <cell r="EP39">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="EQ39">
-            <v>1</v>
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="ER39">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="ES39">
             <v>0</v>
@@ -36934,13 +36934,13 @@
             <v>0</v>
           </cell>
           <cell r="FK39">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="FL39">
-            <v>0.33333333333333331</v>
+            <v>0.83333333333333337</v>
           </cell>
           <cell r="FM39">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="FN39">
             <v>0</v>
@@ -37105,13 +37105,13 @@
             <v>0</v>
           </cell>
           <cell r="HP39">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="HQ39">
-            <v>0.5</v>
+            <v>0.375</v>
           </cell>
           <cell r="HR39">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="HS39">
             <v>0</v>
@@ -37285,7 +37285,7 @@
             <v>7</v>
           </cell>
           <cell r="JX39">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="JY39" t="str">
             <v/>
@@ -37519,13 +37519,13 @@
             <v>1</v>
           </cell>
           <cell r="MX39">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="MY39">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="MZ39">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="NA39">
             <v>0</v>
@@ -37699,7 +37699,7 @@
             <v>0</v>
           </cell>
           <cell r="PF39">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="PG39" t="str">
             <v/>
@@ -37744,13 +37744,13 @@
             <v>0</v>
           </cell>
           <cell r="PU39">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="PV39">
-            <v>0.2</v>
+            <v>0</v>
           </cell>
           <cell r="PW39">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="PX39">
             <v>2</v>
@@ -37789,49 +37789,49 @@
             <v>0</v>
           </cell>
           <cell r="QJ39">
+            <v>2</v>
+          </cell>
+          <cell r="QK39" t="str">
+            <v/>
+          </cell>
+          <cell r="QL39">
+            <v>0</v>
+          </cell>
+          <cell r="QM39">
+            <v>0</v>
+          </cell>
+          <cell r="QN39" t="str">
+            <v/>
+          </cell>
+          <cell r="QO39">
+            <v>0</v>
+          </cell>
+          <cell r="QP39">
+            <v>2</v>
+          </cell>
+          <cell r="QQ39">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="QR39">
+            <v>4</v>
+          </cell>
+          <cell r="QS39">
             <v>3</v>
           </cell>
-          <cell r="QK39" t="str">
-            <v/>
-          </cell>
-          <cell r="QL39">
-            <v>0</v>
-          </cell>
-          <cell r="QM39">
-            <v>0</v>
-          </cell>
-          <cell r="QN39" t="str">
-            <v/>
-          </cell>
-          <cell r="QO39">
-            <v>0</v>
-          </cell>
-          <cell r="QP39">
+          <cell r="QT39">
+            <v>0.5</v>
+          </cell>
+          <cell r="QU39">
+            <v>3</v>
+          </cell>
+          <cell r="QV39">
+            <v>2</v>
+          </cell>
+          <cell r="QW39">
+            <v>0.66666666666666663</v>
+          </cell>
+          <cell r="QX39">
             <v>1</v>
-          </cell>
-          <cell r="QQ39">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="QR39">
-            <v>5</v>
-          </cell>
-          <cell r="QS39">
-            <v>5</v>
-          </cell>
-          <cell r="QT39">
-            <v>0.83333333333333337</v>
-          </cell>
-          <cell r="QU39">
-            <v>1</v>
-          </cell>
-          <cell r="QV39">
-            <v>3</v>
-          </cell>
-          <cell r="QW39">
-            <v>1</v>
-          </cell>
-          <cell r="QX39">
-            <v>0</v>
           </cell>
           <cell r="QY39">
             <v>0</v>
@@ -37870,22 +37870,22 @@
             <v>3</v>
           </cell>
           <cell r="RK39">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="RL39">
-            <v>0</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="RM39">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="RN39">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="RO39">
-            <v>0.16666666666666666</v>
+            <v>0</v>
           </cell>
           <cell r="RP39">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="RQ39">
             <v>1</v>
@@ -37987,13 +37987,13 @@
             <v>4</v>
           </cell>
           <cell r="SX39">
-            <v>183</v>
+            <v>173</v>
           </cell>
           <cell r="SY39">
-            <v>0.36094674556213019</v>
+            <v>0.34122287968441817</v>
           </cell>
           <cell r="SZ39">
-            <v>324</v>
+            <v>334</v>
           </cell>
         </row>
         <row r="40">
@@ -38876,7 +38876,7 @@
           <cell r="C41"/>
           <cell r="D41"/>
           <cell r="E41">
-            <v>9.3023255813953487E-2</v>
+            <v>8.5106382978723402E-2</v>
           </cell>
           <cell r="F41"/>
           <cell r="G41"/>
@@ -38906,7 +38906,7 @@
           <cell r="U41"/>
           <cell r="V41"/>
           <cell r="W41">
-            <v>6.7567567567567571E-2</v>
+            <v>5.8139534883720929E-2</v>
           </cell>
           <cell r="X41"/>
           <cell r="Y41"/>
@@ -38941,12 +38941,12 @@
           <cell r="AP41"/>
           <cell r="AQ41"/>
           <cell r="AR41">
-            <v>3.3898305084745763E-2</v>
+            <v>2.6666666666666668E-2</v>
           </cell>
           <cell r="AS41"/>
           <cell r="AT41"/>
           <cell r="AU41">
-            <v>0.1</v>
+            <v>8.3333333333333329E-2</v>
           </cell>
           <cell r="AV41"/>
           <cell r="AW41"/>
@@ -38961,12 +38961,12 @@
           <cell r="BB41"/>
           <cell r="BC41"/>
           <cell r="BD41">
-            <v>0.08</v>
+            <v>0.04</v>
           </cell>
           <cell r="BE41"/>
           <cell r="BF41"/>
           <cell r="BG41">
-            <v>1.8518518518518517E-2</v>
+            <v>1.6393442622950821E-2</v>
           </cell>
           <cell r="BH41"/>
           <cell r="BI41"/>
@@ -38996,12 +38996,12 @@
           <cell r="BW41"/>
           <cell r="BX41"/>
           <cell r="BY41">
-            <v>0.14285714285714285</v>
+            <v>8.3333333333333329E-2</v>
           </cell>
           <cell r="BZ41"/>
           <cell r="CA41"/>
           <cell r="CB41">
-            <v>0.1875</v>
+            <v>9.0909090909090912E-2</v>
           </cell>
           <cell r="CC41"/>
           <cell r="CD41"/>
@@ -39011,7 +39011,7 @@
           <cell r="CF41"/>
           <cell r="CG41"/>
           <cell r="CH41">
-            <v>1.8518518518518517E-2</v>
+            <v>1.8181818181818181E-2</v>
           </cell>
           <cell r="CI41"/>
           <cell r="CJ41"/>
@@ -39021,7 +39021,7 @@
           <cell r="CL41"/>
           <cell r="CM41"/>
           <cell r="CN41">
-            <v>2.0833333333333332E-2</v>
+            <v>1.8867924528301886E-2</v>
           </cell>
           <cell r="CO41"/>
           <cell r="CP41"/>
@@ -39041,7 +39041,7 @@
           <cell r="CX41"/>
           <cell r="CY41"/>
           <cell r="CZ41">
-            <v>1</v>
+            <v>0.2</v>
           </cell>
           <cell r="DA41"/>
           <cell r="DB41"/>
@@ -39051,12 +39051,12 @@
           <cell r="DD41"/>
           <cell r="DE41"/>
           <cell r="DF41">
-            <v>6.25E-2</v>
+            <v>2.7777777777777776E-2</v>
           </cell>
           <cell r="DG41"/>
           <cell r="DH41"/>
           <cell r="DI41">
-            <v>2.4096385542168676E-2</v>
+            <v>2.1505376344086023E-2</v>
           </cell>
           <cell r="DJ41"/>
           <cell r="DK41"/>
@@ -39081,7 +39081,7 @@
           <cell r="DV41"/>
           <cell r="DW41"/>
           <cell r="DX41">
-            <v>4.5454545454545456E-2</v>
+            <v>1.8518518518518517E-2</v>
           </cell>
           <cell r="DY41"/>
           <cell r="DZ41"/>
@@ -39101,7 +39101,7 @@
           <cell r="EH41"/>
           <cell r="EI41"/>
           <cell r="EJ41">
-            <v>7.6923076923076927E-2</v>
+            <v>4.3478260869565216E-2</v>
           </cell>
           <cell r="EK41"/>
           <cell r="EL41"/>
@@ -39111,7 +39111,7 @@
           <cell r="EN41"/>
           <cell r="EO41"/>
           <cell r="EP41">
-            <v>0.125</v>
+            <v>6.8965517241379309E-2</v>
           </cell>
           <cell r="EQ41"/>
           <cell r="ER41"/>
@@ -39121,7 +39121,7 @@
           <cell r="ET41"/>
           <cell r="EU41"/>
           <cell r="EV41">
-            <v>8.8235294117647065E-2</v>
+            <v>6.9767441860465115E-2</v>
           </cell>
           <cell r="EW41"/>
           <cell r="EX41"/>
@@ -39131,7 +39131,7 @@
           <cell r="EZ41"/>
           <cell r="FA41"/>
           <cell r="FB41">
-            <v>6.0606060606060608E-2</v>
+            <v>5.5555555555555552E-2</v>
           </cell>
           <cell r="FC41"/>
           <cell r="FD41"/>
@@ -39146,7 +39146,7 @@
           <cell r="FI41"/>
           <cell r="FJ41"/>
           <cell r="FK41">
-            <v>7.6923076923076927E-2</v>
+            <v>0.17857142857142858</v>
           </cell>
           <cell r="FL41"/>
           <cell r="FM41"/>
@@ -39161,17 +39161,17 @@
           <cell r="FR41"/>
           <cell r="FS41"/>
           <cell r="FT41">
-            <v>1</v>
+            <v>0.2857142857142857</v>
           </cell>
           <cell r="FU41"/>
           <cell r="FV41"/>
           <cell r="FW41">
-            <v>0.1</v>
+            <v>4.7619047619047616E-2</v>
           </cell>
           <cell r="FX41"/>
           <cell r="FY41"/>
           <cell r="FZ41">
-            <v>0.15</v>
+            <v>9.6774193548387094E-2</v>
           </cell>
           <cell r="GA41"/>
           <cell r="GB41"/>
@@ -39186,7 +39186,7 @@
           <cell r="GG41"/>
           <cell r="GH41"/>
           <cell r="GI41">
-            <v>3.0303030303030304E-2</v>
+            <v>2.7777777777777776E-2</v>
           </cell>
           <cell r="GJ41"/>
           <cell r="GK41"/>
@@ -39201,7 +39201,7 @@
           <cell r="GP41"/>
           <cell r="GQ41"/>
           <cell r="GR41">
-            <v>1.4285714285714285E-2</v>
+            <v>1.2345679012345678E-2</v>
           </cell>
           <cell r="GS41"/>
           <cell r="GT41"/>
@@ -39231,17 +39231,17 @@
           <cell r="HH41"/>
           <cell r="HI41"/>
           <cell r="HJ41">
-            <v>1.8518518518518517E-2</v>
+            <v>1.6129032258064516E-2</v>
           </cell>
           <cell r="HK41"/>
           <cell r="HL41"/>
           <cell r="HM41">
-            <v>2.3809523809523808E-2</v>
+            <v>2.1739130434782608E-2</v>
           </cell>
           <cell r="HN41"/>
           <cell r="HO41"/>
           <cell r="HP41">
-            <v>0.14814814814814814</v>
+            <v>9.6774193548387094E-2</v>
           </cell>
           <cell r="HQ41"/>
           <cell r="HR41"/>
@@ -39251,12 +39251,12 @@
           <cell r="HT41"/>
           <cell r="HU41"/>
           <cell r="HV41">
-            <v>3.4482758620689655E-2</v>
+            <v>3.0303030303030304E-2</v>
           </cell>
           <cell r="HW41"/>
           <cell r="HX41"/>
           <cell r="HY41">
-            <v>0.8</v>
+            <v>0.4</v>
           </cell>
           <cell r="HZ41"/>
           <cell r="IA41"/>
@@ -39266,7 +39266,7 @@
           <cell r="IC41"/>
           <cell r="ID41"/>
           <cell r="IE41">
-            <v>1.8867924528301886E-2</v>
+            <v>1.4492753623188406E-2</v>
           </cell>
           <cell r="IF41"/>
           <cell r="IG41"/>
@@ -39291,7 +39291,7 @@
           <cell r="IR41"/>
           <cell r="IS41"/>
           <cell r="IT41">
-            <v>6.8965517241379309E-2</v>
+            <v>5.8823529411764705E-2</v>
           </cell>
           <cell r="IU41"/>
           <cell r="IV41"/>
@@ -39326,7 +39326,7 @@
           <cell r="JM41"/>
           <cell r="JN41"/>
           <cell r="JO41">
-            <v>5.7142857142857141E-2</v>
+            <v>5.4054054054054057E-2</v>
           </cell>
           <cell r="JP41"/>
           <cell r="JQ41"/>
@@ -39341,12 +39341,12 @@
           <cell r="JV41"/>
           <cell r="JW41"/>
           <cell r="JX41">
-            <v>0.12903225806451613</v>
+            <v>9.6774193548387094E-2</v>
           </cell>
           <cell r="JY41"/>
           <cell r="JZ41"/>
           <cell r="KA41">
-            <v>2.2727272727272728E-2</v>
+            <v>0.02</v>
           </cell>
           <cell r="KB41"/>
           <cell r="KC41"/>
@@ -39386,7 +39386,7 @@
           <cell r="KW41"/>
           <cell r="KX41"/>
           <cell r="KY41">
-            <v>7.1428571428571425E-2</v>
+            <v>6.0606060606060608E-2</v>
           </cell>
           <cell r="KZ41"/>
           <cell r="LA41"/>
@@ -39421,7 +39421,7 @@
           <cell r="LR41"/>
           <cell r="LS41"/>
           <cell r="LT41">
-            <v>5.7142857142857141E-2</v>
+            <v>4.2553191489361701E-2</v>
           </cell>
           <cell r="LU41"/>
           <cell r="LV41"/>
@@ -39436,22 +39436,22 @@
           <cell r="MA41"/>
           <cell r="MB41"/>
           <cell r="MC41">
-            <v>0.04</v>
+            <v>3.7037037037037035E-2</v>
           </cell>
           <cell r="MD41"/>
           <cell r="ME41"/>
           <cell r="MF41">
-            <v>5.8823529411764705E-2</v>
+            <v>4.5454545454545456E-2</v>
           </cell>
           <cell r="MG41"/>
           <cell r="MH41"/>
           <cell r="MI41">
-            <v>0.10714285714285714</v>
+            <v>8.8235294117647065E-2</v>
           </cell>
           <cell r="MJ41"/>
           <cell r="MK41"/>
           <cell r="ML41">
-            <v>0.08</v>
+            <v>6.8965517241379309E-2</v>
           </cell>
           <cell r="MM41"/>
           <cell r="MN41"/>
@@ -39466,12 +39466,12 @@
           <cell r="MS41"/>
           <cell r="MT41"/>
           <cell r="MU41">
-            <v>0.17142857142857143</v>
+            <v>0.15384615384615385</v>
           </cell>
           <cell r="MV41"/>
           <cell r="MW41"/>
           <cell r="MX41">
-            <v>2.2727272727272728E-2</v>
+            <v>4.5454545454545456E-2</v>
           </cell>
           <cell r="MY41"/>
           <cell r="MZ41"/>
@@ -39486,12 +39486,12 @@
           <cell r="NE41"/>
           <cell r="NF41"/>
           <cell r="NG41">
-            <v>0.23809523809523808</v>
+            <v>0.20833333333333334</v>
           </cell>
           <cell r="NH41"/>
           <cell r="NI41"/>
           <cell r="NJ41">
-            <v>8.3333333333333329E-2</v>
+            <v>6.8181818181818177E-2</v>
           </cell>
           <cell r="NK41"/>
           <cell r="NL41"/>
@@ -39501,22 +39501,22 @@
           <cell r="NN41"/>
           <cell r="NO41"/>
           <cell r="NP41">
-            <v>0.17391304347826086</v>
+            <v>0.12121212121212122</v>
           </cell>
           <cell r="NQ41"/>
           <cell r="NR41"/>
           <cell r="NS41">
-            <v>5.8823529411764705E-2</v>
+            <v>5.2631578947368418E-2</v>
           </cell>
           <cell r="NT41"/>
           <cell r="NU41"/>
           <cell r="NV41">
-            <v>1.098901098901099E-2</v>
+            <v>1.020408163265306E-2</v>
           </cell>
           <cell r="NW41"/>
           <cell r="NX41"/>
           <cell r="NY41">
-            <v>1.3513513513513514E-2</v>
+            <v>1.2658227848101266E-2</v>
           </cell>
           <cell r="NZ41"/>
           <cell r="OA41"/>
@@ -39531,22 +39531,22 @@
           <cell r="OF41"/>
           <cell r="OG41"/>
           <cell r="OH41">
-            <v>4.5454545454545456E-2</v>
+            <v>3.5714285714285712E-2</v>
           </cell>
           <cell r="OI41"/>
           <cell r="OJ41"/>
           <cell r="OK41">
-            <v>0.4</v>
+            <v>0.30769230769230771</v>
           </cell>
           <cell r="OL41"/>
           <cell r="OM41"/>
           <cell r="ON41">
-            <v>4.4444444444444446E-2</v>
+            <v>4.2553191489361701E-2</v>
           </cell>
           <cell r="OO41"/>
           <cell r="OP41"/>
           <cell r="OQ41">
-            <v>2.7777777777777776E-2</v>
+            <v>2.4096385542168676E-2</v>
           </cell>
           <cell r="OR41"/>
           <cell r="OS41"/>
@@ -39556,7 +39556,7 @@
           <cell r="OU41"/>
           <cell r="OV41"/>
           <cell r="OW41">
-            <v>0.10526315789473684</v>
+            <v>3.3333333333333333E-2</v>
           </cell>
           <cell r="OX41"/>
           <cell r="OY41"/>
@@ -39571,12 +39571,12 @@
           <cell r="PD41"/>
           <cell r="PE41"/>
           <cell r="PF41">
-            <v>7.407407407407407E-2</v>
+            <v>3.4482758620689655E-2</v>
           </cell>
           <cell r="PG41"/>
           <cell r="PH41"/>
           <cell r="PI41">
-            <v>1.3513513513513514E-2</v>
+            <v>1.2658227848101266E-2</v>
           </cell>
           <cell r="PJ41"/>
           <cell r="PK41"/>
@@ -39596,7 +39596,7 @@
           <cell r="PS41"/>
           <cell r="PT41"/>
           <cell r="PU41">
-            <v>3.7037037037037035E-2</v>
+            <v>0</v>
           </cell>
           <cell r="PV41"/>
           <cell r="PW41"/>
@@ -39621,7 +39621,7 @@
           <cell r="QH41"/>
           <cell r="QI41"/>
           <cell r="QJ41">
-            <v>0.15789473684210525</v>
+            <v>8.6956521739130432E-2</v>
           </cell>
           <cell r="QK41"/>
           <cell r="QL41"/>
@@ -39631,12 +39631,12 @@
           <cell r="QN41"/>
           <cell r="QO41"/>
           <cell r="QP41">
-            <v>4.5454545454545456E-2</v>
+            <v>9.0909090909090912E-2</v>
           </cell>
           <cell r="QQ41"/>
           <cell r="QR41"/>
           <cell r="QS41">
-            <v>1.6666666666666667</v>
+            <v>0.75</v>
           </cell>
           <cell r="QT41"/>
           <cell r="QU41"/>
@@ -39651,12 +39651,12 @@
           <cell r="QZ41"/>
           <cell r="RA41"/>
           <cell r="RB41">
-            <v>2.5000000000000001E-2</v>
+            <v>2.3255813953488372E-2</v>
           </cell>
           <cell r="RC41"/>
           <cell r="RD41"/>
           <cell r="RE41">
-            <v>4.3478260869565216E-2</v>
+            <v>3.7974683544303799E-2</v>
           </cell>
           <cell r="RF41"/>
           <cell r="RG41"/>
@@ -39666,17 +39666,17 @@
           <cell r="RI41"/>
           <cell r="RJ41"/>
           <cell r="RK41">
-            <v>0</v>
+            <v>1.5151515151515152E-2</v>
           </cell>
           <cell r="RL41"/>
           <cell r="RM41"/>
           <cell r="RN41">
-            <v>2.0408163265306121E-2</v>
+            <v>0</v>
           </cell>
           <cell r="RO41"/>
           <cell r="RP41"/>
           <cell r="RQ41">
-            <v>3.5714285714285712E-2</v>
+            <v>2.9411764705882353E-2</v>
           </cell>
           <cell r="RR41"/>
           <cell r="RS41"/>
@@ -39691,17 +39691,17 @@
           <cell r="RX41"/>
           <cell r="RY41"/>
           <cell r="RZ41">
-            <v>0.12121212121212122</v>
+            <v>9.7560975609756101E-2</v>
           </cell>
           <cell r="SA41"/>
           <cell r="SB41"/>
           <cell r="SC41">
-            <v>2.7777777777777776E-2</v>
+            <v>2.6315789473684209E-2</v>
           </cell>
           <cell r="SD41"/>
           <cell r="SE41"/>
           <cell r="SF41">
-            <v>0.14285714285714285</v>
+            <v>0.125</v>
           </cell>
           <cell r="SG41"/>
           <cell r="SH41"/>
@@ -39726,12 +39726,12 @@
           <cell r="SS41"/>
           <cell r="ST41"/>
           <cell r="SU41">
-            <v>0.02</v>
+            <v>1.6949152542372881E-2</v>
           </cell>
           <cell r="SV41"/>
           <cell r="SW41"/>
           <cell r="SX41">
-            <v>4.9972692517749863E-2</v>
+            <v>4.0985548448235015E-2</v>
           </cell>
           <cell r="SY41"/>
           <cell r="SZ41"/>
@@ -40629,13 +40629,13 @@
             <v>26</v>
           </cell>
           <cell r="H43">
+            <v>3</v>
+          </cell>
+          <cell r="I43">
+            <v>0.42857142857142855</v>
+          </cell>
+          <cell r="J43">
             <v>4</v>
-          </cell>
-          <cell r="I43">
-            <v>0.5714285714285714</v>
-          </cell>
-          <cell r="J43">
-            <v>3</v>
           </cell>
           <cell r="K43">
             <v>-2</v>
@@ -40746,13 +40746,13 @@
             <v>3</v>
           </cell>
           <cell r="AU43">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="AV43">
-            <v>0.6</v>
+            <v>0.8</v>
           </cell>
           <cell r="AW43">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="AX43">
             <v>1</v>
@@ -40773,13 +40773,13 @@
             <v>5</v>
           </cell>
           <cell r="BD43">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="BE43">
-            <v>0.83333333333333337</v>
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="BF43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="BG43">
             <v>0</v>
@@ -40836,19 +40836,19 @@
             <v>2</v>
           </cell>
           <cell r="BY43">
+            <v>2</v>
+          </cell>
+          <cell r="BZ43">
+            <v>0.33333333333333331</v>
+          </cell>
+          <cell r="CA43">
+            <v>4</v>
+          </cell>
+          <cell r="CB43">
+            <v>8</v>
+          </cell>
+          <cell r="CC43">
             <v>1</v>
-          </cell>
-          <cell r="BZ43">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="CA43">
-            <v>5</v>
-          </cell>
-          <cell r="CB43">
-            <v>11</v>
-          </cell>
-          <cell r="CC43">
-            <v>1.375</v>
           </cell>
           <cell r="CD43">
             <v>0</v>
@@ -40917,13 +40917,13 @@
             <v>0</v>
           </cell>
           <cell r="CZ43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="DA43">
-            <v>0.16666666666666666</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="DB43">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="DC43">
             <v>0</v>
@@ -40953,13 +40953,13 @@
             <v>5</v>
           </cell>
           <cell r="DL43">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="DM43">
-            <v>0</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="DN43">
-            <v>6</v>
+            <v>5</v>
           </cell>
           <cell r="DO43">
             <v>0</v>
@@ -40989,13 +40989,13 @@
             <v>0</v>
           </cell>
           <cell r="DX43">
-            <v>-1</v>
+            <v>-2</v>
           </cell>
           <cell r="DY43">
-            <v>-0.16666666666666666</v>
+            <v>-0.33333333333333331</v>
           </cell>
           <cell r="DZ43">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="EA43">
             <v>0</v>
@@ -41025,13 +41025,13 @@
             <v>0</v>
           </cell>
           <cell r="EJ43">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="EK43">
-            <v>0.5</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="EL43">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="EM43">
             <v>0</v>
@@ -41061,31 +41061,31 @@
             <v>0</v>
           </cell>
           <cell r="EV43">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="EW43">
-            <v>0.2</v>
+            <v>0.6</v>
           </cell>
           <cell r="EX43">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="EY43">
+            <v>3</v>
+          </cell>
+          <cell r="EZ43">
+            <v>0.6</v>
+          </cell>
+          <cell r="FA43">
             <v>2</v>
           </cell>
-          <cell r="EZ43">
-            <v>0.4</v>
-          </cell>
-          <cell r="FA43">
-            <v>3</v>
-          </cell>
           <cell r="FB43">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="FC43">
-            <v>0.625</v>
+            <v>0.75</v>
           </cell>
           <cell r="FD43">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="FE43">
             <v>0</v>
@@ -41151,14 +41151,14 @@
             <v>2</v>
           </cell>
           <cell r="FZ43">
+            <v>4</v>
+          </cell>
+          <cell r="GA43">
+            <v>0.66666666666666663</v>
+          </cell>
+          <cell r="GB43">
             <v>2</v>
           </cell>
-          <cell r="GA43">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="GB43">
-            <v>4</v>
-          </cell>
           <cell r="GC43">
             <v>0</v>
           </cell>
@@ -41178,13 +41178,13 @@
             <v>0</v>
           </cell>
           <cell r="GI43">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="GJ43">
-            <v>0.7142857142857143</v>
+            <v>0.8571428571428571</v>
           </cell>
           <cell r="GK43">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="GL43">
             <v>3</v>
@@ -41250,13 +41250,13 @@
             <v>9</v>
           </cell>
           <cell r="HG43">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="HH43">
-            <v>0.5</v>
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="HI43">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="HJ43">
             <v>-1</v>
@@ -41268,13 +41268,13 @@
             <v>7</v>
           </cell>
           <cell r="HM43">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="HN43">
-            <v>0.5714285714285714</v>
+            <v>0.8571428571428571</v>
           </cell>
           <cell r="HO43">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="HP43">
             <v>-1</v>
@@ -41322,13 +41322,13 @@
             <v>5</v>
           </cell>
           <cell r="IE43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="IF43">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="IG43">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="IH43">
             <v>0</v>
@@ -41367,13 +41367,13 @@
             <v>0</v>
           </cell>
           <cell r="IT43">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="IU43">
-            <v>0.66666666666666663</v>
+            <v>1</v>
           </cell>
           <cell r="IV43">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="IW43">
             <v>2</v>
@@ -41574,13 +41574,13 @@
             <v>6</v>
           </cell>
           <cell r="LK43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="LL43">
-            <v>0.25</v>
+            <v>0.5</v>
           </cell>
           <cell r="LM43">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="LN43">
             <v>0</v>
@@ -41637,13 +41637,13 @@
             <v>3</v>
           </cell>
           <cell r="MF43">
-            <v>3</v>
+            <v>5</v>
           </cell>
           <cell r="MG43">
-            <v>0.3</v>
+            <v>0.5</v>
           </cell>
           <cell r="MH43">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="MI43">
             <v>3</v>
@@ -41655,13 +41655,13 @@
             <v>1</v>
           </cell>
           <cell r="ML43">
-            <v>4</v>
+            <v>6</v>
           </cell>
           <cell r="MM43">
-            <v>0.5714285714285714</v>
+            <v>0.8571428571428571</v>
           </cell>
           <cell r="MN43">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="MO43">
             <v>0</v>
@@ -41718,13 +41718,13 @@
             <v>3</v>
           </cell>
           <cell r="NG43">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="NH43">
-            <v>0.75</v>
+            <v>1</v>
           </cell>
           <cell r="NI43">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="NJ43">
             <v>2</v>
@@ -41763,22 +41763,22 @@
             <v>5</v>
           </cell>
           <cell r="NV43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="NW43">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="NX43">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="NY43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="NZ43">
-            <v>0.2</v>
+            <v>0.4</v>
           </cell>
           <cell r="OA43">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="OB43">
             <v>0</v>
@@ -41799,22 +41799,22 @@
             <v>5</v>
           </cell>
           <cell r="OH43">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="OI43">
-            <v>0</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="OJ43">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="OK43">
+            <v>5</v>
+          </cell>
+          <cell r="OL43">
+            <v>0.55555555555555558</v>
+          </cell>
+          <cell r="OM43">
             <v>4</v>
-          </cell>
-          <cell r="OL43">
-            <v>0.44444444444444442</v>
-          </cell>
-          <cell r="OM43">
-            <v>5</v>
           </cell>
           <cell r="ON43">
             <v>4</v>
@@ -41826,13 +41826,13 @@
             <v>2</v>
           </cell>
           <cell r="OQ43">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="OR43">
-            <v>0.83333333333333337</v>
+            <v>1</v>
           </cell>
           <cell r="OS43">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="OT43">
             <v>0</v>
@@ -41871,13 +41871,13 @@
             <v>0</v>
           </cell>
           <cell r="PF43">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="PG43">
-            <v>0.5</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="PH43">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="PI43">
             <v>3</v>
@@ -41916,13 +41916,13 @@
             <v>0</v>
           </cell>
           <cell r="PU43">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="PV43">
-            <v>0.5</v>
+            <v>0.75</v>
           </cell>
           <cell r="PW43">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="PX43">
             <v>0</v>
@@ -41961,10 +41961,10 @@
             <v>0</v>
           </cell>
           <cell r="QJ43">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="QK43">
-            <v>1</v>
+            <v>1.1666666666666667</v>
           </cell>
           <cell r="QL43">
             <v>0</v>
@@ -41988,13 +41988,13 @@
             <v>3</v>
           </cell>
           <cell r="QS43">
-            <v>0</v>
+            <v>-1</v>
           </cell>
           <cell r="QT43">
-            <v>0</v>
+            <v>-0.16666666666666666</v>
           </cell>
           <cell r="QU43">
-            <v>6</v>
+            <v>7</v>
           </cell>
           <cell r="QV43">
             <v>0</v>
@@ -42015,13 +42015,13 @@
             <v>0</v>
           </cell>
           <cell r="RB43">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="RC43">
-            <v>0.5714285714285714</v>
+            <v>0.7142857142857143</v>
           </cell>
           <cell r="RD43">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="RE43">
             <v>0</v>
@@ -42051,13 +42051,13 @@
             <v>4</v>
           </cell>
           <cell r="RN43">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="RO43">
-            <v>0.16666666666666666</v>
+            <v>0</v>
           </cell>
           <cell r="RP43">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="RQ43">
             <v>6</v>
@@ -42096,13 +42096,13 @@
             <v>5</v>
           </cell>
           <cell r="SC43">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="SD43">
-            <v>0.16666666666666666</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="SE43">
-            <v>5</v>
+            <v>4</v>
           </cell>
           <cell r="SF43">
             <v>0</v>
@@ -42132,13 +42132,13 @@
             <v>4</v>
           </cell>
           <cell r="SO43">
-            <v>-1</v>
+            <v>-2</v>
           </cell>
           <cell r="SP43">
-            <v>-0.16666666666666666</v>
+            <v>-0.33333333333333331</v>
           </cell>
           <cell r="SQ43">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="SR43">
             <v>1</v>
@@ -42159,13 +42159,13 @@
             <v>3</v>
           </cell>
           <cell r="SX43">
-            <v>185</v>
+            <v>206</v>
           </cell>
           <cell r="SY43">
-            <v>0.252387448840382</v>
+            <v>0.28103683492496589</v>
           </cell>
           <cell r="SZ43">
-            <v>548</v>
+            <v>527</v>
           </cell>
         </row>
         <row r="44">
@@ -43048,17 +43048,17 @@
           <cell r="C45"/>
           <cell r="D45"/>
           <cell r="E45">
-            <v>-0.16279069767441862</v>
+            <v>-0.14893617021276595</v>
           </cell>
           <cell r="F45"/>
           <cell r="G45"/>
           <cell r="H45">
-            <v>0.26666666666666666</v>
+            <v>0.2</v>
           </cell>
           <cell r="I45"/>
           <cell r="J45"/>
           <cell r="K45">
-            <v>-0.125</v>
+            <v>-9.5238095238095233E-2</v>
           </cell>
           <cell r="L45"/>
           <cell r="M45"/>
@@ -43068,7 +43068,7 @@
           <cell r="O45"/>
           <cell r="P45"/>
           <cell r="Q45">
-            <v>0.17647058823529413</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="R45"/>
           <cell r="S45"/>
@@ -43078,7 +43078,7 @@
           <cell r="U45"/>
           <cell r="V45"/>
           <cell r="W45">
-            <v>2.7027027027027029E-2</v>
+            <v>2.3255813953488372E-2</v>
           </cell>
           <cell r="X45"/>
           <cell r="Y45"/>
@@ -43113,12 +43113,12 @@
           <cell r="AP45"/>
           <cell r="AQ45"/>
           <cell r="AR45">
-            <v>5.0847457627118647E-2</v>
+            <v>0.04</v>
           </cell>
           <cell r="AS45"/>
           <cell r="AT45"/>
           <cell r="AU45">
-            <v>0.3</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="AV45"/>
           <cell r="AW45"/>
@@ -43133,7 +43133,7 @@
           <cell r="BB45"/>
           <cell r="BC45"/>
           <cell r="BD45">
-            <v>0.2</v>
+            <v>0.16</v>
           </cell>
           <cell r="BE45"/>
           <cell r="BF45"/>
@@ -43143,7 +43143,7 @@
           <cell r="BH45"/>
           <cell r="BI45"/>
           <cell r="BJ45">
-            <v>7.407407407407407E-2</v>
+            <v>5.5555555555555552E-2</v>
           </cell>
           <cell r="BK45"/>
           <cell r="BL45"/>
@@ -43168,12 +43168,12 @@
           <cell r="BW45"/>
           <cell r="BX45"/>
           <cell r="BY45">
-            <v>0.14285714285714285</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="BZ45"/>
           <cell r="CA45"/>
           <cell r="CB45">
-            <v>0.34375</v>
+            <v>0.14545454545454545</v>
           </cell>
           <cell r="CC45"/>
           <cell r="CD45"/>
@@ -43183,7 +43183,7 @@
           <cell r="CF45"/>
           <cell r="CG45"/>
           <cell r="CH45">
-            <v>3.7037037037037035E-2</v>
+            <v>3.6363636363636362E-2</v>
           </cell>
           <cell r="CI45"/>
           <cell r="CJ45"/>
@@ -43193,7 +43193,7 @@
           <cell r="CL45"/>
           <cell r="CM45"/>
           <cell r="CN45">
-            <v>4.1666666666666664E-2</v>
+            <v>3.7735849056603772E-2</v>
           </cell>
           <cell r="CO45"/>
           <cell r="CP45"/>
@@ -43213,7 +43213,7 @@
           <cell r="CX45"/>
           <cell r="CY45"/>
           <cell r="CZ45">
-            <v>1</v>
+            <v>0.4</v>
           </cell>
           <cell r="DA45"/>
           <cell r="DB45"/>
@@ -43223,17 +43223,17 @@
           <cell r="DD45"/>
           <cell r="DE45"/>
           <cell r="DF45">
-            <v>3.125E-2</v>
+            <v>2.7777777777777776E-2</v>
           </cell>
           <cell r="DG45"/>
           <cell r="DH45"/>
           <cell r="DI45">
-            <v>2.4096385542168676E-2</v>
+            <v>2.1505376344086023E-2</v>
           </cell>
           <cell r="DJ45"/>
           <cell r="DK45"/>
           <cell r="DL45">
-            <v>0</v>
+            <v>3.5714285714285712E-2</v>
           </cell>
           <cell r="DM45"/>
           <cell r="DN45"/>
@@ -43243,7 +43243,7 @@
           <cell r="DP45"/>
           <cell r="DQ45"/>
           <cell r="DR45">
-            <v>0.04</v>
+            <v>3.4482758620689655E-2</v>
           </cell>
           <cell r="DS45"/>
           <cell r="DT45"/>
@@ -43253,7 +43253,7 @@
           <cell r="DV45"/>
           <cell r="DW45"/>
           <cell r="DX45">
-            <v>-2.2727272727272728E-2</v>
+            <v>-3.7037037037037035E-2</v>
           </cell>
           <cell r="DY45"/>
           <cell r="DZ45"/>
@@ -43263,7 +43263,7 @@
           <cell r="EB45"/>
           <cell r="EC45"/>
           <cell r="ED45">
-            <v>3.8461538461538464E-2</v>
+            <v>3.1578947368421054E-2</v>
           </cell>
           <cell r="EE45"/>
           <cell r="EF45"/>
@@ -43273,7 +43273,7 @@
           <cell r="EH45"/>
           <cell r="EI45"/>
           <cell r="EJ45">
-            <v>7.6923076923076927E-2</v>
+            <v>4.3478260869565216E-2</v>
           </cell>
           <cell r="EK45"/>
           <cell r="EL45"/>
@@ -43283,7 +43283,7 @@
           <cell r="EN45"/>
           <cell r="EO45"/>
           <cell r="EP45">
-            <v>4.1666666666666664E-2</v>
+            <v>3.4482758620689655E-2</v>
           </cell>
           <cell r="EQ45"/>
           <cell r="ER45"/>
@@ -43293,17 +43293,17 @@
           <cell r="ET45"/>
           <cell r="EU45"/>
           <cell r="EV45">
-            <v>2.9411764705882353E-2</v>
+            <v>6.9767441860465115E-2</v>
           </cell>
           <cell r="EW45"/>
           <cell r="EX45"/>
           <cell r="EY45">
-            <v>4.0816326530612242E-2</v>
+            <v>4.6875E-2</v>
           </cell>
           <cell r="EZ45"/>
           <cell r="FA45"/>
           <cell r="FB45">
-            <v>0.15151515151515152</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="FC45"/>
           <cell r="FD45"/>
@@ -43318,7 +43318,7 @@
           <cell r="FI45"/>
           <cell r="FJ45"/>
           <cell r="FK45">
-            <v>0.19230769230769232</v>
+            <v>0.17857142857142858</v>
           </cell>
           <cell r="FL45"/>
           <cell r="FM45"/>
@@ -43333,17 +43333,17 @@
           <cell r="FR45"/>
           <cell r="FS45"/>
           <cell r="FT45">
-            <v>0.5</v>
+            <v>0.14285714285714285</v>
           </cell>
           <cell r="FU45"/>
           <cell r="FV45"/>
           <cell r="FW45">
-            <v>0.2</v>
+            <v>9.5238095238095233E-2</v>
           </cell>
           <cell r="FX45"/>
           <cell r="FY45"/>
           <cell r="FZ45">
-            <v>0.1</v>
+            <v>0.12903225806451613</v>
           </cell>
           <cell r="GA45"/>
           <cell r="GB45"/>
@@ -43358,7 +43358,7 @@
           <cell r="GG45"/>
           <cell r="GH45"/>
           <cell r="GI45">
-            <v>0.15151515151515152</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="GJ45"/>
           <cell r="GK45"/>
@@ -43398,22 +43398,22 @@
           <cell r="HE45"/>
           <cell r="HF45"/>
           <cell r="HG45">
-            <v>3.1578947368421054E-2</v>
+            <v>3.7037037037037035E-2</v>
           </cell>
           <cell r="HH45"/>
           <cell r="HI45"/>
           <cell r="HJ45">
-            <v>-1.8518518518518517E-2</v>
+            <v>-1.6129032258064516E-2</v>
           </cell>
           <cell r="HK45"/>
           <cell r="HL45"/>
           <cell r="HM45">
-            <v>9.5238095238095233E-2</v>
+            <v>0.13043478260869565</v>
           </cell>
           <cell r="HN45"/>
           <cell r="HO45"/>
           <cell r="HP45">
-            <v>-3.7037037037037035E-2</v>
+            <v>-3.2258064516129031E-2</v>
           </cell>
           <cell r="HQ45"/>
           <cell r="HR45"/>
@@ -43423,7 +43423,7 @@
           <cell r="HT45"/>
           <cell r="HU45"/>
           <cell r="HV45">
-            <v>5.1724137931034482E-2</v>
+            <v>4.5454545454545456E-2</v>
           </cell>
           <cell r="HW45"/>
           <cell r="HX45"/>
@@ -43433,12 +43433,12 @@
           <cell r="HZ45"/>
           <cell r="IA45"/>
           <cell r="IB45">
-            <v>1.2345679012345678E-2</v>
+            <v>1.1627906976744186E-2</v>
           </cell>
           <cell r="IC45"/>
           <cell r="ID45"/>
           <cell r="IE45">
-            <v>1.8867924528301886E-2</v>
+            <v>2.8985507246376812E-2</v>
           </cell>
           <cell r="IF45"/>
           <cell r="IG45"/>
@@ -43463,12 +43463,12 @@
           <cell r="IR45"/>
           <cell r="IS45"/>
           <cell r="IT45">
-            <v>6.8965517241379309E-2</v>
+            <v>8.8235294117647065E-2</v>
           </cell>
           <cell r="IU45"/>
           <cell r="IV45"/>
           <cell r="IW45">
-            <v>4.1666666666666664E-2</v>
+            <v>3.7735849056603772E-2</v>
           </cell>
           <cell r="IX45"/>
           <cell r="IY45"/>
@@ -43498,7 +43498,7 @@
           <cell r="JM45"/>
           <cell r="JN45"/>
           <cell r="JO45">
-            <v>2.8571428571428571E-2</v>
+            <v>2.7027027027027029E-2</v>
           </cell>
           <cell r="JP45"/>
           <cell r="JQ45"/>
@@ -43518,7 +43518,7 @@
           <cell r="JY45"/>
           <cell r="JZ45"/>
           <cell r="KA45">
-            <v>4.5454545454545456E-2</v>
+            <v>0.04</v>
           </cell>
           <cell r="KB45"/>
           <cell r="KC45"/>
@@ -43558,7 +43558,7 @@
           <cell r="KW45"/>
           <cell r="KX45"/>
           <cell r="KY45">
-            <v>3.5714285714285712E-2</v>
+            <v>3.0303030303030304E-2</v>
           </cell>
           <cell r="KZ45"/>
           <cell r="LA45"/>
@@ -43578,7 +43578,7 @@
           <cell r="LI45"/>
           <cell r="LJ45"/>
           <cell r="LK45">
-            <v>7.6923076923076927E-2</v>
+            <v>0.15384615384615385</v>
           </cell>
           <cell r="LL45"/>
           <cell r="LM45"/>
@@ -43608,22 +43608,22 @@
           <cell r="MA45"/>
           <cell r="MB45"/>
           <cell r="MC45">
-            <v>0.2</v>
+            <v>0.18518518518518517</v>
           </cell>
           <cell r="MD45"/>
           <cell r="ME45"/>
           <cell r="MF45">
-            <v>8.8235294117647065E-2</v>
+            <v>0.11363636363636363</v>
           </cell>
           <cell r="MG45"/>
           <cell r="MH45"/>
           <cell r="MI45">
-            <v>0.10714285714285714</v>
+            <v>8.8235294117647065E-2</v>
           </cell>
           <cell r="MJ45"/>
           <cell r="MK45"/>
           <cell r="ML45">
-            <v>0.16</v>
+            <v>0.20689655172413793</v>
           </cell>
           <cell r="MM45"/>
           <cell r="MN45"/>
@@ -43638,7 +43638,7 @@
           <cell r="MS45"/>
           <cell r="MT45"/>
           <cell r="MU45">
-            <v>2.8571428571428571E-2</v>
+            <v>2.564102564102564E-2</v>
           </cell>
           <cell r="MV45"/>
           <cell r="MW45"/>
@@ -43658,12 +43658,12 @@
           <cell r="NE45"/>
           <cell r="NF45"/>
           <cell r="NG45">
-            <v>0.2857142857142857</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="NH45"/>
           <cell r="NI45"/>
           <cell r="NJ45">
-            <v>5.5555555555555552E-2</v>
+            <v>4.5454545454545456E-2</v>
           </cell>
           <cell r="NK45"/>
           <cell r="NL45"/>
@@ -43673,22 +43673,22 @@
           <cell r="NN45"/>
           <cell r="NO45"/>
           <cell r="NP45">
-            <v>0.13043478260869565</v>
+            <v>9.0909090909090912E-2</v>
           </cell>
           <cell r="NQ45"/>
           <cell r="NR45"/>
           <cell r="NS45">
-            <v>2.9411764705882353E-2</v>
+            <v>2.6315789473684209E-2</v>
           </cell>
           <cell r="NT45"/>
           <cell r="NU45"/>
           <cell r="NV45">
-            <v>1.098901098901099E-2</v>
+            <v>2.0408163265306121E-2</v>
           </cell>
           <cell r="NW45"/>
           <cell r="NX45"/>
           <cell r="NY45">
-            <v>1.3513513513513514E-2</v>
+            <v>2.5316455696202531E-2</v>
           </cell>
           <cell r="NZ45"/>
           <cell r="OA45"/>
@@ -43703,22 +43703,22 @@
           <cell r="OF45"/>
           <cell r="OG45"/>
           <cell r="OH45">
-            <v>0</v>
+            <v>3.5714285714285712E-2</v>
           </cell>
           <cell r="OI45"/>
           <cell r="OJ45"/>
           <cell r="OK45">
-            <v>0.4</v>
+            <v>0.38461538461538464</v>
           </cell>
           <cell r="OL45"/>
           <cell r="OM45"/>
           <cell r="ON45">
-            <v>8.8888888888888892E-2</v>
+            <v>8.5106382978723402E-2</v>
           </cell>
           <cell r="OO45"/>
           <cell r="OP45"/>
           <cell r="OQ45">
-            <v>6.9444444444444448E-2</v>
+            <v>7.2289156626506021E-2</v>
           </cell>
           <cell r="OR45"/>
           <cell r="OS45"/>
@@ -43728,7 +43728,7 @@
           <cell r="OU45"/>
           <cell r="OV45"/>
           <cell r="OW45">
-            <v>5.2631578947368418E-2</v>
+            <v>1.6666666666666666E-2</v>
           </cell>
           <cell r="OX45"/>
           <cell r="OY45"/>
@@ -43743,12 +43743,12 @@
           <cell r="PD45"/>
           <cell r="PE45"/>
           <cell r="PF45">
-            <v>0.1111111111111111</v>
+            <v>6.8965517241379309E-2</v>
           </cell>
           <cell r="PG45"/>
           <cell r="PH45"/>
           <cell r="PI45">
-            <v>4.0540540540540543E-2</v>
+            <v>3.7974683544303799E-2</v>
           </cell>
           <cell r="PJ45"/>
           <cell r="PK45"/>
@@ -43768,7 +43768,7 @@
           <cell r="PS45"/>
           <cell r="PT45"/>
           <cell r="PU45">
-            <v>7.407407407407407E-2</v>
+            <v>8.5714285714285715E-2</v>
           </cell>
           <cell r="PV45"/>
           <cell r="PW45"/>
@@ -43793,7 +43793,7 @@
           <cell r="QH45"/>
           <cell r="QI45"/>
           <cell r="QJ45">
-            <v>0.31578947368421051</v>
+            <v>0.30434782608695654</v>
           </cell>
           <cell r="QK45"/>
           <cell r="QL45"/>
@@ -43808,7 +43808,7 @@
           <cell r="QQ45"/>
           <cell r="QR45"/>
           <cell r="QS45">
-            <v>0</v>
+            <v>-0.25</v>
           </cell>
           <cell r="QT45"/>
           <cell r="QU45"/>
@@ -43823,7 +43823,7 @@
           <cell r="QZ45"/>
           <cell r="RA45"/>
           <cell r="RB45">
-            <v>0.1</v>
+            <v>0.11627906976744186</v>
           </cell>
           <cell r="RC45"/>
           <cell r="RD45"/>
@@ -43838,17 +43838,17 @@
           <cell r="RI45"/>
           <cell r="RJ45"/>
           <cell r="RK45">
-            <v>1.6949152542372881E-2</v>
+            <v>1.5151515151515152E-2</v>
           </cell>
           <cell r="RL45"/>
           <cell r="RM45"/>
           <cell r="RN45">
-            <v>2.0408163265306121E-2</v>
+            <v>0</v>
           </cell>
           <cell r="RO45"/>
           <cell r="RP45"/>
           <cell r="RQ45">
-            <v>0.21428571428571427</v>
+            <v>0.17647058823529413</v>
           </cell>
           <cell r="RR45"/>
           <cell r="RS45"/>
@@ -43863,12 +43863,12 @@
           <cell r="RX45"/>
           <cell r="RY45"/>
           <cell r="RZ45">
-            <v>9.0909090909090912E-2</v>
+            <v>7.3170731707317069E-2</v>
           </cell>
           <cell r="SA45"/>
           <cell r="SB45"/>
           <cell r="SC45">
-            <v>2.7777777777777776E-2</v>
+            <v>5.2631578947368418E-2</v>
           </cell>
           <cell r="SD45"/>
           <cell r="SE45"/>
@@ -43893,17 +43893,17 @@
           <cell r="SP45"/>
           <cell r="SQ45"/>
           <cell r="SR45">
-            <v>0.2</v>
+            <v>0.16666666666666666</v>
           </cell>
           <cell r="SS45"/>
           <cell r="ST45"/>
           <cell r="SU45">
-            <v>0.06</v>
+            <v>5.0847457627118647E-2</v>
           </cell>
           <cell r="SV45"/>
           <cell r="SW45"/>
           <cell r="SX45">
-            <v>5.0518842162752597E-2</v>
+            <v>4.880360104240701E-2</v>
           </cell>
           <cell r="SY45"/>
           <cell r="SZ45"/>
@@ -44792,13 +44792,13 @@
             <v>0</v>
           </cell>
           <cell r="E47">
-            <v>43</v>
+            <v>47</v>
           </cell>
           <cell r="F47">
-            <v>9.555555555555556E-2</v>
+            <v>0.10444444444444445</v>
           </cell>
           <cell r="G47">
-            <v>407</v>
+            <v>403</v>
           </cell>
           <cell r="H47">
             <v>15</v>
@@ -44810,13 +44810,13 @@
             <v>85</v>
           </cell>
           <cell r="K47">
-            <v>16</v>
+            <v>21</v>
           </cell>
           <cell r="L47">
-            <v>0.11428571428571428</v>
+            <v>0.15</v>
           </cell>
           <cell r="M47">
-            <v>124</v>
+            <v>119</v>
           </cell>
           <cell r="N47">
             <v>0</v>
@@ -44828,13 +44828,13 @@
             <v>0</v>
           </cell>
           <cell r="Q47">
-            <v>34</v>
+            <v>36</v>
           </cell>
           <cell r="R47">
-            <v>0.56666666666666665</v>
+            <v>0.6</v>
           </cell>
           <cell r="S47">
-            <v>26</v>
+            <v>24</v>
           </cell>
           <cell r="T47">
             <v>0</v>
@@ -44846,13 +44846,13 @@
             <v>70</v>
           </cell>
           <cell r="W47">
-            <v>74</v>
+            <v>86</v>
           </cell>
           <cell r="X47">
-            <v>0.52857142857142858</v>
+            <v>0.61428571428571432</v>
           </cell>
           <cell r="Y47">
-            <v>66</v>
+            <v>54</v>
           </cell>
           <cell r="Z47">
             <v>29</v>
@@ -44909,22 +44909,22 @@
             <v>100</v>
           </cell>
           <cell r="AR47">
-            <v>59</v>
+            <v>75</v>
           </cell>
           <cell r="AS47">
-            <v>0.29499999999999998</v>
+            <v>0.375</v>
           </cell>
           <cell r="AT47">
-            <v>141</v>
+            <v>125</v>
           </cell>
           <cell r="AU47">
-            <v>10</v>
+            <v>12</v>
           </cell>
           <cell r="AV47">
-            <v>0.16666666666666666</v>
+            <v>0.2</v>
           </cell>
           <cell r="AW47">
-            <v>50</v>
+            <v>48</v>
           </cell>
           <cell r="AX47">
             <v>11</v>
@@ -44936,13 +44936,13 @@
             <v>49</v>
           </cell>
           <cell r="BA47">
-            <v>33</v>
+            <v>38</v>
           </cell>
           <cell r="BB47">
-            <v>0.16500000000000001</v>
+            <v>0.19</v>
           </cell>
           <cell r="BC47">
-            <v>167</v>
+            <v>162</v>
           </cell>
           <cell r="BD47">
             <v>25</v>
@@ -44954,22 +44954,22 @@
             <v>55</v>
           </cell>
           <cell r="BG47">
-            <v>54</v>
+            <v>61</v>
           </cell>
           <cell r="BH47">
-            <v>0.3</v>
+            <v>0.33888888888888891</v>
           </cell>
           <cell r="BI47">
-            <v>126</v>
+            <v>119</v>
           </cell>
           <cell r="BJ47">
-            <v>27</v>
+            <v>36</v>
           </cell>
           <cell r="BK47">
-            <v>0.13500000000000001</v>
+            <v>0.18</v>
           </cell>
           <cell r="BL47">
-            <v>173</v>
+            <v>164</v>
           </cell>
           <cell r="BM47">
             <v>16</v>
@@ -45008,22 +45008,22 @@
             <v>100</v>
           </cell>
           <cell r="BY47">
-            <v>7</v>
+            <v>12</v>
           </cell>
           <cell r="BZ47">
-            <v>8.7499999999999994E-2</v>
+            <v>0.15</v>
           </cell>
           <cell r="CA47">
-            <v>73</v>
+            <v>68</v>
           </cell>
           <cell r="CB47">
-            <v>32</v>
+            <v>55</v>
           </cell>
           <cell r="CC47">
-            <v>0.26666666666666666</v>
+            <v>0.45833333333333331</v>
           </cell>
           <cell r="CD47">
-            <v>88</v>
+            <v>65</v>
           </cell>
           <cell r="CE47">
             <v>0</v>
@@ -45035,13 +45035,13 @@
             <v>100</v>
           </cell>
           <cell r="CH47">
-            <v>54</v>
+            <v>55</v>
           </cell>
           <cell r="CI47">
-            <v>0.54</v>
+            <v>0.55000000000000004</v>
           </cell>
           <cell r="CJ47">
-            <v>46</v>
+            <v>45</v>
           </cell>
           <cell r="CK47">
             <v>14</v>
@@ -45053,13 +45053,13 @@
             <v>66</v>
           </cell>
           <cell r="CN47">
-            <v>48</v>
+            <v>53</v>
           </cell>
           <cell r="CO47">
-            <v>0.24</v>
+            <v>0.26500000000000001</v>
           </cell>
           <cell r="CP47">
-            <v>152</v>
+            <v>147</v>
           </cell>
           <cell r="CQ47">
             <v>0</v>
@@ -45089,13 +45089,13 @@
             <v>0</v>
           </cell>
           <cell r="CZ47">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="DA47">
-            <v>1.2500000000000001E-2</v>
+            <v>6.25E-2</v>
           </cell>
           <cell r="DB47">
-            <v>79</v>
+            <v>75</v>
           </cell>
           <cell r="DC47">
             <v>0</v>
@@ -45107,31 +45107,31 @@
             <v>0</v>
           </cell>
           <cell r="DF47">
-            <v>32</v>
+            <v>36</v>
           </cell>
           <cell r="DG47">
-            <v>0.45714285714285713</v>
+            <v>0.51428571428571423</v>
           </cell>
           <cell r="DH47">
-            <v>38</v>
+            <v>34</v>
           </cell>
           <cell r="DI47">
-            <v>83</v>
+            <v>93</v>
           </cell>
           <cell r="DJ47">
-            <v>0.41499999999999998</v>
+            <v>0.46500000000000002</v>
           </cell>
           <cell r="DK47">
-            <v>117</v>
+            <v>107</v>
           </cell>
           <cell r="DL47">
-            <v>17</v>
+            <v>28</v>
           </cell>
           <cell r="DM47">
-            <v>8.5000000000000006E-2</v>
+            <v>0.14000000000000001</v>
           </cell>
           <cell r="DN47">
-            <v>183</v>
+            <v>172</v>
           </cell>
           <cell r="DO47">
             <v>31</v>
@@ -45143,13 +45143,13 @@
             <v>169</v>
           </cell>
           <cell r="DR47">
-            <v>50</v>
+            <v>58</v>
           </cell>
           <cell r="DS47">
-            <v>0.27777777777777779</v>
+            <v>0.32222222222222224</v>
           </cell>
           <cell r="DT47">
-            <v>130</v>
+            <v>122</v>
           </cell>
           <cell r="DU47">
             <v>0</v>
@@ -45161,13 +45161,13 @@
             <v>0</v>
           </cell>
           <cell r="DX47">
-            <v>44</v>
+            <v>54</v>
           </cell>
           <cell r="DY47">
-            <v>0.22</v>
+            <v>0.27</v>
           </cell>
           <cell r="DZ47">
-            <v>156</v>
+            <v>146</v>
           </cell>
           <cell r="EA47">
             <v>0</v>
@@ -45179,13 +45179,13 @@
             <v>0</v>
           </cell>
           <cell r="ED47">
-            <v>78</v>
+            <v>95</v>
           </cell>
           <cell r="EE47">
-            <v>0.39</v>
+            <v>0.47499999999999998</v>
           </cell>
           <cell r="EF47">
-            <v>122</v>
+            <v>105</v>
           </cell>
           <cell r="EG47">
             <v>0</v>
@@ -45197,13 +45197,13 @@
             <v>0</v>
           </cell>
           <cell r="EJ47">
-            <v>39</v>
+            <v>46</v>
           </cell>
           <cell r="EK47">
-            <v>0.32500000000000001</v>
+            <v>0.38333333333333336</v>
           </cell>
           <cell r="EL47">
-            <v>81</v>
+            <v>74</v>
           </cell>
           <cell r="EM47">
             <v>1</v>
@@ -45215,13 +45215,13 @@
             <v>0</v>
           </cell>
           <cell r="EP47">
-            <v>48</v>
+            <v>58</v>
           </cell>
           <cell r="EQ47">
-            <v>0.34285714285714286</v>
+            <v>0.41428571428571431</v>
           </cell>
           <cell r="ER47">
-            <v>92</v>
+            <v>82</v>
           </cell>
           <cell r="ES47">
             <v>0</v>
@@ -45233,31 +45233,31 @@
             <v>0</v>
           </cell>
           <cell r="EV47">
-            <v>34</v>
+            <v>43</v>
           </cell>
           <cell r="EW47">
-            <v>0.56666666666666665</v>
+            <v>0.71666666666666667</v>
           </cell>
           <cell r="EX47">
-            <v>26</v>
+            <v>17</v>
           </cell>
           <cell r="EY47">
-            <v>49</v>
+            <v>64</v>
           </cell>
           <cell r="EZ47">
-            <v>0.245</v>
+            <v>0.32</v>
           </cell>
           <cell r="FA47">
-            <v>151</v>
+            <v>136</v>
           </cell>
           <cell r="FB47">
-            <v>33</v>
+            <v>36</v>
           </cell>
           <cell r="FC47">
-            <v>0.41249999999999998</v>
+            <v>0.45</v>
           </cell>
           <cell r="FD47">
-            <v>47</v>
+            <v>44</v>
           </cell>
           <cell r="FE47">
             <v>0</v>
@@ -45278,13 +45278,13 @@
             <v>105</v>
           </cell>
           <cell r="FK47">
-            <v>26</v>
+            <v>28</v>
           </cell>
           <cell r="FL47">
-            <v>0.32500000000000001</v>
+            <v>0.35</v>
           </cell>
           <cell r="FM47">
-            <v>54</v>
+            <v>52</v>
           </cell>
           <cell r="FN47">
             <v>0</v>
@@ -45305,31 +45305,31 @@
             <v>0</v>
           </cell>
           <cell r="FT47">
-            <v>2</v>
+            <v>7</v>
           </cell>
           <cell r="FU47">
-            <v>0.02</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
           <cell r="FV47">
-            <v>98</v>
+            <v>93</v>
           </cell>
           <cell r="FW47">
-            <v>10</v>
+            <v>21</v>
           </cell>
           <cell r="FX47">
-            <v>0.25</v>
+            <v>0.52500000000000002</v>
           </cell>
           <cell r="FY47">
-            <v>30</v>
+            <v>19</v>
           </cell>
           <cell r="FZ47">
-            <v>20</v>
+            <v>31</v>
           </cell>
           <cell r="GA47">
-            <v>0.22222222222222221</v>
+            <v>0.34444444444444444</v>
           </cell>
           <cell r="GB47">
-            <v>70</v>
+            <v>59</v>
           </cell>
           <cell r="GC47">
             <v>0</v>
@@ -45350,13 +45350,13 @@
             <v>0</v>
           </cell>
           <cell r="GI47">
-            <v>33</v>
+            <v>36</v>
           </cell>
           <cell r="GJ47">
-            <v>0.33</v>
+            <v>0.36</v>
           </cell>
           <cell r="GK47">
-            <v>67</v>
+            <v>64</v>
           </cell>
           <cell r="GL47">
             <v>48</v>
@@ -45377,13 +45377,13 @@
             <v>0</v>
           </cell>
           <cell r="GR47">
-            <v>70</v>
+            <v>81</v>
           </cell>
           <cell r="GS47">
-            <v>0.35</v>
+            <v>0.40500000000000003</v>
           </cell>
           <cell r="GT47">
-            <v>130</v>
+            <v>119</v>
           </cell>
           <cell r="GU47">
             <v>0</v>
@@ -45422,40 +45422,40 @@
             <v>97</v>
           </cell>
           <cell r="HG47">
-            <v>95</v>
+            <v>108</v>
           </cell>
           <cell r="HH47">
-            <v>0.47499999999999998</v>
+            <v>0.54</v>
           </cell>
           <cell r="HI47">
-            <v>105</v>
+            <v>92</v>
           </cell>
           <cell r="HJ47">
-            <v>54</v>
+            <v>62</v>
           </cell>
           <cell r="HK47">
-            <v>0.27</v>
+            <v>0.31</v>
           </cell>
           <cell r="HL47">
-            <v>146</v>
+            <v>138</v>
           </cell>
           <cell r="HM47">
-            <v>42</v>
+            <v>46</v>
           </cell>
           <cell r="HN47">
-            <v>0.3</v>
+            <v>0.32857142857142857</v>
           </cell>
           <cell r="HO47">
-            <v>98</v>
+            <v>94</v>
           </cell>
           <cell r="HP47">
-            <v>27</v>
+            <v>31</v>
           </cell>
           <cell r="HQ47">
-            <v>0.1588235294117647</v>
+            <v>0.18235294117647058</v>
           </cell>
           <cell r="HR47">
-            <v>143</v>
+            <v>139</v>
           </cell>
           <cell r="HS47">
             <v>0</v>
@@ -45467,40 +45467,40 @@
             <v>0</v>
           </cell>
           <cell r="HV47">
-            <v>58</v>
+            <v>66</v>
           </cell>
           <cell r="HW47">
-            <v>0.28999999999999998</v>
+            <v>0.33</v>
           </cell>
           <cell r="HX47">
-            <v>142</v>
+            <v>134</v>
           </cell>
           <cell r="HY47">
-            <v>5</v>
+            <v>10</v>
           </cell>
           <cell r="HZ47">
-            <v>3.125E-2</v>
+            <v>6.25E-2</v>
           </cell>
           <cell r="IA47">
-            <v>155</v>
+            <v>150</v>
           </cell>
           <cell r="IB47">
-            <v>81</v>
+            <v>86</v>
           </cell>
           <cell r="IC47">
-            <v>0.40500000000000003</v>
+            <v>0.43</v>
           </cell>
           <cell r="ID47">
-            <v>119</v>
+            <v>114</v>
           </cell>
           <cell r="IE47">
-            <v>53</v>
+            <v>69</v>
           </cell>
           <cell r="IF47">
-            <v>0.26500000000000001</v>
+            <v>0.34499999999999997</v>
           </cell>
           <cell r="IG47">
-            <v>147</v>
+            <v>131</v>
           </cell>
           <cell r="IH47">
             <v>0</v>
@@ -45539,22 +45539,22 @@
             <v>0</v>
           </cell>
           <cell r="IT47">
-            <v>29</v>
+            <v>34</v>
           </cell>
           <cell r="IU47">
-            <v>0.48333333333333334</v>
+            <v>0.56666666666666665</v>
           </cell>
           <cell r="IV47">
-            <v>31</v>
+            <v>26</v>
           </cell>
           <cell r="IW47">
-            <v>48</v>
+            <v>53</v>
           </cell>
           <cell r="IX47">
-            <v>0.24</v>
+            <v>0.26500000000000001</v>
           </cell>
           <cell r="IY47">
-            <v>152</v>
+            <v>147</v>
           </cell>
           <cell r="IZ47">
             <v>40</v>
@@ -45602,13 +45602,13 @@
             <v>0</v>
           </cell>
           <cell r="JO47">
-            <v>35</v>
+            <v>37</v>
           </cell>
           <cell r="JP47">
-            <v>0.17499999999999999</v>
+            <v>0.185</v>
           </cell>
           <cell r="JQ47">
-            <v>165</v>
+            <v>163</v>
           </cell>
           <cell r="JR47">
             <v>0</v>
@@ -45620,13 +45620,13 @@
             <v>100</v>
           </cell>
           <cell r="JU47">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="JV47">
-            <v>0.01</v>
+            <v>0.04</v>
           </cell>
           <cell r="JW47">
-            <v>198</v>
+            <v>192</v>
           </cell>
           <cell r="JX47">
             <v>31</v>
@@ -45638,13 +45638,13 @@
             <v>129</v>
           </cell>
           <cell r="KA47">
-            <v>44</v>
+            <v>50</v>
           </cell>
           <cell r="KB47">
-            <v>0.38260869565217392</v>
+            <v>0.43478260869565216</v>
           </cell>
           <cell r="KC47">
-            <v>71</v>
+            <v>65</v>
           </cell>
           <cell r="KD47">
             <v>0</v>
@@ -45683,13 +45683,13 @@
             <v>0</v>
           </cell>
           <cell r="KP47">
-            <v>43</v>
+            <v>45</v>
           </cell>
           <cell r="KQ47">
-            <v>0.215</v>
+            <v>0.22500000000000001</v>
           </cell>
           <cell r="KR47">
-            <v>157</v>
+            <v>155</v>
           </cell>
           <cell r="KS47">
             <v>0</v>
@@ -45710,13 +45710,13 @@
             <v>0</v>
           </cell>
           <cell r="KY47">
-            <v>28</v>
+            <v>33</v>
           </cell>
           <cell r="KZ47">
-            <v>0.35</v>
+            <v>0.41249999999999998</v>
           </cell>
           <cell r="LA47">
-            <v>52</v>
+            <v>47</v>
           </cell>
           <cell r="LB47">
             <v>0</v>
@@ -45773,13 +45773,13 @@
             <v>58</v>
           </cell>
           <cell r="LT47">
-            <v>35</v>
+            <v>47</v>
           </cell>
           <cell r="LU47">
-            <v>0.29166666666666669</v>
+            <v>0.39166666666666666</v>
           </cell>
           <cell r="LV47">
-            <v>85</v>
+            <v>73</v>
           </cell>
           <cell r="LW47">
             <v>2</v>
@@ -45791,7 +45791,7 @@
             <v>98</v>
           </cell>
           <cell r="LZ47">
-            <v>21</v>
+            <v>26</v>
           </cell>
           <cell r="MA47" t="str">
             <v/>
@@ -45800,40 +45800,40 @@
             <v>0</v>
           </cell>
           <cell r="MC47">
-            <v>25</v>
+            <v>27</v>
           </cell>
           <cell r="MD47">
-            <v>0.25</v>
+            <v>0.27</v>
           </cell>
           <cell r="ME47">
-            <v>75</v>
+            <v>73</v>
           </cell>
           <cell r="MF47">
+            <v>44</v>
+          </cell>
+          <cell r="MG47">
+            <v>0.44</v>
+          </cell>
+          <cell r="MH47">
+            <v>56</v>
+          </cell>
+          <cell r="MI47">
             <v>34</v>
           </cell>
-          <cell r="MG47">
-            <v>0.34</v>
-          </cell>
-          <cell r="MH47">
-            <v>66</v>
-          </cell>
-          <cell r="MI47">
-            <v>28</v>
-          </cell>
           <cell r="MJ47">
-            <v>0.46666666666666667</v>
+            <v>0.56666666666666665</v>
           </cell>
           <cell r="MK47">
-            <v>32</v>
+            <v>26</v>
           </cell>
           <cell r="ML47">
-            <v>25</v>
+            <v>29</v>
           </cell>
           <cell r="MM47">
-            <v>0.125</v>
+            <v>0.14499999999999999</v>
           </cell>
           <cell r="MN47">
-            <v>175</v>
+            <v>171</v>
           </cell>
           <cell r="MO47">
             <v>12</v>
@@ -45854,13 +45854,13 @@
             <v>100</v>
           </cell>
           <cell r="MU47">
-            <v>35</v>
+            <v>39</v>
           </cell>
           <cell r="MV47">
-            <v>0.26923076923076922</v>
+            <v>0.3</v>
           </cell>
           <cell r="MW47">
-            <v>95</v>
+            <v>91</v>
           </cell>
           <cell r="MX47">
             <v>44</v>
@@ -45890,67 +45890,67 @@
             <v>163</v>
           </cell>
           <cell r="NG47">
-            <v>21</v>
+            <v>24</v>
           </cell>
           <cell r="NH47">
-            <v>0.21</v>
+            <v>0.24</v>
           </cell>
           <cell r="NI47">
+            <v>76</v>
+          </cell>
+          <cell r="NJ47">
+            <v>44</v>
+          </cell>
+          <cell r="NK47">
+            <v>0.73333333333333328</v>
+          </cell>
+          <cell r="NL47">
+            <v>16</v>
+          </cell>
+          <cell r="NM47">
+            <v>0</v>
+          </cell>
+          <cell r="NN47" t="str">
+            <v/>
+          </cell>
+          <cell r="NO47">
+            <v>0</v>
+          </cell>
+          <cell r="NP47">
+            <v>33</v>
+          </cell>
+          <cell r="NQ47">
+            <v>0.20624999999999999</v>
+          </cell>
+          <cell r="NR47">
+            <v>127</v>
+          </cell>
+          <cell r="NS47">
+            <v>38</v>
+          </cell>
+          <cell r="NT47">
+            <v>0.47499999999999998</v>
+          </cell>
+          <cell r="NU47">
+            <v>42</v>
+          </cell>
+          <cell r="NV47">
+            <v>98</v>
+          </cell>
+          <cell r="NW47">
+            <v>0.5444444444444444</v>
+          </cell>
+          <cell r="NX47">
+            <v>82</v>
+          </cell>
+          <cell r="NY47">
             <v>79</v>
           </cell>
-          <cell r="NJ47">
-            <v>36</v>
-          </cell>
-          <cell r="NK47">
-            <v>0.6</v>
-          </cell>
-          <cell r="NL47">
-            <v>24</v>
-          </cell>
-          <cell r="NM47">
-            <v>0</v>
-          </cell>
-          <cell r="NN47" t="str">
-            <v/>
-          </cell>
-          <cell r="NO47">
-            <v>0</v>
-          </cell>
-          <cell r="NP47">
-            <v>23</v>
-          </cell>
-          <cell r="NQ47">
-            <v>0.14374999999999999</v>
-          </cell>
-          <cell r="NR47">
-            <v>137</v>
-          </cell>
-          <cell r="NS47">
-            <v>34</v>
-          </cell>
-          <cell r="NT47">
-            <v>0.42499999999999999</v>
-          </cell>
-          <cell r="NU47">
-            <v>46</v>
-          </cell>
-          <cell r="NV47">
-            <v>91</v>
-          </cell>
-          <cell r="NW47">
-            <v>0.50555555555555554</v>
-          </cell>
-          <cell r="NX47">
-            <v>89</v>
-          </cell>
-          <cell r="NY47">
-            <v>74</v>
-          </cell>
           <cell r="NZ47">
-            <v>0.37</v>
+            <v>0.39500000000000002</v>
           </cell>
           <cell r="OA47">
-            <v>126</v>
+            <v>121</v>
           </cell>
           <cell r="OB47">
             <v>1</v>
@@ -45971,40 +45971,40 @@
             <v>152</v>
           </cell>
           <cell r="OH47">
-            <v>22</v>
+            <v>28</v>
           </cell>
           <cell r="OI47">
-            <v>0.22</v>
+            <v>0.28000000000000003</v>
           </cell>
           <cell r="OJ47">
-            <v>78</v>
+            <v>72</v>
           </cell>
           <cell r="OK47">
-            <v>10</v>
+            <v>13</v>
           </cell>
           <cell r="OL47">
-            <v>0.16666666666666666</v>
+            <v>0.21666666666666667</v>
           </cell>
           <cell r="OM47">
-            <v>50</v>
+            <v>47</v>
           </cell>
           <cell r="ON47">
-            <v>45</v>
+            <v>47</v>
           </cell>
           <cell r="OO47">
-            <v>0.3</v>
+            <v>0.31333333333333335</v>
           </cell>
           <cell r="OP47">
-            <v>105</v>
+            <v>103</v>
           </cell>
           <cell r="OQ47">
-            <v>72</v>
+            <v>83</v>
           </cell>
           <cell r="OR47">
-            <v>0.36</v>
+            <v>0.41499999999999998</v>
           </cell>
           <cell r="OS47">
-            <v>128</v>
+            <v>117</v>
           </cell>
           <cell r="OT47">
             <v>1</v>
@@ -46016,13 +46016,13 @@
             <v>29</v>
           </cell>
           <cell r="OW47">
-            <v>19</v>
+            <v>60</v>
           </cell>
           <cell r="OX47">
-            <v>0.31666666666666665</v>
+            <v>1</v>
           </cell>
           <cell r="OY47">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="OZ47">
             <v>0</v>
@@ -46043,22 +46043,22 @@
             <v>0</v>
           </cell>
           <cell r="PF47">
-            <v>27</v>
+            <v>29</v>
           </cell>
           <cell r="PG47">
-            <v>0.22500000000000001</v>
+            <v>0.24166666666666667</v>
           </cell>
           <cell r="PH47">
-            <v>93</v>
+            <v>91</v>
           </cell>
           <cell r="PI47">
-            <v>74</v>
+            <v>79</v>
           </cell>
           <cell r="PJ47">
-            <v>0.37</v>
+            <v>0.39500000000000002</v>
           </cell>
           <cell r="PK47">
-            <v>126</v>
+            <v>121</v>
           </cell>
           <cell r="PL47">
             <v>0</v>
@@ -46088,13 +46088,13 @@
             <v>0</v>
           </cell>
           <cell r="PU47">
-            <v>27</v>
+            <v>35</v>
           </cell>
           <cell r="PV47">
-            <v>0.27</v>
+            <v>0.35</v>
           </cell>
           <cell r="PW47">
-            <v>73</v>
+            <v>65</v>
           </cell>
           <cell r="PX47">
             <v>3</v>
@@ -46133,13 +46133,13 @@
             <v>0</v>
           </cell>
           <cell r="QJ47">
-            <v>19</v>
+            <v>23</v>
           </cell>
           <cell r="QK47">
-            <v>0.31666666666666665</v>
+            <v>0.38333333333333336</v>
           </cell>
           <cell r="QL47">
-            <v>41</v>
+            <v>37</v>
           </cell>
           <cell r="QM47">
             <v>0</v>
@@ -46160,13 +46160,13 @@
             <v>128</v>
           </cell>
           <cell r="QS47">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="QT47">
-            <v>0.05</v>
+            <v>6.6666666666666666E-2</v>
           </cell>
           <cell r="QU47">
-            <v>57</v>
+            <v>56</v>
           </cell>
           <cell r="QV47">
             <v>0</v>
@@ -46187,22 +46187,22 @@
             <v>0</v>
           </cell>
           <cell r="RB47">
-            <v>40</v>
+            <v>43</v>
           </cell>
           <cell r="RC47">
-            <v>0.33333333333333331</v>
+            <v>0.35833333333333334</v>
           </cell>
           <cell r="RD47">
-            <v>80</v>
+            <v>77</v>
           </cell>
           <cell r="RE47">
-            <v>69</v>
+            <v>79</v>
           </cell>
           <cell r="RF47">
-            <v>0.34499999999999997</v>
+            <v>0.39500000000000002</v>
           </cell>
           <cell r="RG47">
-            <v>131</v>
+            <v>121</v>
           </cell>
           <cell r="RH47">
             <v>1</v>
@@ -46214,31 +46214,31 @@
             <v>199</v>
           </cell>
           <cell r="RK47">
-            <v>59</v>
+            <v>66</v>
           </cell>
           <cell r="RL47">
-            <v>0.29499999999999998</v>
+            <v>0.33</v>
           </cell>
           <cell r="RM47">
-            <v>141</v>
+            <v>134</v>
           </cell>
           <cell r="RN47">
-            <v>49</v>
+            <v>56</v>
           </cell>
           <cell r="RO47">
-            <v>0.245</v>
+            <v>0.28000000000000003</v>
           </cell>
           <cell r="RP47">
-            <v>151</v>
+            <v>144</v>
           </cell>
           <cell r="RQ47">
-            <v>28</v>
+            <v>34</v>
           </cell>
           <cell r="RR47">
-            <v>0.14000000000000001</v>
+            <v>0.17</v>
           </cell>
           <cell r="RS47">
-            <v>172</v>
+            <v>166</v>
           </cell>
           <cell r="RT47">
             <v>77</v>
@@ -46250,40 +46250,40 @@
             <v>123</v>
           </cell>
           <cell r="RW47">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="RX47">
-            <v>0.05</v>
+            <v>0.1</v>
           </cell>
           <cell r="RY47">
-            <v>19</v>
+            <v>18</v>
           </cell>
           <cell r="RZ47">
-            <v>33</v>
+            <v>41</v>
           </cell>
           <cell r="SA47">
-            <v>0.18333333333333332</v>
+            <v>0.22777777777777777</v>
           </cell>
           <cell r="SB47">
-            <v>147</v>
+            <v>139</v>
           </cell>
           <cell r="SC47">
-            <v>36</v>
+            <v>38</v>
           </cell>
           <cell r="SD47">
-            <v>0.18</v>
+            <v>0.19</v>
           </cell>
           <cell r="SE47">
-            <v>164</v>
+            <v>162</v>
           </cell>
           <cell r="SF47">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="SG47">
-            <v>0.11666666666666667</v>
+            <v>0.13333333333333333</v>
           </cell>
           <cell r="SH47">
-            <v>53</v>
+            <v>52</v>
           </cell>
           <cell r="SI47">
             <v>11</v>
@@ -46313,31 +46313,31 @@
             <v>120</v>
           </cell>
           <cell r="SR47">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="SS47">
-            <v>0.125</v>
+            <v>0.15</v>
           </cell>
           <cell r="ST47">
-            <v>35</v>
+            <v>34</v>
           </cell>
           <cell r="SU47">
-            <v>50</v>
+            <v>59</v>
           </cell>
           <cell r="SV47">
-            <v>0.33333333333333331</v>
+            <v>0.39333333333333331</v>
           </cell>
           <cell r="SW47">
-            <v>100</v>
+            <v>91</v>
           </cell>
           <cell r="SX47">
-            <v>3662</v>
+            <v>4221</v>
           </cell>
           <cell r="SY47">
-            <v>0.20469536053661264</v>
+            <v>0.23594186696478481</v>
           </cell>
           <cell r="SZ47">
-            <v>14228</v>
+            <v>13669</v>
           </cell>
         </row>
         <row r="48">
@@ -47278,13 +47278,13 @@
             <v>70</v>
           </cell>
           <cell r="W49">
-            <v>46</v>
+            <v>54</v>
           </cell>
           <cell r="X49">
-            <v>0.32857142857142857</v>
+            <v>0.38571428571428573</v>
           </cell>
           <cell r="Y49">
-            <v>94</v>
+            <v>86</v>
           </cell>
           <cell r="Z49">
             <v>15</v>
@@ -47332,22 +47332,22 @@
             <v>0</v>
           </cell>
           <cell r="AO49">
-            <v>116</v>
+            <v>125</v>
           </cell>
           <cell r="AP49">
-            <v>0.46400000000000002</v>
+            <v>0.5</v>
           </cell>
           <cell r="AQ49">
-            <v>134</v>
+            <v>125</v>
           </cell>
           <cell r="AR49">
-            <v>154</v>
+            <v>195</v>
           </cell>
           <cell r="AS49">
-            <v>0.77</v>
+            <v>0.97499999999999998</v>
           </cell>
           <cell r="AT49">
-            <v>46</v>
+            <v>5</v>
           </cell>
           <cell r="AU49">
             <v>5</v>
@@ -47359,22 +47359,22 @@
             <v>55</v>
           </cell>
           <cell r="AX49">
-            <v>2</v>
+            <v>8</v>
           </cell>
           <cell r="AY49">
-            <v>3.3333333333333333E-2</v>
+            <v>0.13333333333333333</v>
           </cell>
           <cell r="AZ49">
-            <v>58</v>
+            <v>52</v>
           </cell>
           <cell r="BA49">
-            <v>28</v>
+            <v>46</v>
           </cell>
           <cell r="BB49">
-            <v>0.12727272727272726</v>
+            <v>0.20909090909090908</v>
           </cell>
           <cell r="BC49">
-            <v>192</v>
+            <v>174</v>
           </cell>
           <cell r="BD49">
             <v>13</v>
@@ -47395,13 +47395,13 @@
             <v>168</v>
           </cell>
           <cell r="BJ49">
-            <v>63</v>
+            <v>65</v>
           </cell>
           <cell r="BK49">
-            <v>0.315</v>
+            <v>0.32500000000000001</v>
           </cell>
           <cell r="BL49">
-            <v>137</v>
+            <v>135</v>
           </cell>
           <cell r="BM49">
             <v>28</v>
@@ -47431,13 +47431,13 @@
             <v>0</v>
           </cell>
           <cell r="BV49">
-            <v>53</v>
+            <v>78</v>
           </cell>
           <cell r="BW49">
-            <v>0.21199999999999999</v>
+            <v>0.312</v>
           </cell>
           <cell r="BX49">
-            <v>197</v>
+            <v>172</v>
           </cell>
           <cell r="BY49">
             <v>1</v>
@@ -47458,13 +47458,13 @@
             <v>52</v>
           </cell>
           <cell r="CE49">
-            <v>46</v>
+            <v>77</v>
           </cell>
           <cell r="CF49">
-            <v>0.184</v>
+            <v>0.308</v>
           </cell>
           <cell r="CG49">
-            <v>204</v>
+            <v>173</v>
           </cell>
           <cell r="CH49">
             <v>47</v>
@@ -47485,13 +47485,13 @@
             <v>70</v>
           </cell>
           <cell r="CN49">
-            <v>58</v>
+            <v>60</v>
           </cell>
           <cell r="CO49">
-            <v>0.28999999999999998</v>
+            <v>0.3</v>
           </cell>
           <cell r="CP49">
-            <v>142</v>
+            <v>140</v>
           </cell>
           <cell r="CQ49">
             <v>0</v>
@@ -47503,13 +47503,13 @@
             <v>0</v>
           </cell>
           <cell r="CT49">
-            <v>47</v>
+            <v>52</v>
           </cell>
           <cell r="CU49">
-            <v>0.26111111111111113</v>
+            <v>0.28888888888888886</v>
           </cell>
           <cell r="CV49">
-            <v>133</v>
+            <v>128</v>
           </cell>
           <cell r="CW49">
             <v>0</v>
@@ -47521,13 +47521,13 @@
             <v>0</v>
           </cell>
           <cell r="CZ49">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="DA49">
-            <v>0</v>
+            <v>1.2500000000000001E-2</v>
           </cell>
           <cell r="DB49">
-            <v>80</v>
+            <v>79</v>
           </cell>
           <cell r="DC49">
             <v>0</v>
@@ -47539,49 +47539,49 @@
             <v>0</v>
           </cell>
           <cell r="DF49">
-            <v>7</v>
+            <v>17</v>
           </cell>
           <cell r="DG49">
-            <v>0.1</v>
+            <v>0.24285714285714285</v>
           </cell>
           <cell r="DH49">
-            <v>63</v>
+            <v>53</v>
           </cell>
           <cell r="DI49">
-            <v>117</v>
+            <v>132</v>
           </cell>
           <cell r="DJ49">
-            <v>0.58499999999999996</v>
+            <v>0.66</v>
           </cell>
           <cell r="DK49">
-            <v>83</v>
+            <v>68</v>
           </cell>
           <cell r="DL49">
-            <v>8</v>
+            <v>28</v>
           </cell>
           <cell r="DM49">
-            <v>0.04</v>
+            <v>0.14000000000000001</v>
           </cell>
           <cell r="DN49">
-            <v>192</v>
+            <v>172</v>
           </cell>
           <cell r="DO49">
-            <v>18</v>
+            <v>24</v>
           </cell>
           <cell r="DP49">
-            <v>0.09</v>
+            <v>0.12</v>
           </cell>
           <cell r="DQ49">
-            <v>182</v>
+            <v>176</v>
           </cell>
           <cell r="DR49">
-            <v>51</v>
+            <v>54</v>
           </cell>
           <cell r="DS49">
-            <v>0.28333333333333333</v>
+            <v>0.3</v>
           </cell>
           <cell r="DT49">
-            <v>129</v>
+            <v>126</v>
           </cell>
           <cell r="DU49">
             <v>0</v>
@@ -47593,13 +47593,13 @@
             <v>0</v>
           </cell>
           <cell r="DX49">
-            <v>27</v>
+            <v>30</v>
           </cell>
           <cell r="DY49">
-            <v>0.13500000000000001</v>
+            <v>0.15</v>
           </cell>
           <cell r="DZ49">
-            <v>173</v>
+            <v>170</v>
           </cell>
           <cell r="EA49">
             <v>0</v>
@@ -47611,13 +47611,13 @@
             <v>0</v>
           </cell>
           <cell r="ED49">
-            <v>70</v>
+            <v>74</v>
           </cell>
           <cell r="EE49">
-            <v>0.31818181818181818</v>
+            <v>0.33636363636363636</v>
           </cell>
           <cell r="EF49">
-            <v>150</v>
+            <v>146</v>
           </cell>
           <cell r="EG49">
             <v>0</v>
@@ -47665,31 +47665,31 @@
             <v>0</v>
           </cell>
           <cell r="EV49">
-            <v>24</v>
+            <v>27</v>
           </cell>
           <cell r="EW49">
-            <v>0.4</v>
+            <v>0.45</v>
           </cell>
           <cell r="EX49">
-            <v>36</v>
+            <v>33</v>
           </cell>
           <cell r="EY49">
-            <v>55</v>
+            <v>69</v>
           </cell>
           <cell r="EZ49">
-            <v>0.25</v>
+            <v>0.31363636363636366</v>
           </cell>
           <cell r="FA49">
-            <v>165</v>
+            <v>151</v>
           </cell>
           <cell r="FB49">
-            <v>32</v>
+            <v>35</v>
           </cell>
           <cell r="FC49">
-            <v>0.4</v>
+            <v>0.4375</v>
           </cell>
           <cell r="FD49">
-            <v>48</v>
+            <v>45</v>
           </cell>
           <cell r="FE49">
             <v>0</v>
@@ -47737,31 +47737,31 @@
             <v>0</v>
           </cell>
           <cell r="FT49">
-            <v>0</v>
+            <v>10</v>
           </cell>
           <cell r="FU49">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
           <cell r="FV49">
-            <v>100</v>
+            <v>90</v>
           </cell>
           <cell r="FW49">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="FX49">
-            <v>2.5000000000000001E-2</v>
+            <v>0.1</v>
           </cell>
           <cell r="FY49">
-            <v>39</v>
+            <v>36</v>
           </cell>
           <cell r="FZ49">
-            <v>13</v>
+            <v>14</v>
           </cell>
           <cell r="GA49">
-            <v>0.14444444444444443</v>
+            <v>0.15555555555555556</v>
           </cell>
           <cell r="GB49">
-            <v>77</v>
+            <v>76</v>
           </cell>
           <cell r="GC49">
             <v>0</v>
@@ -47782,13 +47782,13 @@
             <v>0</v>
           </cell>
           <cell r="GI49">
-            <v>28</v>
+            <v>30</v>
           </cell>
           <cell r="GJ49">
-            <v>0.28000000000000003</v>
+            <v>0.3</v>
           </cell>
           <cell r="GK49">
-            <v>72</v>
+            <v>70</v>
           </cell>
           <cell r="GL49">
             <v>64</v>
@@ -47809,13 +47809,13 @@
             <v>0</v>
           </cell>
           <cell r="GR49">
-            <v>83</v>
+            <v>91</v>
           </cell>
           <cell r="GS49">
-            <v>0.37727272727272726</v>
+            <v>0.41363636363636364</v>
           </cell>
           <cell r="GT49">
-            <v>137</v>
+            <v>129</v>
           </cell>
           <cell r="GU49">
             <v>0</v>
@@ -47827,13 +47827,13 @@
             <v>0</v>
           </cell>
           <cell r="GX49">
-            <v>74</v>
+            <v>90</v>
           </cell>
           <cell r="GY49">
-            <v>0.29599999999999999</v>
+            <v>0.36</v>
           </cell>
           <cell r="GZ49">
-            <v>176</v>
+            <v>160</v>
           </cell>
           <cell r="HA49">
             <v>0</v>
@@ -47854,40 +47854,40 @@
             <v>120</v>
           </cell>
           <cell r="HG49">
-            <v>116</v>
+            <v>128</v>
           </cell>
           <cell r="HH49">
-            <v>0.57999999999999996</v>
+            <v>0.64</v>
           </cell>
           <cell r="HI49">
-            <v>84</v>
+            <v>72</v>
           </cell>
           <cell r="HJ49">
-            <v>59</v>
+            <v>74</v>
           </cell>
           <cell r="HK49">
-            <v>0.29499999999999998</v>
+            <v>0.37</v>
           </cell>
           <cell r="HL49">
-            <v>141</v>
+            <v>126</v>
           </cell>
           <cell r="HM49">
-            <v>32</v>
+            <v>42</v>
           </cell>
           <cell r="HN49">
-            <v>0.22857142857142856</v>
+            <v>0.3</v>
           </cell>
           <cell r="HO49">
-            <v>108</v>
+            <v>98</v>
           </cell>
           <cell r="HP49">
-            <v>21</v>
+            <v>22</v>
           </cell>
           <cell r="HQ49">
-            <v>0.12352941176470589</v>
+            <v>0.12941176470588237</v>
           </cell>
           <cell r="HR49">
-            <v>149</v>
+            <v>148</v>
           </cell>
           <cell r="HS49">
             <v>0</v>
@@ -47899,13 +47899,13 @@
             <v>0</v>
           </cell>
           <cell r="HV49">
-            <v>38</v>
+            <v>55</v>
           </cell>
           <cell r="HW49">
-            <v>0.19</v>
+            <v>0.27500000000000002</v>
           </cell>
           <cell r="HX49">
-            <v>162</v>
+            <v>145</v>
           </cell>
           <cell r="HY49">
             <v>2</v>
@@ -47926,13 +47926,13 @@
             <v>109</v>
           </cell>
           <cell r="IE49">
-            <v>99</v>
+            <v>111</v>
           </cell>
           <cell r="IF49">
-            <v>0.45</v>
+            <v>0.50454545454545452</v>
           </cell>
           <cell r="IG49">
-            <v>121</v>
+            <v>109</v>
           </cell>
           <cell r="IH49">
             <v>0</v>
@@ -47971,22 +47971,22 @@
             <v>0</v>
           </cell>
           <cell r="IT49">
-            <v>42</v>
+            <v>45</v>
           </cell>
           <cell r="IU49">
-            <v>0.7</v>
+            <v>0.75</v>
           </cell>
           <cell r="IV49">
-            <v>18</v>
+            <v>15</v>
           </cell>
           <cell r="IW49">
-            <v>61</v>
+            <v>85</v>
           </cell>
           <cell r="IX49">
-            <v>0.27727272727272728</v>
+            <v>0.38636363636363635</v>
           </cell>
           <cell r="IY49">
-            <v>159</v>
+            <v>135</v>
           </cell>
           <cell r="IZ49">
             <v>48</v>
@@ -48034,31 +48034,31 @@
             <v>0</v>
           </cell>
           <cell r="JO49">
-            <v>62</v>
+            <v>83</v>
           </cell>
           <cell r="JP49">
-            <v>0.2818181818181818</v>
+            <v>0.37727272727272726</v>
           </cell>
           <cell r="JQ49">
-            <v>158</v>
+            <v>137</v>
           </cell>
           <cell r="JR49">
-            <v>48</v>
+            <v>66</v>
           </cell>
           <cell r="JS49">
-            <v>0.192</v>
+            <v>0.26400000000000001</v>
           </cell>
           <cell r="JT49">
-            <v>202</v>
+            <v>184</v>
           </cell>
           <cell r="JU49">
-            <v>33</v>
+            <v>47</v>
           </cell>
           <cell r="JV49">
-            <v>0.16500000000000001</v>
+            <v>0.23499999999999999</v>
           </cell>
           <cell r="JW49">
-            <v>167</v>
+            <v>153</v>
           </cell>
           <cell r="JX49">
             <v>28</v>
@@ -48070,31 +48070,31 @@
             <v>132</v>
           </cell>
           <cell r="KA49">
-            <v>46</v>
+            <v>53</v>
           </cell>
           <cell r="KB49">
-            <v>0.4</v>
+            <v>0.46086956521739131</v>
           </cell>
           <cell r="KC49">
-            <v>69</v>
+            <v>62</v>
           </cell>
           <cell r="KD49">
-            <v>47</v>
+            <v>56</v>
           </cell>
           <cell r="KE49">
-            <v>0.188</v>
+            <v>0.224</v>
           </cell>
           <cell r="KF49">
-            <v>203</v>
+            <v>194</v>
           </cell>
           <cell r="KG49">
-            <v>55</v>
+            <v>67</v>
           </cell>
           <cell r="KH49">
-            <v>0.22</v>
+            <v>0.26800000000000002</v>
           </cell>
           <cell r="KI49">
-            <v>195</v>
+            <v>183</v>
           </cell>
           <cell r="KJ49">
             <v>0</v>
@@ -48115,22 +48115,22 @@
             <v>0</v>
           </cell>
           <cell r="KP49">
-            <v>27</v>
+            <v>45</v>
           </cell>
           <cell r="KQ49">
-            <v>0.12272727272727273</v>
+            <v>0.20454545454545456</v>
           </cell>
           <cell r="KR49">
-            <v>193</v>
+            <v>175</v>
           </cell>
           <cell r="KS49">
-            <v>71</v>
+            <v>89</v>
           </cell>
           <cell r="KT49">
-            <v>0.28399999999999997</v>
+            <v>0.35599999999999998</v>
           </cell>
           <cell r="KU49">
-            <v>179</v>
+            <v>161</v>
           </cell>
           <cell r="KV49">
             <v>0</v>
@@ -48205,25 +48205,25 @@
             <v>53</v>
           </cell>
           <cell r="LT49">
-            <v>42</v>
+            <v>46</v>
           </cell>
           <cell r="LU49">
-            <v>0.35</v>
+            <v>0.38333333333333336</v>
           </cell>
           <cell r="LV49">
-            <v>78</v>
+            <v>74</v>
           </cell>
           <cell r="LW49">
-            <v>58</v>
+            <v>70</v>
           </cell>
           <cell r="LX49">
-            <v>0.23200000000000001</v>
+            <v>0.28000000000000003</v>
           </cell>
           <cell r="LY49">
-            <v>192</v>
+            <v>180</v>
           </cell>
           <cell r="LZ49">
-            <v>82</v>
+            <v>121</v>
           </cell>
           <cell r="MA49" t="str">
             <v/>
@@ -48232,13 +48232,13 @@
             <v>0</v>
           </cell>
           <cell r="MC49">
-            <v>44</v>
+            <v>51</v>
           </cell>
           <cell r="MD49">
-            <v>0.44</v>
+            <v>0.51</v>
           </cell>
           <cell r="ME49">
-            <v>56</v>
+            <v>49</v>
           </cell>
           <cell r="MF49">
             <v>101</v>
@@ -48259,40 +48259,40 @@
             <v>42</v>
           </cell>
           <cell r="ML49">
-            <v>21</v>
+            <v>22</v>
           </cell>
           <cell r="MM49">
-            <v>0.105</v>
+            <v>0.11</v>
           </cell>
           <cell r="MN49">
-            <v>179</v>
+            <v>178</v>
           </cell>
           <cell r="MO49">
-            <v>10</v>
+            <v>15</v>
           </cell>
           <cell r="MP49">
-            <v>8.3333333333333329E-2</v>
+            <v>0.125</v>
           </cell>
           <cell r="MQ49">
-            <v>110</v>
+            <v>105</v>
           </cell>
           <cell r="MR49">
-            <v>50</v>
+            <v>52</v>
           </cell>
           <cell r="MS49">
-            <v>0.2</v>
+            <v>0.20799999999999999</v>
           </cell>
           <cell r="MT49">
-            <v>200</v>
+            <v>198</v>
           </cell>
           <cell r="MU49">
-            <v>38</v>
+            <v>39</v>
           </cell>
           <cell r="MV49">
-            <v>0.29230769230769232</v>
+            <v>0.3</v>
           </cell>
           <cell r="MW49">
-            <v>92</v>
+            <v>91</v>
           </cell>
           <cell r="MX49">
             <v>49</v>
@@ -48304,13 +48304,13 @@
             <v>131</v>
           </cell>
           <cell r="NA49">
-            <v>6</v>
+            <v>10</v>
           </cell>
           <cell r="NB49">
-            <v>2.7272727272727271E-2</v>
+            <v>4.5454545454545456E-2</v>
           </cell>
           <cell r="NC49">
-            <v>214</v>
+            <v>210</v>
           </cell>
           <cell r="ND49">
             <v>18</v>
@@ -48322,13 +48322,13 @@
             <v>202</v>
           </cell>
           <cell r="NG49">
-            <v>14</v>
+            <v>15</v>
           </cell>
           <cell r="NH49">
-            <v>0.14000000000000001</v>
+            <v>0.15</v>
           </cell>
           <cell r="NI49">
-            <v>86</v>
+            <v>85</v>
           </cell>
           <cell r="NJ49">
             <v>33</v>
@@ -48358,31 +48358,31 @@
             <v>139</v>
           </cell>
           <cell r="NS49">
-            <v>29</v>
+            <v>34</v>
           </cell>
           <cell r="NT49">
-            <v>0.36249999999999999</v>
+            <v>0.42499999999999999</v>
           </cell>
           <cell r="NU49">
-            <v>51</v>
+            <v>46</v>
           </cell>
           <cell r="NV49">
-            <v>50</v>
+            <v>61</v>
           </cell>
           <cell r="NW49">
-            <v>0.27777777777777779</v>
+            <v>0.33888888888888891</v>
           </cell>
           <cell r="NX49">
-            <v>130</v>
+            <v>119</v>
           </cell>
           <cell r="NY49">
-            <v>80</v>
+            <v>85</v>
           </cell>
           <cell r="NZ49">
-            <v>0.36363636363636365</v>
+            <v>0.38636363636363635</v>
           </cell>
           <cell r="OA49">
-            <v>140</v>
+            <v>135</v>
           </cell>
           <cell r="OB49">
             <v>0</v>
@@ -48403,58 +48403,58 @@
             <v>146</v>
           </cell>
           <cell r="OH49">
-            <v>51</v>
+            <v>52</v>
           </cell>
           <cell r="OI49">
-            <v>0.51</v>
+            <v>0.52</v>
           </cell>
           <cell r="OJ49">
-            <v>49</v>
+            <v>48</v>
           </cell>
           <cell r="OK49">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="OL49">
-            <v>0.18333333333333332</v>
+            <v>0.2</v>
           </cell>
           <cell r="OM49">
-            <v>49</v>
+            <v>48</v>
           </cell>
           <cell r="ON49">
-            <v>50</v>
+            <v>58</v>
           </cell>
           <cell r="OO49">
-            <v>0.33333333333333331</v>
+            <v>0.38666666666666666</v>
           </cell>
           <cell r="OP49">
-            <v>100</v>
+            <v>92</v>
           </cell>
           <cell r="OQ49">
-            <v>111</v>
+            <v>112</v>
           </cell>
           <cell r="OR49">
-            <v>0.55500000000000005</v>
+            <v>0.56000000000000005</v>
           </cell>
           <cell r="OS49">
-            <v>89</v>
+            <v>88</v>
           </cell>
           <cell r="OT49">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="OU49">
-            <v>0.16666666666666666</v>
+            <v>0.23333333333333334</v>
           </cell>
           <cell r="OV49">
-            <v>25</v>
+            <v>23</v>
           </cell>
           <cell r="OW49">
-            <v>57</v>
+            <v>60</v>
           </cell>
           <cell r="OX49">
-            <v>0.95</v>
+            <v>1</v>
           </cell>
           <cell r="OY49">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="OZ49">
             <v>0</v>
@@ -48475,22 +48475,22 @@
             <v>0</v>
           </cell>
           <cell r="PF49">
-            <v>34</v>
+            <v>37</v>
           </cell>
           <cell r="PG49">
-            <v>0.28333333333333333</v>
+            <v>0.30833333333333335</v>
           </cell>
           <cell r="PH49">
-            <v>86</v>
+            <v>83</v>
           </cell>
           <cell r="PI49">
-            <v>62</v>
+            <v>72</v>
           </cell>
           <cell r="PJ49">
-            <v>0.2818181818181818</v>
+            <v>0.32727272727272727</v>
           </cell>
           <cell r="PK49">
-            <v>158</v>
+            <v>148</v>
           </cell>
           <cell r="PL49">
             <v>0</v>
@@ -48529,13 +48529,13 @@
             <v>51</v>
           </cell>
           <cell r="PX49">
-            <v>6</v>
+            <v>11</v>
           </cell>
           <cell r="PY49">
-            <v>0.2</v>
+            <v>0.36666666666666664</v>
           </cell>
           <cell r="PZ49">
-            <v>24</v>
+            <v>19</v>
           </cell>
           <cell r="QA49">
             <v>0</v>
@@ -48565,13 +48565,13 @@
             <v>0</v>
           </cell>
           <cell r="QJ49">
-            <v>4</v>
+            <v>5</v>
           </cell>
           <cell r="QK49">
-            <v>6.6666666666666666E-2</v>
+            <v>8.3333333333333329E-2</v>
           </cell>
           <cell r="QL49">
-            <v>56</v>
+            <v>55</v>
           </cell>
           <cell r="QM49">
             <v>0</v>
@@ -48619,13 +48619,13 @@
             <v>0</v>
           </cell>
           <cell r="RB49">
-            <v>33</v>
+            <v>34</v>
           </cell>
           <cell r="RC49">
-            <v>0.27500000000000002</v>
+            <v>0.28333333333333333</v>
           </cell>
           <cell r="RD49">
-            <v>87</v>
+            <v>86</v>
           </cell>
           <cell r="RE49">
             <v>74</v>
@@ -48664,13 +48664,13 @@
             <v>181</v>
           </cell>
           <cell r="RQ49">
-            <v>18</v>
+            <v>24</v>
           </cell>
           <cell r="RR49">
-            <v>8.1818181818181818E-2</v>
+            <v>0.10909090909090909</v>
           </cell>
           <cell r="RS49">
-            <v>202</v>
+            <v>196</v>
           </cell>
           <cell r="RT49">
             <v>57</v>
@@ -48691,13 +48691,13 @@
             <v>20</v>
           </cell>
           <cell r="RZ49">
-            <v>60</v>
+            <v>69</v>
           </cell>
           <cell r="SA49">
-            <v>0.33333333333333331</v>
+            <v>0.38333333333333336</v>
           </cell>
           <cell r="SB49">
-            <v>120</v>
+            <v>111</v>
           </cell>
           <cell r="SC49">
             <v>32</v>
@@ -48727,13 +48727,13 @@
             <v>68</v>
           </cell>
           <cell r="SL49">
-            <v>44</v>
+            <v>61</v>
           </cell>
           <cell r="SM49">
-            <v>0.2</v>
+            <v>0.27727272727272728</v>
           </cell>
           <cell r="SN49">
-            <v>176</v>
+            <v>159</v>
           </cell>
           <cell r="SO49">
             <v>0</v>
@@ -48745,31 +48745,31 @@
             <v>120</v>
           </cell>
           <cell r="SR49">
-            <v>13</v>
+            <v>16</v>
           </cell>
           <cell r="SS49">
-            <v>0.32500000000000001</v>
+            <v>0.4</v>
           </cell>
           <cell r="ST49">
-            <v>27</v>
+            <v>24</v>
           </cell>
           <cell r="SU49">
-            <v>39</v>
+            <v>52</v>
           </cell>
           <cell r="SV49">
-            <v>0.26</v>
+            <v>0.34666666666666668</v>
           </cell>
           <cell r="SW49">
-            <v>111</v>
+            <v>98</v>
           </cell>
           <cell r="SX49">
-            <v>4593</v>
+            <v>5254</v>
           </cell>
           <cell r="SY49">
-            <v>0.22862120457939272</v>
+            <v>0.26152314584370334</v>
           </cell>
           <cell r="SZ49">
-            <v>15497</v>
+            <v>14836</v>
           </cell>
         </row>
         <row r="50">
@@ -49665,22 +49665,22 @@
             <v>75</v>
           </cell>
           <cell r="H51">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="I51">
-            <v>0</v>
+            <v>0.2</v>
           </cell>
           <cell r="J51">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="K51">
-            <v>1</v>
+            <v>6</v>
           </cell>
           <cell r="L51">
-            <v>0.05</v>
+            <v>0.3</v>
           </cell>
           <cell r="M51">
-            <v>19</v>
+            <v>14</v>
           </cell>
           <cell r="N51">
             <v>0</v>
@@ -49872,13 +49872,13 @@
             <v>0</v>
           </cell>
           <cell r="BY51">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="BZ51">
-            <v>0</v>
+            <v>0.3</v>
           </cell>
           <cell r="CA51">
-            <v>20</v>
+            <v>14</v>
           </cell>
           <cell r="CB51">
             <v>23</v>
@@ -49971,22 +49971,22 @@
             <v>0</v>
           </cell>
           <cell r="DF51">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="DG51">
-            <v>0.6</v>
+            <v>0.8</v>
           </cell>
           <cell r="DH51">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="DI51">
-            <v>13</v>
+            <v>15</v>
           </cell>
           <cell r="DJ51">
-            <v>0.65</v>
+            <v>0.75</v>
           </cell>
           <cell r="DK51">
-            <v>7</v>
+            <v>5</v>
           </cell>
           <cell r="DL51">
             <v>0</v>
@@ -50007,13 +50007,13 @@
             <v>10</v>
           </cell>
           <cell r="DR51">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="DS51">
-            <v>0.12</v>
+            <v>0.24</v>
           </cell>
           <cell r="DT51">
-            <v>22</v>
+            <v>19</v>
           </cell>
           <cell r="DU51">
             <v>0</v>
@@ -50079,13 +50079,13 @@
             <v>0</v>
           </cell>
           <cell r="EP51">
-            <v>23</v>
+            <v>26</v>
           </cell>
           <cell r="EQ51">
-            <v>0.92</v>
+            <v>1.04</v>
           </cell>
           <cell r="ER51">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="ES51">
             <v>0</v>
@@ -50115,13 +50115,13 @@
             <v>0</v>
           </cell>
           <cell r="FB51">
-            <v>7</v>
+            <v>10</v>
           </cell>
           <cell r="FC51">
-            <v>0.35</v>
+            <v>0.5</v>
           </cell>
           <cell r="FD51">
-            <v>13</v>
+            <v>10</v>
           </cell>
           <cell r="FE51">
             <v>0</v>
@@ -50169,13 +50169,13 @@
             <v>0</v>
           </cell>
           <cell r="FT51">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="FU51">
-            <v>0</v>
+            <v>0.05</v>
           </cell>
           <cell r="FV51">
-            <v>20</v>
+            <v>19</v>
           </cell>
           <cell r="FW51">
             <v>8</v>
@@ -50187,13 +50187,13 @@
             <v>7</v>
           </cell>
           <cell r="FZ51">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="GA51">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
           <cell r="GB51">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="GC51">
             <v>0</v>
@@ -50214,13 +50214,13 @@
             <v>0</v>
           </cell>
           <cell r="GI51">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="GJ51">
-            <v>0.1</v>
+            <v>0.3</v>
           </cell>
           <cell r="GK51">
-            <v>18</v>
+            <v>14</v>
           </cell>
           <cell r="GL51">
             <v>0</v>
@@ -50349,13 +50349,13 @@
             <v>18</v>
           </cell>
           <cell r="IB51">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="IC51">
-            <v>0.2</v>
+            <v>0.6</v>
           </cell>
           <cell r="ID51">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="IE51">
             <v>0</v>
@@ -50610,13 +50610,13 @@
             <v>10</v>
           </cell>
           <cell r="LK51">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="LL51">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
           <cell r="LM51">
-            <v>10</v>
+            <v>9</v>
           </cell>
           <cell r="LN51">
             <v>0</v>
@@ -50637,10 +50637,10 @@
             <v>1</v>
           </cell>
           <cell r="LT51">
-            <v>25</v>
+            <v>28</v>
           </cell>
           <cell r="LU51">
-            <v>1.25</v>
+            <v>1.4</v>
           </cell>
           <cell r="LV51">
             <v>0</v>
@@ -50682,22 +50682,22 @@
             <v>0</v>
           </cell>
           <cell r="MI51">
-            <v>65</v>
+            <v>67</v>
           </cell>
           <cell r="MJ51">
-            <v>4.333333333333333</v>
+            <v>4.4666666666666668</v>
           </cell>
           <cell r="MK51">
             <v>0</v>
           </cell>
           <cell r="ML51">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="MM51">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
           <cell r="MN51">
-            <v>20</v>
+            <v>18</v>
           </cell>
           <cell r="MO51">
             <v>5</v>
@@ -50718,13 +50718,13 @@
             <v>0</v>
           </cell>
           <cell r="MU51">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="MV51">
-            <v>0</v>
+            <v>6.6666666666666666E-2</v>
           </cell>
           <cell r="MW51">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="MX51">
             <v>2</v>
@@ -50790,16 +50790,16 @@
             <v>6</v>
           </cell>
           <cell r="NS51">
-            <v>28</v>
+            <v>29</v>
           </cell>
           <cell r="NT51">
-            <v>1.4</v>
+            <v>1.45</v>
           </cell>
           <cell r="NU51">
             <v>0</v>
           </cell>
           <cell r="NV51">
-            <v>10</v>
+            <v>12</v>
           </cell>
           <cell r="NW51" t="str">
             <v/>
@@ -50835,43 +50835,43 @@
             <v>15</v>
           </cell>
           <cell r="OH51">
+            <v>4</v>
+          </cell>
+          <cell r="OI51">
+            <v>0.26666666666666666</v>
+          </cell>
+          <cell r="OJ51">
+            <v>11</v>
+          </cell>
+          <cell r="OK51">
+            <v>10</v>
+          </cell>
+          <cell r="OL51">
+            <v>0.25</v>
+          </cell>
+          <cell r="OM51">
+            <v>30</v>
+          </cell>
+          <cell r="ON51">
+            <v>18</v>
+          </cell>
+          <cell r="OO51" t="str">
+            <v/>
+          </cell>
+          <cell r="OP51">
+            <v>0</v>
+          </cell>
+          <cell r="OQ51">
+            <v>80</v>
+          </cell>
+          <cell r="OR51">
+            <v>8</v>
+          </cell>
+          <cell r="OS51">
+            <v>0</v>
+          </cell>
+          <cell r="OT51">
             <v>2</v>
-          </cell>
-          <cell r="OI51">
-            <v>0.13333333333333333</v>
-          </cell>
-          <cell r="OJ51">
-            <v>13</v>
-          </cell>
-          <cell r="OK51">
-            <v>9</v>
-          </cell>
-          <cell r="OL51">
-            <v>0.22500000000000001</v>
-          </cell>
-          <cell r="OM51">
-            <v>31</v>
-          </cell>
-          <cell r="ON51">
-            <v>15</v>
-          </cell>
-          <cell r="OO51" t="str">
-            <v/>
-          </cell>
-          <cell r="OP51">
-            <v>0</v>
-          </cell>
-          <cell r="OQ51">
-            <v>64</v>
-          </cell>
-          <cell r="OR51">
-            <v>6.4</v>
-          </cell>
-          <cell r="OS51">
-            <v>0</v>
-          </cell>
-          <cell r="OT51">
-            <v>1</v>
           </cell>
           <cell r="OU51" t="str">
             <v/>
@@ -50907,13 +50907,13 @@
             <v>0</v>
           </cell>
           <cell r="PF51">
-            <v>3</v>
+            <v>6</v>
           </cell>
           <cell r="PG51">
-            <v>0.15</v>
+            <v>0.3</v>
           </cell>
           <cell r="PH51">
-            <v>17</v>
+            <v>14</v>
           </cell>
           <cell r="PI51">
             <v>0</v>
@@ -50952,13 +50952,13 @@
             <v>0</v>
           </cell>
           <cell r="PU51">
-            <v>13</v>
+            <v>16</v>
           </cell>
           <cell r="PV51">
-            <v>0.8666666666666667</v>
+            <v>1.0666666666666667</v>
           </cell>
           <cell r="PW51">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="PX51">
             <v>0</v>
@@ -51051,55 +51051,55 @@
             <v>0</v>
           </cell>
           <cell r="RB51">
-            <v>16</v>
+            <v>17</v>
           </cell>
           <cell r="RC51">
+            <v>0.85</v>
+          </cell>
+          <cell r="RD51">
+            <v>3</v>
+          </cell>
+          <cell r="RE51">
+            <v>0</v>
+          </cell>
+          <cell r="RF51" t="str">
+            <v/>
+          </cell>
+          <cell r="RG51">
+            <v>0</v>
+          </cell>
+          <cell r="RH51">
+            <v>0</v>
+          </cell>
+          <cell r="RI51" t="str">
+            <v/>
+          </cell>
+          <cell r="RJ51">
+            <v>0</v>
+          </cell>
+          <cell r="RK51">
+            <v>0</v>
+          </cell>
+          <cell r="RL51" t="str">
+            <v/>
+          </cell>
+          <cell r="RM51">
+            <v>0</v>
+          </cell>
+          <cell r="RN51">
+            <v>8</v>
+          </cell>
+          <cell r="RO51">
             <v>0.8</v>
           </cell>
-          <cell r="RD51">
-            <v>4</v>
-          </cell>
-          <cell r="RE51">
-            <v>0</v>
-          </cell>
-          <cell r="RF51" t="str">
-            <v/>
-          </cell>
-          <cell r="RG51">
-            <v>0</v>
-          </cell>
-          <cell r="RH51">
-            <v>0</v>
-          </cell>
-          <cell r="RI51" t="str">
-            <v/>
-          </cell>
-          <cell r="RJ51">
-            <v>0</v>
-          </cell>
-          <cell r="RK51">
-            <v>0</v>
-          </cell>
-          <cell r="RL51" t="str">
-            <v/>
-          </cell>
-          <cell r="RM51">
-            <v>0</v>
-          </cell>
-          <cell r="RN51">
-            <v>4</v>
-          </cell>
-          <cell r="RO51">
-            <v>0.4</v>
-          </cell>
           <cell r="RP51">
-            <v>6</v>
+            <v>2</v>
           </cell>
           <cell r="RQ51">
-            <v>24</v>
+            <v>25</v>
           </cell>
           <cell r="RR51">
-            <v>4.8</v>
+            <v>5</v>
           </cell>
           <cell r="RS51">
             <v>0</v>
@@ -51123,13 +51123,13 @@
             <v>10</v>
           </cell>
           <cell r="RZ51">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="SA51">
-            <v>0.3</v>
+            <v>0.4</v>
           </cell>
           <cell r="SB51">
-            <v>14</v>
+            <v>12</v>
           </cell>
           <cell r="SC51">
             <v>1</v>
@@ -51195,13 +51195,13 @@
             <v>0</v>
           </cell>
           <cell r="SX51">
-            <v>669</v>
+            <v>755</v>
           </cell>
           <cell r="SY51">
-            <v>0.47279151943462899</v>
+            <v>0.53356890459363959</v>
           </cell>
           <cell r="SZ51">
-            <v>746</v>
+            <v>660</v>
           </cell>
         </row>
         <row r="52">
@@ -52086,7 +52086,7 @@
             <v>0</v>
           </cell>
           <cell r="E53">
-            <v>30797</v>
+            <v>35251</v>
           </cell>
           <cell r="F53" t="str">
             <v/>
@@ -52095,7 +52095,7 @@
             <v>0</v>
           </cell>
           <cell r="H53">
-            <v>219.48333333333332</v>
+            <v>252.75</v>
           </cell>
           <cell r="I53" t="str">
             <v/>
@@ -52104,7 +52104,7 @@
             <v>0</v>
           </cell>
           <cell r="K53">
-            <v>147.93333333333334</v>
+            <v>169.25</v>
           </cell>
           <cell r="L53" t="str">
             <v/>
@@ -52120,7 +52120,7 @@
             <v>0</v>
           </cell>
           <cell r="Q53">
-            <v>548.2833333333333</v>
+            <v>613.73333333333335</v>
           </cell>
           <cell r="R53" t="str">
             <v/>
@@ -52138,7 +52138,7 @@
             <v>0</v>
           </cell>
           <cell r="W53">
-            <v>424.43333333333334</v>
+            <v>486.75</v>
           </cell>
           <cell r="X53" t="str">
             <v/>
@@ -52191,7 +52191,7 @@
             <v>0</v>
           </cell>
           <cell r="AR53">
-            <v>95.333333333333329</v>
+            <v>140.21666666666667</v>
           </cell>
           <cell r="AS53" t="str">
             <v/>
@@ -52200,7 +52200,7 @@
             <v>0</v>
           </cell>
           <cell r="AU53">
-            <v>88.433333333333337</v>
+            <v>102.73333333333333</v>
           </cell>
           <cell r="AV53" t="str">
             <v/>
@@ -52209,7 +52209,7 @@
             <v>0</v>
           </cell>
           <cell r="AX53">
-            <v>163.16666666666666</v>
+            <v>220.66666666666666</v>
           </cell>
           <cell r="AY53" t="str">
             <v/>
@@ -52218,7 +52218,7 @@
             <v>0</v>
           </cell>
           <cell r="BA53">
-            <v>396.53333333333336</v>
+            <v>460.11666666666667</v>
           </cell>
           <cell r="BB53" t="str">
             <v/>
@@ -52236,7 +52236,7 @@
             <v>0</v>
           </cell>
           <cell r="BG53">
-            <v>346.65</v>
+            <v>397.01666666666665</v>
           </cell>
           <cell r="BH53" t="str">
             <v/>
@@ -52245,7 +52245,7 @@
             <v>0</v>
           </cell>
           <cell r="BJ53">
-            <v>93.966666666666669</v>
+            <v>119.91666666666667</v>
           </cell>
           <cell r="BK53" t="str">
             <v/>
@@ -52254,7 +52254,7 @@
             <v>0</v>
           </cell>
           <cell r="BM53">
-            <v>144.5</v>
+            <v>149.35</v>
           </cell>
           <cell r="BN53" t="str">
             <v/>
@@ -52284,7 +52284,7 @@
             <v>0</v>
           </cell>
           <cell r="BY53">
-            <v>416.55</v>
+            <v>527.98333333333335</v>
           </cell>
           <cell r="BZ53" t="str">
             <v/>
@@ -52293,7 +52293,7 @@
             <v>0</v>
           </cell>
           <cell r="CB53">
-            <v>280.11666666666667</v>
+            <v>310.81666666666666</v>
           </cell>
           <cell r="CC53" t="str">
             <v/>
@@ -52309,7 +52309,7 @@
             <v>0</v>
           </cell>
           <cell r="CH53">
-            <v>452.8</v>
+            <v>487.76666666666665</v>
           </cell>
           <cell r="CI53" t="str">
             <v/>
@@ -52318,7 +52318,7 @@
             <v>0</v>
           </cell>
           <cell r="CK53">
-            <v>156.01666666666668</v>
+            <v>157.01666666666668</v>
           </cell>
           <cell r="CL53" t="str">
             <v/>
@@ -52327,7 +52327,7 @@
             <v>0</v>
           </cell>
           <cell r="CN53">
-            <v>454.68333333333334</v>
+            <v>521.16666666666663</v>
           </cell>
           <cell r="CO53" t="str">
             <v/>
@@ -52343,7 +52343,7 @@
             <v>0</v>
           </cell>
           <cell r="CT53">
-            <v>388.21666666666664</v>
+            <v>408.7</v>
           </cell>
           <cell r="CU53" t="str">
             <v/>
@@ -52359,7 +52359,7 @@
             <v>0</v>
           </cell>
           <cell r="CZ53">
-            <v>107.33333333333333</v>
+            <v>222.06666666666666</v>
           </cell>
           <cell r="DA53" t="str">
             <v/>
@@ -52375,16 +52375,16 @@
             <v>0</v>
           </cell>
           <cell r="DF53">
-            <v>346.81666666666666</v>
+            <v>426.45</v>
           </cell>
           <cell r="DG53">
-            <v>0.34681666666666666</v>
+            <v>0.42645</v>
           </cell>
           <cell r="DH53">
-            <v>653.18333333333339</v>
+            <v>573.54999999999995</v>
           </cell>
           <cell r="DI53">
-            <v>569.04999999999995</v>
+            <v>627.68333333333328</v>
           </cell>
           <cell r="DJ53" t="str">
             <v/>
@@ -52393,7 +52393,7 @@
             <v>0</v>
           </cell>
           <cell r="DL53">
-            <v>223.11666666666667</v>
+            <v>277.66666666666669</v>
           </cell>
           <cell r="DM53" t="str">
             <v/>
@@ -52411,7 +52411,7 @@
             <v>0</v>
           </cell>
           <cell r="DR53">
-            <v>358.25</v>
+            <v>436.51666666666665</v>
           </cell>
           <cell r="DS53" t="str">
             <v/>
@@ -52420,7 +52420,7 @@
             <v>0</v>
           </cell>
           <cell r="DU53">
-            <v>306.05</v>
+            <v>309.01666666666665</v>
           </cell>
           <cell r="DV53" t="str">
             <v/>
@@ -52429,7 +52429,7 @@
             <v>0</v>
           </cell>
           <cell r="DX53">
-            <v>183.55</v>
+            <v>234.38333333333333</v>
           </cell>
           <cell r="DY53" t="str">
             <v/>
@@ -52445,7 +52445,7 @@
             <v>0</v>
           </cell>
           <cell r="ED53">
-            <v>617.45000000000005</v>
+            <v>696.23333333333335</v>
           </cell>
           <cell r="EE53" t="str">
             <v/>
@@ -52461,7 +52461,7 @@
             <v>0</v>
           </cell>
           <cell r="EJ53">
-            <v>145.71666666666667</v>
+            <v>149.91666666666666</v>
           </cell>
           <cell r="EK53" t="str">
             <v/>
@@ -52477,7 +52477,7 @@
             <v>0</v>
           </cell>
           <cell r="EP53">
-            <v>156.05000000000001</v>
+            <v>174.6</v>
           </cell>
           <cell r="EQ53" t="str">
             <v/>
@@ -52493,7 +52493,7 @@
             <v>0</v>
           </cell>
           <cell r="EV53">
-            <v>226.78333333333333</v>
+            <v>300.46666666666664</v>
           </cell>
           <cell r="EW53" t="str">
             <v/>
@@ -52502,7 +52502,7 @@
             <v>0</v>
           </cell>
           <cell r="EY53">
-            <v>231.36666666666667</v>
+            <v>268.68333333333334</v>
           </cell>
           <cell r="EZ53" t="str">
             <v/>
@@ -52511,7 +52511,7 @@
             <v>0</v>
           </cell>
           <cell r="FB53">
-            <v>417.5</v>
+            <v>470.46666666666664</v>
           </cell>
           <cell r="FC53" t="str">
             <v/>
@@ -52536,13 +52536,13 @@
             <v>0</v>
           </cell>
           <cell r="FK53">
-            <v>541.98333333333335</v>
+            <v>600.70000000000005</v>
           </cell>
           <cell r="FL53">
-            <v>0.30110185185185184</v>
+            <v>0.33372222222222225</v>
           </cell>
           <cell r="FM53">
-            <v>1258.0166666666667</v>
+            <v>1199.3</v>
           </cell>
           <cell r="FN53"/>
           <cell r="FO53" t="str">
@@ -52561,7 +52561,7 @@
             <v>0</v>
           </cell>
           <cell r="FT53">
-            <v>51.266666666666666</v>
+            <v>76.216666666666669</v>
           </cell>
           <cell r="FU53" t="str">
             <v/>
@@ -52570,7 +52570,7 @@
             <v>0</v>
           </cell>
           <cell r="FW53">
-            <v>93.783333333333331</v>
+            <v>186.58333333333334</v>
           </cell>
           <cell r="FX53" t="str">
             <v/>
@@ -52579,7 +52579,7 @@
             <v>0</v>
           </cell>
           <cell r="FZ53">
-            <v>185.48333333333332</v>
+            <v>263.60000000000002</v>
           </cell>
           <cell r="GA53" t="str">
             <v/>
@@ -52602,7 +52602,7 @@
             <v>0</v>
           </cell>
           <cell r="GI53">
-            <v>399.33333333333331</v>
+            <v>452.76666666666665</v>
           </cell>
           <cell r="GJ53" t="str">
             <v/>
@@ -52627,7 +52627,7 @@
             <v>0</v>
           </cell>
           <cell r="GR53">
-            <v>440.01666666666665</v>
+            <v>481.78333333333336</v>
           </cell>
           <cell r="GS53" t="str">
             <v/>
@@ -52659,7 +52659,7 @@
             <v>0</v>
           </cell>
           <cell r="HD53">
-            <v>480.81666666666666</v>
+            <v>483.5</v>
           </cell>
           <cell r="HE53" t="str">
             <v/>
@@ -52668,7 +52668,7 @@
             <v>0</v>
           </cell>
           <cell r="HG53">
-            <v>801.06666666666672</v>
+            <v>905.23333333333335</v>
           </cell>
           <cell r="HH53" t="str">
             <v/>
@@ -52677,7 +52677,7 @@
             <v>0</v>
           </cell>
           <cell r="HJ53">
-            <v>496.18333333333334</v>
+            <v>531.9666666666667</v>
           </cell>
           <cell r="HK53" t="str">
             <v/>
@@ -52686,7 +52686,7 @@
             <v>0</v>
           </cell>
           <cell r="HM53">
-            <v>364.9</v>
+            <v>410.18333333333334</v>
           </cell>
           <cell r="HN53" t="str">
             <v/>
@@ -52695,7 +52695,7 @@
             <v>0</v>
           </cell>
           <cell r="HP53">
-            <v>167.4</v>
+            <v>207.2</v>
           </cell>
           <cell r="HQ53" t="str">
             <v/>
@@ -52711,7 +52711,7 @@
             <v>0</v>
           </cell>
           <cell r="HV53">
-            <v>277.23333333333335</v>
+            <v>299.56666666666666</v>
           </cell>
           <cell r="HW53" t="str">
             <v/>
@@ -52720,7 +52720,7 @@
             <v>0</v>
           </cell>
           <cell r="HY53">
-            <v>556.7833333333333</v>
+            <v>631.33333333333337</v>
           </cell>
           <cell r="HZ53" t="str">
             <v/>
@@ -52729,7 +52729,7 @@
             <v>0</v>
           </cell>
           <cell r="IB53">
-            <v>374.48333333333335</v>
+            <v>414.56666666666666</v>
           </cell>
           <cell r="IC53" t="str">
             <v/>
@@ -52738,7 +52738,7 @@
             <v>0</v>
           </cell>
           <cell r="IE53">
-            <v>279.08333333333331</v>
+            <v>328.06666666666666</v>
           </cell>
           <cell r="IF53" t="str">
             <v/>
@@ -52777,7 +52777,7 @@
             <v>0</v>
           </cell>
           <cell r="IT53">
-            <v>473.23333333333335</v>
+            <v>505.45</v>
           </cell>
           <cell r="IU53" t="str">
             <v/>
@@ -52786,7 +52786,7 @@
             <v>0</v>
           </cell>
           <cell r="IW53">
-            <v>279.98333333333335</v>
+            <v>304.68333333333334</v>
           </cell>
           <cell r="IX53" t="str">
             <v/>
@@ -52834,7 +52834,7 @@
             <v>0</v>
           </cell>
           <cell r="JO53">
-            <v>305.11666666666667</v>
+            <v>327.23333333333335</v>
           </cell>
           <cell r="JP53" t="str">
             <v/>
@@ -52850,7 +52850,7 @@
             <v>0</v>
           </cell>
           <cell r="JU53">
-            <v>140.94999999999999</v>
+            <v>205.73333333333332</v>
           </cell>
           <cell r="JV53" t="str">
             <v/>
@@ -52868,7 +52868,7 @@
             <v>0</v>
           </cell>
           <cell r="KA53">
-            <v>452.85</v>
+            <v>504.6</v>
           </cell>
           <cell r="KB53" t="str">
             <v/>
@@ -52907,7 +52907,7 @@
             <v>0</v>
           </cell>
           <cell r="KP53">
-            <v>507.08333333333331</v>
+            <v>568.25</v>
           </cell>
           <cell r="KQ53" t="str">
             <v/>
@@ -52930,7 +52930,7 @@
             <v>0</v>
           </cell>
           <cell r="KY53">
-            <v>572.88333333333333</v>
+            <v>636.4666666666667</v>
           </cell>
           <cell r="KZ53" t="str">
             <v/>
@@ -52960,7 +52960,7 @@
             <v>0</v>
           </cell>
           <cell r="LK53">
-            <v>186.8</v>
+            <v>219.16666666666666</v>
           </cell>
           <cell r="LL53" t="str">
             <v/>
@@ -52985,7 +52985,7 @@
             <v>0</v>
           </cell>
           <cell r="LT53">
-            <v>481.65</v>
+            <v>521.38333333333333</v>
           </cell>
           <cell r="LU53" t="str">
             <v/>
@@ -53001,7 +53001,7 @@
             <v>0</v>
           </cell>
           <cell r="LZ53">
-            <v>114.43333333333334</v>
+            <v>139.30000000000001</v>
           </cell>
           <cell r="MA53" t="str">
             <v/>
@@ -53010,7 +53010,7 @@
             <v>0</v>
           </cell>
           <cell r="MC53">
-            <v>227.91666666666666</v>
+            <v>251.01666666666668</v>
           </cell>
           <cell r="MD53" t="str">
             <v/>
@@ -53019,7 +53019,7 @@
             <v>0</v>
           </cell>
           <cell r="MF53">
-            <v>187.55</v>
+            <v>271.13333333333333</v>
           </cell>
           <cell r="MG53" t="str">
             <v/>
@@ -53028,7 +53028,7 @@
             <v>0</v>
           </cell>
           <cell r="MI53">
-            <v>433.2</v>
+            <v>495.01666666666665</v>
           </cell>
           <cell r="MJ53" t="str">
             <v/>
@@ -53037,7 +53037,7 @@
             <v>0</v>
           </cell>
           <cell r="ML53">
-            <v>163.19999999999999</v>
+            <v>208.9</v>
           </cell>
           <cell r="MM53" t="str">
             <v/>
@@ -53046,7 +53046,7 @@
             <v>0</v>
           </cell>
           <cell r="MO53">
-            <v>0.9</v>
+            <v>1</v>
           </cell>
           <cell r="MP53" t="str">
             <v/>
@@ -53064,7 +53064,7 @@
             <v>0</v>
           </cell>
           <cell r="MU53">
-            <v>249.05</v>
+            <v>286.01666666666665</v>
           </cell>
           <cell r="MV53" t="str">
             <v/>
@@ -53098,7 +53098,7 @@
             <v>0</v>
           </cell>
           <cell r="NG53">
-            <v>404.43333333333334</v>
+            <v>472.13333333333333</v>
           </cell>
           <cell r="NH53" t="str">
             <v/>
@@ -53107,7 +53107,7 @@
             <v>0</v>
           </cell>
           <cell r="NJ53">
-            <v>195.78333333333333</v>
+            <v>253.93333333333334</v>
           </cell>
           <cell r="NK53" t="str">
             <v/>
@@ -53123,7 +53123,7 @@
             <v>0</v>
           </cell>
           <cell r="NP53">
-            <v>102.41666666666667</v>
+            <v>129.69999999999999</v>
           </cell>
           <cell r="NQ53" t="str">
             <v/>
@@ -53132,7 +53132,7 @@
             <v>0</v>
           </cell>
           <cell r="NS53">
-            <v>482.8</v>
+            <v>538.51666666666665</v>
           </cell>
           <cell r="NT53" t="str">
             <v/>
@@ -53141,7 +53141,7 @@
             <v>0</v>
           </cell>
           <cell r="NV53">
-            <v>596.16666666666663</v>
+            <v>647.58333333333337</v>
           </cell>
           <cell r="NW53" t="str">
             <v/>
@@ -53150,7 +53150,7 @@
             <v>0</v>
           </cell>
           <cell r="NY53">
-            <v>384.21666666666664</v>
+            <v>426.48333333333335</v>
           </cell>
           <cell r="NZ53" t="str">
             <v/>
@@ -53177,7 +53177,7 @@
             <v>0</v>
           </cell>
           <cell r="OH53">
-            <v>216.03333333333333</v>
+            <v>286.16666666666669</v>
           </cell>
           <cell r="OI53" t="str">
             <v/>
@@ -53186,7 +53186,7 @@
             <v>0</v>
           </cell>
           <cell r="OK53">
-            <v>181.5</v>
+            <v>188.13333333333333</v>
           </cell>
           <cell r="OL53" t="str">
             <v/>
@@ -53195,7 +53195,7 @@
             <v>0</v>
           </cell>
           <cell r="ON53">
-            <v>315.45</v>
+            <v>333.1</v>
           </cell>
           <cell r="OO53" t="str">
             <v/>
@@ -53204,7 +53204,7 @@
             <v>0</v>
           </cell>
           <cell r="OQ53">
-            <v>783.7166666666667</v>
+            <v>906.08333333333337</v>
           </cell>
           <cell r="OR53" t="str">
             <v/>
@@ -53213,7 +53213,7 @@
             <v>0</v>
           </cell>
           <cell r="OT53">
-            <v>7.75</v>
+            <v>11.783333333333333</v>
           </cell>
           <cell r="OU53" t="str">
             <v/>
@@ -53222,7 +53222,7 @@
             <v>0</v>
           </cell>
           <cell r="OW53">
-            <v>506.63333333333333</v>
+            <v>578.23333333333335</v>
           </cell>
           <cell r="OX53" t="str">
             <v/>
@@ -53245,7 +53245,7 @@
             <v>0</v>
           </cell>
           <cell r="PF53">
-            <v>354.41666666666669</v>
+            <v>394.35</v>
           </cell>
           <cell r="PG53" t="str">
             <v/>
@@ -53254,7 +53254,7 @@
             <v>0</v>
           </cell>
           <cell r="PI53">
-            <v>591.0333333333333</v>
+            <v>662.08333333333337</v>
           </cell>
           <cell r="PJ53" t="str">
             <v/>
@@ -53284,7 +53284,7 @@
             <v>0</v>
           </cell>
           <cell r="PU53">
-            <v>201.51666666666668</v>
+            <v>242.55</v>
           </cell>
           <cell r="PV53" t="str">
             <v/>
@@ -53293,7 +53293,7 @@
             <v>0</v>
           </cell>
           <cell r="PX53">
-            <v>261.83333333333331</v>
+            <v>370.95</v>
           </cell>
           <cell r="PY53" t="str">
             <v/>
@@ -53325,7 +53325,7 @@
             <v>0</v>
           </cell>
           <cell r="QJ53">
-            <v>349.56666666666666</v>
+            <v>391.73333333333335</v>
           </cell>
           <cell r="QK53" t="str">
             <v/>
@@ -53350,7 +53350,7 @@
             <v>0</v>
           </cell>
           <cell r="QS53">
-            <v>408.85</v>
+            <v>482.4</v>
           </cell>
           <cell r="QT53" t="str">
             <v/>
@@ -53359,7 +53359,7 @@
             <v>0</v>
           </cell>
           <cell r="QV53">
-            <v>183.78333333333333</v>
+            <v>195.96666666666667</v>
           </cell>
           <cell r="QW53" t="str">
             <v/>
@@ -53377,7 +53377,7 @@
             <v>0</v>
           </cell>
           <cell r="RB53">
-            <v>342.16666666666669</v>
+            <v>378.21666666666664</v>
           </cell>
           <cell r="RC53" t="str">
             <v/>
@@ -53386,7 +53386,7 @@
             <v>0</v>
           </cell>
           <cell r="RE53">
-            <v>461.55</v>
+            <v>516.2833333333333</v>
           </cell>
           <cell r="RF53" t="str">
             <v/>
@@ -53402,7 +53402,7 @@
             <v>0</v>
           </cell>
           <cell r="RK53">
-            <v>227.66666666666666</v>
+            <v>256.06666666666666</v>
           </cell>
           <cell r="RL53" t="str">
             <v/>
@@ -53411,7 +53411,7 @@
             <v>0</v>
           </cell>
           <cell r="RN53">
-            <v>227.98333333333332</v>
+            <v>244.88333333333333</v>
           </cell>
           <cell r="RO53" t="str">
             <v/>
@@ -53420,7 +53420,7 @@
             <v>0</v>
           </cell>
           <cell r="RQ53">
-            <v>207.33333333333334</v>
+            <v>237.13333333333333</v>
           </cell>
           <cell r="RR53" t="str">
             <v/>
@@ -53438,7 +53438,7 @@
             <v>0</v>
           </cell>
           <cell r="RW53">
-            <v>71</v>
+            <v>77.7</v>
           </cell>
           <cell r="RX53" t="str">
             <v/>
@@ -53447,7 +53447,7 @@
             <v>0</v>
           </cell>
           <cell r="RZ53">
-            <v>339.63333333333333</v>
+            <v>383.63333333333333</v>
           </cell>
           <cell r="SA53" t="str">
             <v/>
@@ -53456,7 +53456,7 @@
             <v>0</v>
           </cell>
           <cell r="SC53">
-            <v>358.88333333333333</v>
+            <v>397.23333333333335</v>
           </cell>
           <cell r="SD53" t="str">
             <v/>
@@ -53465,7 +53465,7 @@
             <v>0</v>
           </cell>
           <cell r="SF53">
-            <v>333.78333333333336</v>
+            <v>369</v>
           </cell>
           <cell r="SG53" t="str">
             <v/>
@@ -53474,7 +53474,7 @@
             <v>0</v>
           </cell>
           <cell r="SI53">
-            <v>417.9</v>
+            <v>467.1</v>
           </cell>
           <cell r="SJ53" t="str">
             <v/>
@@ -53483,7 +53483,7 @@
             <v>0</v>
           </cell>
           <cell r="SL53">
-            <v>160.1</v>
+            <v>181.98333333333332</v>
           </cell>
           <cell r="SM53" t="str">
             <v/>
@@ -53501,7 +53501,7 @@
             <v>0</v>
           </cell>
           <cell r="SR53">
-            <v>250.08333333333334</v>
+            <v>256.58333333333331</v>
           </cell>
           <cell r="SS53" t="str">
             <v/>
@@ -53510,7 +53510,7 @@
             <v>0</v>
           </cell>
           <cell r="SU53">
-            <v>313.3</v>
+            <v>370.15</v>
           </cell>
           <cell r="SV53" t="str">
             <v/>
@@ -53519,10 +53519,10 @@
             <v>0</v>
           </cell>
           <cell r="SX53">
-            <v>63690.200000000019</v>
+            <v>72398.733333333264</v>
           </cell>
           <cell r="SY53">
-            <v>22.746500000000008</v>
+            <v>25.856690476190451</v>
           </cell>
           <cell r="SZ53">
             <v>0</v>
@@ -54417,7 +54417,7 @@
             <v>0</v>
           </cell>
           <cell r="H55">
-            <v>120</v>
+            <v>153</v>
           </cell>
           <cell r="I55" t="str">
             <v/>
@@ -54426,7 +54426,7 @@
             <v>0</v>
           </cell>
           <cell r="K55">
-            <v>155</v>
+            <v>189</v>
           </cell>
           <cell r="L55" t="str">
             <v/>
@@ -54442,7 +54442,7 @@
             <v>0</v>
           </cell>
           <cell r="Q55">
-            <v>549</v>
+            <v>641</v>
           </cell>
           <cell r="R55" t="str">
             <v/>
@@ -54460,7 +54460,7 @@
             <v>0</v>
           </cell>
           <cell r="W55">
-            <v>538</v>
+            <v>629</v>
           </cell>
           <cell r="X55" t="str">
             <v/>
@@ -54513,7 +54513,7 @@
             <v>0</v>
           </cell>
           <cell r="AR55">
-            <v>113</v>
+            <v>167</v>
           </cell>
           <cell r="AS55" t="str">
             <v/>
@@ -54522,7 +54522,7 @@
             <v>0</v>
           </cell>
           <cell r="AU55">
-            <v>63</v>
+            <v>90</v>
           </cell>
           <cell r="AV55" t="str">
             <v/>
@@ -54531,7 +54531,7 @@
             <v>0</v>
           </cell>
           <cell r="AX55">
-            <v>105</v>
+            <v>127</v>
           </cell>
           <cell r="AY55" t="str">
             <v/>
@@ -54540,7 +54540,7 @@
             <v>0</v>
           </cell>
           <cell r="BA55">
-            <v>311</v>
+            <v>371</v>
           </cell>
           <cell r="BB55" t="str">
             <v/>
@@ -54558,7 +54558,7 @@
             <v>0</v>
           </cell>
           <cell r="BG55">
-            <v>478</v>
+            <v>542</v>
           </cell>
           <cell r="BH55" t="str">
             <v/>
@@ -54567,7 +54567,7 @@
             <v>0</v>
           </cell>
           <cell r="BJ55">
-            <v>99</v>
+            <v>135</v>
           </cell>
           <cell r="BK55" t="str">
             <v/>
@@ -54576,7 +54576,7 @@
             <v>0</v>
           </cell>
           <cell r="BM55">
-            <v>223</v>
+            <v>236</v>
           </cell>
           <cell r="BN55" t="str">
             <v/>
@@ -54606,7 +54606,7 @@
             <v>0</v>
           </cell>
           <cell r="BY55">
-            <v>142</v>
+            <v>187</v>
           </cell>
           <cell r="BZ55" t="str">
             <v/>
@@ -54615,7 +54615,7 @@
             <v>0</v>
           </cell>
           <cell r="CB55">
-            <v>228</v>
+            <v>268</v>
           </cell>
           <cell r="CC55" t="str">
             <v/>
@@ -54631,7 +54631,7 @@
             <v>0</v>
           </cell>
           <cell r="CH55">
-            <v>285</v>
+            <v>299</v>
           </cell>
           <cell r="CI55" t="str">
             <v/>
@@ -54640,7 +54640,7 @@
             <v>0</v>
           </cell>
           <cell r="CK55">
-            <v>67</v>
+            <v>68</v>
           </cell>
           <cell r="CL55" t="str">
             <v/>
@@ -54649,7 +54649,7 @@
             <v>0</v>
           </cell>
           <cell r="CN55">
-            <v>648</v>
+            <v>750</v>
           </cell>
           <cell r="CO55" t="str">
             <v/>
@@ -54665,7 +54665,7 @@
             <v>0</v>
           </cell>
           <cell r="CT55">
-            <v>446</v>
+            <v>471</v>
           </cell>
           <cell r="CU55" t="str">
             <v/>
@@ -54681,7 +54681,7 @@
             <v>0</v>
           </cell>
           <cell r="CZ55">
-            <v>46</v>
+            <v>75</v>
           </cell>
           <cell r="DA55" t="str">
             <v/>
@@ -54697,16 +54697,16 @@
             <v>0</v>
           </cell>
           <cell r="DF55">
-            <v>409</v>
+            <v>461</v>
           </cell>
           <cell r="DG55">
-            <v>0.29214285714285715</v>
+            <v>0.32928571428571429</v>
           </cell>
           <cell r="DH55">
-            <v>991</v>
+            <v>939</v>
           </cell>
           <cell r="DI55">
-            <v>546</v>
+            <v>640</v>
           </cell>
           <cell r="DJ55" t="str">
             <v/>
@@ -54715,7 +54715,7 @@
             <v>0</v>
           </cell>
           <cell r="DL55">
-            <v>244</v>
+            <v>301</v>
           </cell>
           <cell r="DM55" t="str">
             <v/>
@@ -54733,7 +54733,7 @@
             <v>0</v>
           </cell>
           <cell r="DR55">
-            <v>327</v>
+            <v>420</v>
           </cell>
           <cell r="DS55" t="str">
             <v/>
@@ -54742,7 +54742,7 @@
             <v>0</v>
           </cell>
           <cell r="DU55">
-            <v>34</v>
+            <v>36</v>
           </cell>
           <cell r="DV55" t="str">
             <v/>
@@ -54751,7 +54751,7 @@
             <v>0</v>
           </cell>
           <cell r="DX55">
-            <v>244</v>
+            <v>313</v>
           </cell>
           <cell r="DY55" t="str">
             <v/>
@@ -54767,7 +54767,7 @@
             <v>0</v>
           </cell>
           <cell r="ED55">
-            <v>461</v>
+            <v>531</v>
           </cell>
           <cell r="EE55" t="str">
             <v/>
@@ -54783,7 +54783,7 @@
             <v>0</v>
           </cell>
           <cell r="EJ55">
-            <v>166</v>
+            <v>187</v>
           </cell>
           <cell r="EK55" t="str">
             <v/>
@@ -54799,7 +54799,7 @@
             <v>0</v>
           </cell>
           <cell r="EP55">
-            <v>231</v>
+            <v>264</v>
           </cell>
           <cell r="EQ55" t="str">
             <v/>
@@ -54815,7 +54815,7 @@
             <v>0</v>
           </cell>
           <cell r="EV55">
-            <v>173</v>
+            <v>252</v>
           </cell>
           <cell r="EW55" t="str">
             <v/>
@@ -54824,7 +54824,7 @@
             <v>0</v>
           </cell>
           <cell r="EY55">
-            <v>382</v>
+            <v>433</v>
           </cell>
           <cell r="EZ55" t="str">
             <v/>
@@ -54833,7 +54833,7 @@
             <v>0</v>
           </cell>
           <cell r="FB55">
-            <v>335</v>
+            <v>368</v>
           </cell>
           <cell r="FC55" t="str">
             <v/>
@@ -54858,13 +54858,13 @@
             <v>0</v>
           </cell>
           <cell r="FK55">
-            <v>345</v>
+            <v>377</v>
           </cell>
           <cell r="FL55">
-            <v>0.38764044943820225</v>
+            <v>0.42359550561797754</v>
           </cell>
           <cell r="FM55">
-            <v>545</v>
+            <v>513</v>
           </cell>
           <cell r="FN55"/>
           <cell r="FO55" t="str">
@@ -54883,7 +54883,7 @@
             <v>0</v>
           </cell>
           <cell r="FT55">
-            <v>46</v>
+            <v>75</v>
           </cell>
           <cell r="FU55" t="str">
             <v/>
@@ -54892,7 +54892,7 @@
             <v>0</v>
           </cell>
           <cell r="FW55">
-            <v>89</v>
+            <v>170</v>
           </cell>
           <cell r="FX55" t="str">
             <v/>
@@ -54901,7 +54901,7 @@
             <v>0</v>
           </cell>
           <cell r="FZ55">
-            <v>151</v>
+            <v>212</v>
           </cell>
           <cell r="GA55" t="str">
             <v/>
@@ -54924,7 +54924,7 @@
             <v>0</v>
           </cell>
           <cell r="GI55">
-            <v>441</v>
+            <v>506</v>
           </cell>
           <cell r="GJ55" t="str">
             <v/>
@@ -54949,7 +54949,7 @@
             <v>0</v>
           </cell>
           <cell r="GR55">
-            <v>599</v>
+            <v>687</v>
           </cell>
           <cell r="GS55" t="str">
             <v/>
@@ -54981,7 +54981,7 @@
             <v>0</v>
           </cell>
           <cell r="HD55">
-            <v>351</v>
+            <v>354</v>
           </cell>
           <cell r="HE55" t="str">
             <v/>
@@ -54990,7 +54990,7 @@
             <v>0</v>
           </cell>
           <cell r="HG55">
-            <v>610</v>
+            <v>703</v>
           </cell>
           <cell r="HH55" t="str">
             <v/>
@@ -54999,7 +54999,7 @@
             <v>0</v>
           </cell>
           <cell r="HJ55">
-            <v>549</v>
+            <v>593</v>
           </cell>
           <cell r="HK55" t="str">
             <v/>
@@ -55008,7 +55008,7 @@
             <v>0</v>
           </cell>
           <cell r="HM55">
-            <v>532</v>
+            <v>574</v>
           </cell>
           <cell r="HN55" t="str">
             <v/>
@@ -55017,7 +55017,7 @@
             <v>0</v>
           </cell>
           <cell r="HP55">
-            <v>199</v>
+            <v>253</v>
           </cell>
           <cell r="HQ55" t="str">
             <v/>
@@ -55033,7 +55033,7 @@
             <v>0</v>
           </cell>
           <cell r="HV55">
-            <v>209</v>
+            <v>229</v>
           </cell>
           <cell r="HW55" t="str">
             <v/>
@@ -55042,7 +55042,7 @@
             <v>0</v>
           </cell>
           <cell r="HY55">
-            <v>189</v>
+            <v>232</v>
           </cell>
           <cell r="HZ55" t="str">
             <v/>
@@ -55051,7 +55051,7 @@
             <v>0</v>
           </cell>
           <cell r="IB55">
-            <v>312</v>
+            <v>364</v>
           </cell>
           <cell r="IC55" t="str">
             <v/>
@@ -55060,7 +55060,7 @@
             <v>0</v>
           </cell>
           <cell r="IE55">
-            <v>311</v>
+            <v>364</v>
           </cell>
           <cell r="IF55" t="str">
             <v/>
@@ -55099,7 +55099,7 @@
             <v>0</v>
           </cell>
           <cell r="IT55">
-            <v>304</v>
+            <v>320</v>
           </cell>
           <cell r="IU55" t="str">
             <v/>
@@ -55108,7 +55108,7 @@
             <v>0</v>
           </cell>
           <cell r="IW55">
-            <v>396</v>
+            <v>421</v>
           </cell>
           <cell r="IX55" t="str">
             <v/>
@@ -55156,7 +55156,7 @@
             <v>0</v>
           </cell>
           <cell r="JO55">
-            <v>349</v>
+            <v>385</v>
           </cell>
           <cell r="JP55" t="str">
             <v/>
@@ -55172,7 +55172,7 @@
             <v>0</v>
           </cell>
           <cell r="JU55">
-            <v>177</v>
+            <v>269</v>
           </cell>
           <cell r="JV55" t="str">
             <v/>
@@ -55190,7 +55190,7 @@
             <v>0</v>
           </cell>
           <cell r="KA55">
-            <v>426</v>
+            <v>497</v>
           </cell>
           <cell r="KB55" t="str">
             <v/>
@@ -55229,7 +55229,7 @@
             <v>0</v>
           </cell>
           <cell r="KP55">
-            <v>442</v>
+            <v>495</v>
           </cell>
           <cell r="KQ55" t="str">
             <v/>
@@ -55252,7 +55252,7 @@
             <v>0</v>
           </cell>
           <cell r="KY55">
-            <v>230</v>
+            <v>280</v>
           </cell>
           <cell r="KZ55" t="str">
             <v/>
@@ -55282,7 +55282,7 @@
             <v>0</v>
           </cell>
           <cell r="LK55">
-            <v>109</v>
+            <v>129</v>
           </cell>
           <cell r="LL55" t="str">
             <v/>
@@ -55307,7 +55307,7 @@
             <v>0</v>
           </cell>
           <cell r="LT55">
-            <v>183</v>
+            <v>253</v>
           </cell>
           <cell r="LU55" t="str">
             <v/>
@@ -55323,7 +55323,7 @@
             <v>0</v>
           </cell>
           <cell r="LZ55">
-            <v>142</v>
+            <v>176</v>
           </cell>
           <cell r="MA55" t="str">
             <v/>
@@ -55332,7 +55332,7 @@
             <v>0</v>
           </cell>
           <cell r="MC55">
-            <v>138</v>
+            <v>144</v>
           </cell>
           <cell r="MD55" t="str">
             <v/>
@@ -55341,7 +55341,7 @@
             <v>0</v>
           </cell>
           <cell r="MF55">
-            <v>104</v>
+            <v>150</v>
           </cell>
           <cell r="MG55" t="str">
             <v/>
@@ -55350,7 +55350,7 @@
             <v>0</v>
           </cell>
           <cell r="MI55">
-            <v>261</v>
+            <v>310</v>
           </cell>
           <cell r="MJ55" t="str">
             <v/>
@@ -55359,7 +55359,7 @@
             <v>0</v>
           </cell>
           <cell r="ML55">
-            <v>212</v>
+            <v>307</v>
           </cell>
           <cell r="MM55" t="str">
             <v/>
@@ -55368,7 +55368,7 @@
             <v>0</v>
           </cell>
           <cell r="MO55">
-            <v>5</v>
+            <v>9</v>
           </cell>
           <cell r="MP55" t="str">
             <v/>
@@ -55386,7 +55386,7 @@
             <v>0</v>
           </cell>
           <cell r="MU55">
-            <v>339</v>
+            <v>399</v>
           </cell>
           <cell r="MV55" t="str">
             <v/>
@@ -55420,7 +55420,7 @@
             <v>0</v>
           </cell>
           <cell r="NG55">
-            <v>351</v>
+            <v>396</v>
           </cell>
           <cell r="NH55" t="str">
             <v/>
@@ -55429,7 +55429,7 @@
             <v>0</v>
           </cell>
           <cell r="NJ55">
-            <v>300</v>
+            <v>352</v>
           </cell>
           <cell r="NK55" t="str">
             <v/>
@@ -55445,7 +55445,7 @@
             <v>0</v>
           </cell>
           <cell r="NP55">
-            <v>118</v>
+            <v>151</v>
           </cell>
           <cell r="NQ55" t="str">
             <v/>
@@ -55454,7 +55454,7 @@
             <v>0</v>
           </cell>
           <cell r="NS55">
-            <v>305</v>
+            <v>355</v>
           </cell>
           <cell r="NT55" t="str">
             <v/>
@@ -55463,7 +55463,7 @@
             <v>0</v>
           </cell>
           <cell r="NV55">
-            <v>586</v>
+            <v>645</v>
           </cell>
           <cell r="NW55" t="str">
             <v/>
@@ -55472,7 +55472,7 @@
             <v>0</v>
           </cell>
           <cell r="NY55">
-            <v>447</v>
+            <v>495</v>
           </cell>
           <cell r="NZ55" t="str">
             <v/>
@@ -55499,7 +55499,7 @@
             <v>0</v>
           </cell>
           <cell r="OH55">
-            <v>131</v>
+            <v>196</v>
           </cell>
           <cell r="OI55" t="str">
             <v/>
@@ -55508,7 +55508,7 @@
             <v>0</v>
           </cell>
           <cell r="OK55">
-            <v>86</v>
+            <v>88</v>
           </cell>
           <cell r="OL55" t="str">
             <v/>
@@ -55517,7 +55517,7 @@
             <v>0</v>
           </cell>
           <cell r="ON55">
-            <v>282</v>
+            <v>317</v>
           </cell>
           <cell r="OO55" t="str">
             <v/>
@@ -55526,7 +55526,7 @@
             <v>0</v>
           </cell>
           <cell r="OQ55">
-            <v>980</v>
+            <v>1099</v>
           </cell>
           <cell r="OR55" t="str">
             <v/>
@@ -55535,7 +55535,7 @@
             <v>0</v>
           </cell>
           <cell r="OT55">
-            <v>16</v>
+            <v>25</v>
           </cell>
           <cell r="OU55" t="str">
             <v/>
@@ -55544,7 +55544,7 @@
             <v>0</v>
           </cell>
           <cell r="OW55">
-            <v>329</v>
+            <v>367</v>
           </cell>
           <cell r="OX55" t="str">
             <v/>
@@ -55567,7 +55567,7 @@
             <v>0</v>
           </cell>
           <cell r="PF55">
-            <v>387</v>
+            <v>427</v>
           </cell>
           <cell r="PG55" t="str">
             <v/>
@@ -55576,7 +55576,7 @@
             <v>0</v>
           </cell>
           <cell r="PI55">
-            <v>635</v>
+            <v>729</v>
           </cell>
           <cell r="PJ55" t="str">
             <v/>
@@ -55606,7 +55606,7 @@
             <v>0</v>
           </cell>
           <cell r="PU55">
-            <v>323</v>
+            <v>394</v>
           </cell>
           <cell r="PV55" t="str">
             <v/>
@@ -55615,7 +55615,7 @@
             <v>0</v>
           </cell>
           <cell r="PX55">
-            <v>120</v>
+            <v>154</v>
           </cell>
           <cell r="PY55" t="str">
             <v/>
@@ -55647,7 +55647,7 @@
             <v>0</v>
           </cell>
           <cell r="QJ55">
-            <v>209</v>
+            <v>253</v>
           </cell>
           <cell r="QK55" t="str">
             <v/>
@@ -55672,7 +55672,7 @@
             <v>0</v>
           </cell>
           <cell r="QS55">
-            <v>85</v>
+            <v>117</v>
           </cell>
           <cell r="QT55" t="str">
             <v/>
@@ -55681,7 +55681,7 @@
             <v>0</v>
           </cell>
           <cell r="QV55">
-            <v>41</v>
+            <v>45</v>
           </cell>
           <cell r="QW55" t="str">
             <v/>
@@ -55699,7 +55699,7 @@
             <v>0</v>
           </cell>
           <cell r="RB55">
-            <v>312</v>
+            <v>353</v>
           </cell>
           <cell r="RC55" t="str">
             <v/>
@@ -55708,7 +55708,7 @@
             <v>0</v>
           </cell>
           <cell r="RE55">
-            <v>675</v>
+            <v>761</v>
           </cell>
           <cell r="RF55" t="str">
             <v/>
@@ -55724,7 +55724,7 @@
             <v>0</v>
           </cell>
           <cell r="RK55">
-            <v>247</v>
+            <v>274</v>
           </cell>
           <cell r="RL55" t="str">
             <v/>
@@ -55733,7 +55733,7 @@
             <v>0</v>
           </cell>
           <cell r="RN55">
-            <v>218</v>
+            <v>265</v>
           </cell>
           <cell r="RO55" t="str">
             <v/>
@@ -55742,7 +55742,7 @@
             <v>0</v>
           </cell>
           <cell r="RQ55">
-            <v>396</v>
+            <v>463</v>
           </cell>
           <cell r="RR55" t="str">
             <v/>
@@ -55760,7 +55760,7 @@
             <v>0</v>
           </cell>
           <cell r="RW55">
-            <v>43</v>
+            <v>47</v>
           </cell>
           <cell r="RX55" t="str">
             <v/>
@@ -55769,7 +55769,7 @@
             <v>0</v>
           </cell>
           <cell r="RZ55">
-            <v>298</v>
+            <v>355</v>
           </cell>
           <cell r="SA55" t="str">
             <v/>
@@ -55778,7 +55778,7 @@
             <v>0</v>
           </cell>
           <cell r="SC55">
-            <v>325</v>
+            <v>345</v>
           </cell>
           <cell r="SD55" t="str">
             <v/>
@@ -55787,7 +55787,7 @@
             <v>0</v>
           </cell>
           <cell r="SF55">
-            <v>52</v>
+            <v>67</v>
           </cell>
           <cell r="SG55" t="str">
             <v/>
@@ -55796,7 +55796,7 @@
             <v>0</v>
           </cell>
           <cell r="SI55">
-            <v>335</v>
+            <v>373</v>
           </cell>
           <cell r="SJ55" t="str">
             <v/>
@@ -55805,7 +55805,7 @@
             <v>0</v>
           </cell>
           <cell r="SL55">
-            <v>177</v>
+            <v>205</v>
           </cell>
           <cell r="SM55" t="str">
             <v/>
@@ -55823,7 +55823,7 @@
             <v>0</v>
           </cell>
           <cell r="SR55">
-            <v>103</v>
+            <v>117</v>
           </cell>
           <cell r="SS55" t="str">
             <v/>
@@ -55832,7 +55832,7 @@
             <v>0</v>
           </cell>
           <cell r="SU55">
-            <v>474</v>
+            <v>564</v>
           </cell>
           <cell r="SV55" t="str">
             <v/>
@@ -55841,10 +55841,10 @@
             <v>0</v>
           </cell>
           <cell r="SX55">
-            <v>30191</v>
+            <v>34522</v>
           </cell>
           <cell r="SY55">
-            <v>13.183842794759824</v>
+            <v>15.075109170305677</v>
           </cell>
           <cell r="SZ55">
             <v>0</v>
@@ -56145,7 +56145,7 @@
       </c>
       <c r="B1" s="4">
         <f ca="1">TODAY()</f>
-        <v>45029</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -56195,11 +56195,11 @@
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6">
         <f>HLOOKUP(C5,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -56216,16 +56216,16 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M5" s="5">
         <f>HLOOKUP(L5,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>12610</v>
+        <v>15760</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <f>HLOOKUP(C6,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
@@ -56239,108 +56239,108 @@
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" s="6">
         <f>HLOOKUP(I6,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6" s="5">
         <f>HLOOKUP(L6,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>11960</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
         <f>HLOOKUP(C7,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6">
         <f>HLOOKUP(F7,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
         <f>HLOOKUP(I7,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M7" s="5">
         <f>HLOOKUP(L7,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>9540</v>
+        <v>14280</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6">
         <f>HLOOKUP(C8,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6">
         <f>HLOOKUP(F8,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="6">
         <f>HLOOKUP(I8,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M8" s="5">
         <f>HLOOKUP(L8,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>9270</v>
+        <v>9540</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D9" s="6">
         <f>HLOOKUP(C9,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6">
         <f>HLOOKUP(F9,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J9" s="6">
         <f>HLOOKUP(I9,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="5">
         <f>HLOOKUP(L9,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>6330</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -56349,100 +56349,100 @@
       </c>
       <c r="D10" s="6">
         <f>HLOOKUP(C10,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G10" s="6">
         <f>HLOOKUP(F10,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6">
         <f>HLOOKUP(I10,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M10" s="5">
         <f>HLOOKUP(L10,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>5060</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6">
         <f>HLOOKUP(C11,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G11" s="6">
         <f>HLOOKUP(F11,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J11" s="6">
         <f>HLOOKUP(I11,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M11" s="5">
         <f>HLOOKUP(L11,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>5040</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6">
         <f>HLOOKUP(C12,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6">
         <f>HLOOKUP(F12,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J12" s="6">
         <f>HLOOKUP(I12,'[1]PPS Sales'!$A$5:$TD$55,29,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="5">
         <f>HLOOKUP(L12,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>4780</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
         <f>HLOOKUP(C13,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G13" s="6">
         <f>HLOOKUP(F13,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56456,23 +56456,23 @@
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M13" s="5">
         <f>HLOOKUP(L13,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>4330</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="6">
-        <f>HLOOKUP(C14,'[1]PPS Sales'!$A$5:$XS$55,39,FALSE)</f>
+        <f>HLOOKUP(C14,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G14" s="6">
         <f>HLOOKUP(F14,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56486,23 +56486,23 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M14" s="5">
         <f>HLOOKUP(L14,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>3200</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6">
-        <f>HLOOKUP(C15,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>2</v>
+        <f>HLOOKUP(C15,'[1]PPS Sales'!$A$5:$XS$55,39,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G15" s="6">
         <f>HLOOKUP(F15,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56520,19 +56520,19 @@
       </c>
       <c r="M15" s="5">
         <f>HLOOKUP(L15,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>2870</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
         <f>HLOOKUP(C16,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G16" s="6">
         <f>HLOOKUP(F16,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56546,27 +56546,27 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M16" s="5">
         <f>HLOOKUP(L16,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>2260</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6">
         <f>HLOOKUP(C17,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G17" s="6">
         <f>HLOOKUP(F17,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>21</v>
@@ -56580,12 +56580,12 @@
       </c>
       <c r="M17" s="5">
         <f>HLOOKUP(L17,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>2200</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="6">
         <f>HLOOKUP(C18,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
@@ -56606,16 +56606,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5">
-        <f>HLOOKUP(L18,'[1]PPS Sales'!$A$5:$XS$55,19,FALSE)</f>
-        <v>1840</v>
+        <f>HLOOKUP(L18,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
+        <v>2260</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19" s="6">
         <f>HLOOKUP(C19,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
@@ -56636,20 +56636,20 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="M19" s="5">
-        <f>HLOOKUP(L19,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>1640</v>
+        <f>HLOOKUP(L19,'[1]PPS Sales'!$A$5:$XS$55,19,FALSE)</f>
+        <v>1840</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6">
         <f>HLOOKUP(C20,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -56666,20 +56666,20 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M20" s="5">
         <f>HLOOKUP(L20,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>1060</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D21" s="6">
         <f>HLOOKUP(C21,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
@@ -56696,23 +56696,23 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M21" s="5">
         <f>HLOOKUP(L21,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6">
         <f>HLOOKUP(C22,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="6">
         <f>HLOOKUP(F22,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56726,11 +56726,11 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M22" s="5">
         <f>HLOOKUP(L22,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>680</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -56742,7 +56742,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6">
         <f>HLOOKUP(F23,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56756,11 +56756,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M23" s="5">
         <f>HLOOKUP(L23,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -56772,7 +56772,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G24" s="6">
         <f>HLOOKUP(F24,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56786,11 +56786,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M24" s="5">
         <f>HLOOKUP(L24,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -56802,7 +56802,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G25" s="6">
         <f>HLOOKUP(F25,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56816,7 +56816,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M25" s="5">
         <f>HLOOKUP(L25,'[1]PPS Sales'!$A$5:$TD$55,19,FALSE)</f>
@@ -56832,7 +56832,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G26" s="6">
         <f>HLOOKUP(F26,'[1]PPS Sales'!$A$5:$TD$55,33,FALSE)</f>
@@ -56979,7 +56979,7 @@
       </c>
       <c r="D31" s="6">
         <f>HLOOKUP(C31,'[1]PPS Sales'!$A$5:$TD$55,39,FALSE)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>6</v>
